--- a/SchoolManager/bin/Release/netcoreapp3.1/programa1.xlsx
+++ b/SchoolManager/bin/Release/netcoreapp3.1/programa1.xlsx
@@ -178,138 +178,138 @@
     <t>0</t>
   </si>
   <si>
+    <t>11а</t>
+  </si>
+  <si>
+    <t>6 клас</t>
+  </si>
+  <si>
+    <t>8б</t>
+  </si>
+  <si>
+    <t>8в</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>8д</t>
+  </si>
+  <si>
+    <t>10в</t>
+  </si>
+  <si>
+    <t>12а</t>
+  </si>
+  <si>
+    <t>10б</t>
+  </si>
+  <si>
+    <t>9в</t>
+  </si>
+  <si>
+    <t>8г</t>
+  </si>
+  <si>
+    <t>12б</t>
+  </si>
+  <si>
+    <t>10а</t>
+  </si>
+  <si>
     <t>11д</t>
   </si>
   <si>
-    <t>8г</t>
+    <t>11г</t>
   </si>
   <si>
     <t>9д</t>
   </si>
   <si>
-    <t>8в</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>8д</t>
+    <t>12в</t>
+  </si>
+  <si>
+    <t>12д</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>10г</t>
+  </si>
+  <si>
+    <t>7 клас</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>10д</t>
   </si>
   <si>
     <t>9а</t>
   </si>
   <si>
-    <t>10б</t>
-  </si>
-  <si>
-    <t>9в</t>
-  </si>
-  <si>
-    <t>8б</t>
-  </si>
-  <si>
-    <t>12б</t>
-  </si>
-  <si>
-    <t>10а</t>
+    <t>11в</t>
+  </si>
+  <si>
+    <t>5 клас</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>12г</t>
+  </si>
+  <si>
+    <t>9г</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>8а</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>39</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>11а</t>
-  </si>
-  <si>
-    <t>11г</t>
-  </si>
-  <si>
-    <t>6 клас</t>
-  </si>
-  <si>
-    <t>12в</t>
-  </si>
-  <si>
-    <t>12а</t>
-  </si>
-  <si>
-    <t>12д</t>
-  </si>
-  <si>
-    <t>1</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>9б</t>
   </si>
   <si>
     <t>11б</t>
   </si>
   <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>10г</t>
-  </si>
-  <si>
-    <t>10в</t>
-  </si>
-  <si>
-    <t>7 клас</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>10д</t>
-  </si>
-  <si>
-    <t>5 клас</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>9г</t>
-  </si>
-  <si>
-    <t>12г</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
-    <t>8а</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>9б</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>11в</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>8</t>
   </si>
   <si>
@@ -319,69 +319,69 @@
     <t>9</t>
   </si>
   <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
     <t>38</t>
   </si>
   <si>
-    <t>16</t>
+    <t>31</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>17</t>
   </si>
   <si>
     <t>26</t>
   </si>
   <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>17</t>
+    <t>25</t>
   </si>
   <si>
     <t>33</t>
   </si>
   <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
     <t>37</t>
   </si>
   <si>
@@ -391,16 +391,16 @@
     <t>47</t>
   </si>
   <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
     <t>40</t>
   </si>
   <si>
     <t>46</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>36</t>
   </si>
 </sst>
 </file>
@@ -984,17 +984,17 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="C2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
         <v>55</v>
       </c>
@@ -1008,30 +1008,32 @@
       <c r="K2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="L2" s="1"/>
+      <c r="L2" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="T2" s="1"/>
       <c r="U2" s="1" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>65</v>
@@ -1039,10 +1041,10 @@
       <c r="X2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="Z2" s="1"/>
       <c r="AA2" s="1" t="s">
         <v>68</v>
       </c>
@@ -1050,51 +1052,49 @@
         <v>69</v>
       </c>
       <c r="AC2" s="1"/>
-      <c r="AD2" s="1" t="s">
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AE2" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="AF2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>72</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="AG2" s="1"/>
       <c r="AH2" s="1"/>
       <c r="AI2" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>75</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="AL2" s="1"/>
       <c r="AM2" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AN2" s="1"/>
       <c r="AO2" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AR2" s="1"/>
+        <v>75</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="AS2" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AT2" s="1"/>
       <c r="AU2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AV2" s="1"/>
+      <c r="AV2" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="AW2" s="1"/>
       <c r="AX2" s="1"/>
       <c r="AY2" s="1"/>
@@ -1105,15 +1105,19 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
         <v>55</v>
       </c>
@@ -1123,36 +1127,36 @@
       <c r="I3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="J3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="O3" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1" t="s">
-        <v>78</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q3" s="1"/>
       <c r="R3" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="T3" s="1"/>
       <c r="U3" s="1" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="W3" s="1" t="s">
         <v>65</v>
@@ -1162,63 +1166,59 @@
       </c>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AC3" s="1"/>
-      <c r="AD3" s="1" t="s">
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AE3" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="AF3" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>61</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="AG3" s="1"/>
       <c r="AH3" s="1"/>
       <c r="AI3" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AJ3" s="1"/>
-      <c r="AK3" s="1"/>
+      <c r="AK3" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="AL3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM3" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="AN3" s="1"/>
       <c r="AO3" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AP3" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AQ3" s="1"/>
-      <c r="AR3" s="1"/>
+      <c r="AR3" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="AS3" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AT3" s="1"/>
       <c r="AU3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AV3" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="AV3" s="1"/>
       <c r="AW3" s="1"/>
       <c r="AX3" s="1"/>
-      <c r="AY3" s="1" t="s">
-        <v>72</v>
-      </c>
+      <c r="AY3" s="1"/>
       <c r="AZ3" s="1"/>
       <c r="BA3" s="1"/>
     </row>
@@ -1230,120 +1230,120 @@
         <v>66</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="O4" s="1"/>
+        <v>82</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="P4" s="1" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="S4" s="1"/>
       <c r="T4" s="1" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W4" s="1"/>
       <c r="X4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE4" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="Y4" s="1" t="s">
+      <c r="AF4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG4" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF4" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AG4" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="AH4" s="1"/>
       <c r="AI4" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AJ4" s="1"/>
-      <c r="AK4" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="AK4" s="1"/>
       <c r="AL4" s="1"/>
       <c r="AM4" s="1"/>
       <c r="AN4" s="1"/>
       <c r="AO4" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AP4" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AQ4" s="1"/>
       <c r="AR4" s="1"/>
       <c r="AS4" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AT4" s="1"/>
       <c r="AU4" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="AV4" s="1"/>
       <c r="AW4" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AX4" s="1" t="s">
         <v>55</v>
       </c>
       <c r="AY4" s="1" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AZ4" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BA4" s="1"/>
     </row>
@@ -1354,122 +1354,120 @@
       <c r="B5" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="D5" s="1" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>89</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="J5" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1" t="s">
         <v>82</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N5" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W5" s="1"/>
       <c r="X5" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Y5" s="1"/>
-      <c r="Z5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA5" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
       <c r="AB5" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC5" s="1" t="s">
-        <v>61</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="AC5" s="1"/>
       <c r="AD5" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AE5" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AF5" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AG5" s="1"/>
+        <v>89</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="AH5" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AI5" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AJ5" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AK5" s="1"/>
       <c r="AL5" s="1"/>
       <c r="AM5" s="1"/>
       <c r="AN5" s="1" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="AO5" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AP5" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AQ5" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="AR5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AS5" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AT5" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="AU5" s="1" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AV5" s="1"/>
       <c r="AW5" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AX5" s="1" t="s">
         <v>55</v>
       </c>
       <c r="AY5" s="1"/>
-      <c r="AZ5" s="1" t="s">
-        <v>89</v>
-      </c>
+      <c r="AZ5" s="1"/>
       <c r="BA5" s="1"/>
     </row>
     <row r="6">
@@ -1477,120 +1475,122 @@
         <v>5</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="N6" s="1" t="s">
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="O6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
       <c r="R6" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="S6" s="1" t="s">
-        <v>78</v>
-      </c>
+      <c r="S6" s="1"/>
       <c r="T6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U6" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="U6" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="V6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="W6" s="1"/>
+        <v>91</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="X6" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="Y6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z6" s="1"/>
-      <c r="AA6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="AB6" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="AD6" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="AF6" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG6" s="1"/>
+        <v>89</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="AH6" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AI6" s="1" t="s">
         <v>92</v>
       </c>
       <c r="AJ6" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AK6" s="1"/>
-      <c r="AL6" s="1"/>
-      <c r="AM6" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AN6" s="1" t="s">
-        <v>66</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="AK6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM6" s="1"/>
+      <c r="AN6" s="1"/>
       <c r="AO6" s="1" t="s">
         <v>95</v>
       </c>
       <c r="AP6" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="AQ6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AR6" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="AQ6" s="1"/>
+      <c r="AR6" s="1"/>
       <c r="AS6" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AT6" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="AU6" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="AV6" s="1"/>
       <c r="AW6" s="1"/>
       <c r="AX6" s="1"/>
       <c r="AY6" s="1"/>
-      <c r="AZ6" s="1"/>
+      <c r="AZ6" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="BA6" s="1"/>
     </row>
     <row r="7">
@@ -1598,46 +1598,46 @@
         <v>6</v>
       </c>
       <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I7" s="1"/>
-      <c r="J7" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S7" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="S7" s="1"/>
       <c r="T7" s="1" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="X7" s="1" t="s">
         <v>92</v>
@@ -1645,13 +1645,15 @@
       <c r="Y7" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="Z7" s="1"/>
+      <c r="Z7" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="AA7" s="1"/>
       <c r="AB7" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="AD7" s="1" t="s">
         <v>68</v>
@@ -1662,23 +1664,21 @@
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
       <c r="AH7" s="1" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="AI7" s="1" t="s">
         <v>92</v>
       </c>
       <c r="AJ7" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AK7" s="1" t="s">
-        <v>94</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="AK7" s="1"/>
       <c r="AL7" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="AM7" s="1"/>
       <c r="AN7" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AO7" s="1" t="s">
         <v>95</v>
@@ -1686,29 +1686,29 @@
       <c r="AP7" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="AQ7" s="1"/>
-      <c r="AR7" s="1" t="s">
+      <c r="AQ7" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="AR7" s="1"/>
       <c r="AS7" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AT7" s="1" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="AU7" s="1" t="s">
         <v>96</v>
       </c>
       <c r="AV7" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AW7" s="1" t="s">
-        <v>88</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="AW7" s="1"/>
       <c r="AX7" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AY7" s="1"/>
+      <c r="AY7" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="AZ7" s="1"/>
       <c r="BA7" s="1"/>
     </row>
@@ -1774,45 +1774,51 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>57</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>97</v>
       </c>
       <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="J10" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="K10" s="1" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="O10" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q10" s="1"/>
+      <c r="Q10" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="R10" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="S10" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="T10" s="1"/>
       <c r="U10" s="1" t="s">
         <v>98</v>
@@ -1820,72 +1826,66 @@
       <c r="V10" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="W10" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="X10" s="1" t="s">
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="Y10" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z10" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA10" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB10" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC10" s="1"/>
-      <c r="AD10" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE10" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="AF10" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AG10" s="1" t="s">
-        <v>61</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="AG10" s="1"/>
       <c r="AH10" s="1"/>
       <c r="AI10" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AJ10" s="1"/>
       <c r="AK10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL10" s="1"/>
+        <v>75</v>
+      </c>
+      <c r="AL10" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="AM10" s="1"/>
       <c r="AN10" s="1"/>
       <c r="AO10" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="AP10" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="AQ10" s="1" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="AR10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS10" s="1"/>
+        <v>76</v>
+      </c>
+      <c r="AS10" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="AT10" s="1"/>
       <c r="AU10" s="1" t="s">
         <v>97</v>
       </c>
       <c r="AV10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AW10" s="1"/>
-      <c r="AX10" s="1" t="s">
-        <v>55</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="AW10" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AX10" s="1"/>
       <c r="AY10" s="1"/>
       <c r="AZ10" s="1"/>
       <c r="BA10" s="1"/>
@@ -1895,43 +1895,45 @@
         <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>69</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
+      <c r="L11" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
+      <c r="N11" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="O11" s="1" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="S11" s="1"/>
+        <v>94</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="T11" s="1"/>
       <c r="U11" s="1" t="s">
         <v>98</v>
@@ -1939,71 +1941,67 @@
       <c r="V11" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="W11" s="1" t="s">
-        <v>72</v>
-      </c>
+      <c r="W11" s="1"/>
       <c r="X11" s="1" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z11" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA11" s="1" t="s">
-        <v>91</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
       <c r="AB11" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC11" s="1" t="s">
-        <v>101</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="AC11" s="1"/>
       <c r="AD11" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AE11" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AF11" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AG11" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AH11" s="1"/>
       <c r="AI11" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ11" s="1"/>
-      <c r="AK11" s="1"/>
+      <c r="AK11" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="AL11" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AM11" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AN11" s="1"/>
       <c r="AO11" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="AP11" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AQ11" s="1"/>
+        <v>86</v>
+      </c>
+      <c r="AQ11" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="AR11" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="AS11" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AT11" s="1"/>
       <c r="AU11" s="1"/>
-      <c r="AV11" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AW11" s="1"/>
+      <c r="AV11" s="1"/>
+      <c r="AW11" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="AX11" s="1" t="s">
         <v>55</v>
       </c>
@@ -2016,119 +2014,119 @@
         <v>3</v>
       </c>
       <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="E12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="L12" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>65</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="M12" s="1"/>
       <c r="N12" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="O12" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="O12" s="1"/>
       <c r="P12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="S12" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="T12" s="1"/>
       <c r="U12" s="1" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="W12" s="1" t="s">
-        <v>91</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="W12" s="1"/>
       <c r="X12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE12" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="Y12" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z12" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA12" s="1"/>
-      <c r="AB12" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AC12" s="1"/>
-      <c r="AD12" s="1"/>
-      <c r="AE12" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="AF12" s="1"/>
       <c r="AG12" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AH12" s="1" t="s">
-        <v>57</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="AH12" s="1"/>
       <c r="AI12" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AJ12" s="1" t="s">
-        <v>74</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="AJ12" s="1"/>
       <c r="AK12" s="1"/>
       <c r="AL12" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AM12" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN12" s="1"/>
       <c r="AO12" s="1" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="AP12" s="1" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="AQ12" s="1"/>
       <c r="AR12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AS12" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AT12" s="1"/>
+        <v>59</v>
+      </c>
+      <c r="AS12" s="1"/>
+      <c r="AT12" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="AU12" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AV12" s="1"/>
+        <v>102</v>
+      </c>
+      <c r="AV12" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="AW12" s="1"/>
-      <c r="AX12" s="1"/>
-      <c r="AY12" s="1" t="s">
-        <v>72</v>
-      </c>
+      <c r="AX12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AY12" s="1"/>
       <c r="AZ12" s="1"/>
       <c r="BA12" s="1"/>
     </row>
@@ -2138,116 +2136,116 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" s="1" t="s">
         <v>76</v>
       </c>
+      <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="G13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="K13" s="1"/>
       <c r="L13" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="M13" s="1"/>
+        <v>67</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="N13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="R13" s="1" t="s">
         <v>65</v>
       </c>
       <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
+      <c r="T13" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="U13" s="1" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="W13" s="1" t="s">
-        <v>91</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="W13" s="1"/>
       <c r="X13" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="Z13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC13" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AA13" s="1"/>
-      <c r="AB13" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC13" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="AD13" s="1" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="AE13" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AF13" s="1"/>
       <c r="AG13" s="1" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="AH13" s="1" t="s">
         <v>57</v>
       </c>
       <c r="AI13" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AJ13" s="1"/>
-      <c r="AK13" s="1"/>
-      <c r="AL13" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AJ13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL13" s="1"/>
+      <c r="AM13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ13" s="1"/>
+      <c r="AR13" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AM13" s="1"/>
-      <c r="AN13" s="1"/>
-      <c r="AO13" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AP13" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AQ13" s="1"/>
-      <c r="AR13" s="1"/>
       <c r="AS13" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AT13" s="1" t="s">
-        <v>67</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="AT13" s="1"/>
       <c r="AU13" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AV13" s="1"/>
-      <c r="AW13" s="1" t="s">
-        <v>88</v>
-      </c>
+      <c r="AW13" s="1"/>
       <c r="AX13" s="1"/>
       <c r="AY13" s="1"/>
       <c r="AZ13" s="1"/>
@@ -2259,116 +2257,118 @@
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="H14" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="I14" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="J14" s="1"/>
       <c r="K14" s="1" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M14" s="1"/>
+        <v>69</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="N14" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="O14" s="1"/>
-      <c r="P14" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="P14" s="1"/>
       <c r="Q14" s="1" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="S14" s="1"/>
       <c r="T14" s="1" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="X14" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="Y14" s="1" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="Z14" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA14" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="AB14" s="1" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="AC14" s="1"/>
-      <c r="AD14" s="1"/>
+      <c r="AD14" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="AE14" s="1" t="s">
         <v>105</v>
       </c>
       <c r="AF14" s="1"/>
       <c r="AG14" s="1"/>
       <c r="AH14" s="1" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="AI14" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AJ14" s="1"/>
-      <c r="AK14" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AL14" s="1" t="s">
-        <v>59</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="AJ14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK14" s="1"/>
+      <c r="AL14" s="1"/>
       <c r="AM14" s="1"/>
-      <c r="AN14" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="AN14" s="1"/>
       <c r="AO14" s="1" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="AP14" s="1" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="AQ14" s="1"/>
       <c r="AR14" s="1"/>
       <c r="AS14" s="1" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="AT14" s="1" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="AU14" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="AV14" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="AV14" s="1"/>
       <c r="AW14" s="1"/>
       <c r="AX14" s="1"/>
-      <c r="AY14" s="1"/>
+      <c r="AY14" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="AZ14" s="1"/>
       <c r="BA14" s="1"/>
     </row>
@@ -2378,116 +2378,118 @@
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>76</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="H15" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="I15" s="1" t="s">
         <v>57</v>
       </c>
       <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="K15" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="L15" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>82</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="M15" s="1"/>
       <c r="N15" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O15" s="1"/>
-      <c r="P15" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="P15" s="1"/>
       <c r="Q15" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="S15" s="1" t="s">
-        <v>78</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="S15" s="1"/>
       <c r="T15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="U15" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="U15" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="V15" s="1" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="X15" s="1" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="Y15" s="1"/>
       <c r="Z15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB15" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AA15" s="1"/>
-      <c r="AB15" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="AC15" s="1" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="AD15" s="1" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="AE15" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AF15" s="1"/>
-      <c r="AG15" s="1"/>
-      <c r="AH15" s="1"/>
+      <c r="AG15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH15" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="AI15" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AJ15" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK15" s="1"/>
       <c r="AL15" s="1"/>
       <c r="AM15" s="1"/>
       <c r="AN15" s="1" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="AO15" s="1" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="AP15" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AQ15" s="1" t="s">
-        <v>70</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="AQ15" s="1"/>
       <c r="AR15" s="1"/>
-      <c r="AS15" s="1" t="s">
+      <c r="AS15" s="1"/>
+      <c r="AT15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AU15" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="AT15" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AU15" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AV15" s="1"/>
+      <c r="AV15" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="AW15" s="1"/>
       <c r="AX15" s="1"/>
-      <c r="AY15" s="1"/>
+      <c r="AY15" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="AZ15" s="1"/>
       <c r="BA15" s="1"/>
     </row>
@@ -2552,117 +2554,117 @@
       <c r="A18" s="3">
         <v>1</v>
       </c>
-      <c r="B18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="C18" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" s="1"/>
+        <v>77</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="E18" s="1" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="F18" s="1"/>
-      <c r="G18" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>57</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="O18" s="1"/>
+      <c r="O18" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="P18" s="1" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="S18" s="1" t="s">
-        <v>67</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="S18" s="1"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="W18" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="X18" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y18" s="1"/>
-      <c r="Z18" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA18" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB18" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC18" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="AC18" s="1"/>
       <c r="AD18" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="AE18" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF18" s="1"/>
-      <c r="AG18" s="1"/>
+      <c r="AG18" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="AH18" s="1"/>
       <c r="AI18" s="1" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="AJ18" s="1"/>
       <c r="AK18" s="1"/>
       <c r="AL18" s="1"/>
       <c r="AM18" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AN18" s="1"/>
       <c r="AO18" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AP18" s="1"/>
       <c r="AQ18" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AR18" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS18" s="1"/>
+        <v>76</v>
+      </c>
+      <c r="AS18" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="AT18" s="1"/>
       <c r="AU18" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AV18" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AW18" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AX18" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="AW18" s="1"/>
+      <c r="AX18" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="AY18" s="1"/>
       <c r="AZ18" s="1"/>
       <c r="BA18" s="1"/>
@@ -2672,113 +2674,113 @@
         <v>2</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>91</v>
-      </c>
+      <c r="J19" s="1"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
+      <c r="L19" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="M19" s="1"/>
       <c r="N19" s="1" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="O19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="X19" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA19" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="X19" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y19" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z19" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA19" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="AB19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC19" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AC19" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD19" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="AD19" s="1"/>
       <c r="AE19" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AF19" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG19" s="1"/>
       <c r="AH19" s="1"/>
       <c r="AI19" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AJ19" s="1"/>
+        <v>109</v>
+      </c>
+      <c r="AJ19" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="AK19" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AL19" s="1"/>
+        <v>94</v>
+      </c>
+      <c r="AL19" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="AM19" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AN19" s="1"/>
       <c r="AO19" s="1"/>
       <c r="AP19" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AQ19" s="1" t="s">
-        <v>83</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="AQ19" s="1"/>
       <c r="AR19" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AS19" s="1" t="s">
-        <v>101</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="AS19" s="1"/>
       <c r="AT19" s="1"/>
       <c r="AU19" s="1"/>
       <c r="AV19" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AW19" s="1" t="s">
-        <v>88</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="AW19" s="1"/>
       <c r="AX19" s="1" t="s">
         <v>55</v>
       </c>
@@ -2791,112 +2793,112 @@
         <v>3</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>83</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>57</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="M20" s="1"/>
       <c r="N20" s="1" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="O20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA20" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="R20" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="T20" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
-      <c r="W20" s="1"/>
-      <c r="X20" s="1" t="s">
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE20" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="Y20" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z20" s="1"/>
-      <c r="AA20" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB20" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC20" s="1"/>
-      <c r="AD20" s="1"/>
-      <c r="AE20" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="AF20" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG20" s="1"/>
       <c r="AH20" s="1"/>
-      <c r="AI20" s="1" t="s">
-        <v>112</v>
-      </c>
+      <c r="AI20" s="1"/>
       <c r="AJ20" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AK20" s="1"/>
+        <v>69</v>
+      </c>
+      <c r="AK20" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="AL20" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AM20" s="1" t="s">
-        <v>72</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="AM20" s="1"/>
       <c r="AN20" s="1"/>
       <c r="AO20" s="1"/>
       <c r="AP20" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AQ20" s="1"/>
       <c r="AR20" s="1" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="AS20" s="1"/>
       <c r="AT20" s="1"/>
       <c r="AU20" s="1"/>
       <c r="AV20" s="1" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="AW20" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AX20" s="1" t="s">
         <v>55</v>
@@ -2910,72 +2912,74 @@
         <v>4</v>
       </c>
       <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="C21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F21" s="1"/>
+        <v>78</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="H21" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="I21" s="1" t="s">
         <v>57</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K21" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="L21" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
       <c r="Q21" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="X21" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z21" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R21" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="S21" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="T21" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="U21" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="V21" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="W21" s="1" t="s">
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="X21" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="Y21" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z21" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA21" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB21" s="1"/>
       <c r="AC21" s="1"/>
-      <c r="AD21" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="AD21" s="1"/>
       <c r="AE21" s="1" t="s">
         <v>114</v>
       </c>
@@ -2983,43 +2987,39 @@
         <v>114</v>
       </c>
       <c r="AG21" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AH21" s="1"/>
       <c r="AI21" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ21" s="1" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AK21" s="1" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="AL21" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AM21" s="1"/>
       <c r="AN21" s="1"/>
       <c r="AO21" s="1" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="AP21" s="1" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="AQ21" s="1"/>
-      <c r="AR21" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="AR21" s="1"/>
       <c r="AS21" s="1" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="AT21" s="1"/>
       <c r="AU21" s="1"/>
-      <c r="AV21" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="AV21" s="1"/>
       <c r="AW21" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AX21" s="1"/>
       <c r="AY21" s="1"/>
@@ -3030,76 +3030,72 @@
       <c r="A22" s="3">
         <v>5</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22" s="1"/>
+        <v>62</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="F22" s="1" t="s">
         <v>57</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>60</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="M22" s="1"/>
       <c r="N22" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>74</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="S22" s="1"/>
       <c r="T22" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="U22" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="W22" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="X22" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="V22" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="W22" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="X22" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="Y22" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="Z22" s="1"/>
-      <c r="AA22" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB22" s="1"/>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="AC22" s="1"/>
       <c r="AD22" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AE22" s="1" t="s">
         <v>114</v>
@@ -3108,39 +3104,43 @@
         <v>114</v>
       </c>
       <c r="AG22" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AH22" s="1"/>
+        <v>54</v>
+      </c>
+      <c r="AH22" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="AI22" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="AJ22" s="1" t="s">
-        <v>59</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="AJ22" s="1"/>
       <c r="AK22" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AL22" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AM22" s="1"/>
       <c r="AN22" s="1"/>
       <c r="AO22" s="1" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="AP22" s="1" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="AQ22" s="1"/>
-      <c r="AR22" s="1"/>
+      <c r="AR22" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="AS22" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AT22" s="1"/>
       <c r="AU22" s="1"/>
-      <c r="AV22" s="1"/>
+      <c r="AV22" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="AW22" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AX22" s="1"/>
       <c r="AY22" s="1"/>
@@ -3151,46 +3151,42 @@
       <c r="A23" s="3">
         <v>6</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G23" s="1"/>
-      <c r="H23" s="1" t="s">
-        <v>88</v>
-      </c>
+      <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1" t="s">
-        <v>75</v>
-      </c>
+      <c r="J23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K23" s="1"/>
       <c r="L23" s="1" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
-      <c r="O23" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="R23" s="1"/>
+        <v>93</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="S23" s="1"/>
       <c r="T23" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="U23" s="1" t="s">
         <v>116</v>
@@ -3198,72 +3194,76 @@
       <c r="V23" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="W23" s="1"/>
+      <c r="W23" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="X23" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="Y23" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="Y23" s="1"/>
       <c r="Z23" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC23" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD23" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AA23" s="1"/>
-      <c r="AB23" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC23" s="1"/>
-      <c r="AD23" s="1"/>
       <c r="AE23" s="1"/>
       <c r="AF23" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AG23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI23" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="AG23" s="1" t="s">
+      <c r="AJ23" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AH23" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI23" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="AJ23" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AK23" s="1" t="s">
-        <v>72</v>
-      </c>
+      <c r="AK23" s="1"/>
       <c r="AL23" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AM23" s="1" t="s">
         <v>94</v>
       </c>
       <c r="AN23" s="1"/>
       <c r="AO23" s="1" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="AP23" s="1" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="AQ23" s="1"/>
       <c r="AR23" s="1" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="AS23" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AT23" s="1" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="AU23" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AV23" s="1"/>
-      <c r="AW23" s="1"/>
-      <c r="AX23" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="AW23" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AX23" s="1"/>
       <c r="AY23" s="1"/>
       <c r="AZ23" s="1"/>
       <c r="BA23" s="1"/>
@@ -3274,106 +3274,106 @@
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
+      <c r="I24" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="K24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
-      <c r="Q24" s="1" t="s">
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="X24" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z24" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC24" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD24" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="R24" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="S24" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="T24" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="U24" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="V24" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="W24" s="1"/>
-      <c r="X24" s="1"/>
-      <c r="Y24" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z24" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA24" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB24" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC24" s="1"/>
-      <c r="AD24" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="AE24" s="1"/>
       <c r="AF24" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="AG24" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH24" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AI24" s="1"/>
+      <c r="AG24" s="1"/>
+      <c r="AH24" s="1"/>
+      <c r="AI24" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="AJ24" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK24" s="1"/>
+      <c r="AL24" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="AL24" s="1"/>
       <c r="AM24" s="1" t="s">
         <v>94</v>
       </c>
       <c r="AN24" s="1"/>
       <c r="AO24" s="1" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="AP24" s="1" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="AQ24" s="1"/>
-      <c r="AR24" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AS24" s="1"/>
+      <c r="AR24" s="1"/>
+      <c r="AS24" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="AT24" s="1" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="AU24" s="1" t="s">
         <v>119</v>
       </c>
       <c r="AV24" s="1"/>
-      <c r="AW24" s="1"/>
+      <c r="AW24" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="AX24" s="1" t="s">
         <v>55</v>
       </c>
@@ -3385,14 +3385,12 @@
       <c r="A26" s="3">
         <v>1</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>82</v>
@@ -3400,32 +3398,36 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>57</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
+      <c r="M26" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="N26" s="1" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q26" s="1"/>
+        <v>87</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="R26" s="1"/>
       <c r="S26" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="T26" s="1"/>
       <c r="U26" s="1" t="s">
@@ -3434,32 +3436,32 @@
       <c r="V26" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="W26" s="1"/>
+      <c r="W26" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="X26" s="1"/>
       <c r="Y26" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="Z26" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA26" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC26" s="1"/>
+      <c r="AD26" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="AA26" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB26" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC26" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD26" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="AE26" s="1" t="s">
         <v>120</v>
       </c>
       <c r="AF26" s="1"/>
       <c r="AG26" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AH26" s="1"/>
       <c r="AI26" s="1" t="s">
@@ -3467,24 +3469,22 @@
       </c>
       <c r="AJ26" s="1"/>
       <c r="AK26" s="1" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AL26" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="AM26" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AN26" s="1"/>
       <c r="AO26" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AP26" s="1"/>
-      <c r="AQ26" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="AQ26" s="1"/>
       <c r="AR26" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AS26" s="1" t="s">
         <v>121</v>
@@ -3494,7 +3494,7 @@
         <v>120</v>
       </c>
       <c r="AV26" s="1" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AW26" s="1"/>
       <c r="AX26" s="1"/>
@@ -3507,88 +3507,88 @@
         <v>2</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E27" s="1"/>
-      <c r="F27" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
+      <c r="I27" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="J27" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>63</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="O27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="S27" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="P27" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q27" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="R27" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="S27" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="T27" s="1"/>
+      <c r="T27" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
       <c r="W27" s="1" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="X27" s="1"/>
-      <c r="Y27" s="1"/>
-      <c r="Z27" s="1"/>
+      <c r="Y27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z27" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="AA27" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB27" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC27" s="1"/>
+        <v>93</v>
+      </c>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="AD27" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AE27" s="1"/>
       <c r="AF27" s="1" t="s">
         <v>122</v>
       </c>
       <c r="AG27" s="1" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="AH27" s="1"/>
       <c r="AI27" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="AJ27" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="AJ27" s="1"/>
       <c r="AK27" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL27" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AL27" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AM27" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AN27" s="1"/>
       <c r="AO27" s="1" t="s">
@@ -3599,7 +3599,7 @@
         <v>68</v>
       </c>
       <c r="AR27" s="1" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="AS27" s="1" t="s">
         <v>121</v>
@@ -3607,10 +3607,10 @@
       <c r="AT27" s="1"/>
       <c r="AU27" s="1"/>
       <c r="AV27" s="1" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AW27" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AX27" s="1" t="s">
         <v>55</v>
@@ -3624,110 +3624,108 @@
         <v>3</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="D28" s="1" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F28" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I28" s="1"/>
       <c r="J28" s="1" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="K28" s="1"/>
       <c r="L28" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="M28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P28" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="N28" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="Q28" s="1"/>
       <c r="R28" s="1" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="T28" s="1" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
-      <c r="W28" s="1" t="s">
-        <v>91</v>
-      </c>
+      <c r="W28" s="1"/>
       <c r="X28" s="1"/>
       <c r="Y28" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="Z28" s="1"/>
+      <c r="Z28" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="AA28" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB28" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="AB28" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="AC28" s="1"/>
       <c r="AD28" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AE28" s="1"/>
       <c r="AF28" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="AG28" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AH28" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="AG28" s="1"/>
+      <c r="AH28" s="1"/>
       <c r="AI28" s="1"/>
       <c r="AJ28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL28" s="1"/>
+      <c r="AM28" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="AK28" s="1"/>
-      <c r="AL28" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AM28" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="AN28" s="1"/>
-      <c r="AO28" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="AP28" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="AQ28" s="1"/>
+      <c r="AO28" s="1"/>
+      <c r="AP28" s="1"/>
+      <c r="AQ28" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="AR28" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AS28" s="1"/>
+        <v>67</v>
+      </c>
+      <c r="AS28" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="AT28" s="1"/>
       <c r="AU28" s="1" t="s">
         <v>123</v>
       </c>
       <c r="AV28" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AW28" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AX28" s="1" t="s">
         <v>55</v>
@@ -3741,110 +3739,108 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C29" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="D29" s="1" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F29" s="1"/>
+        <v>78</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="G29" s="1"/>
-      <c r="H29" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="H29" s="1"/>
       <c r="I29" s="1" t="s">
         <v>57</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>60</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="M29" s="1"/>
       <c r="N29" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="O29" s="1"/>
+        <v>75</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="P29" s="1"/>
       <c r="Q29" s="1" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="R29" s="1"/>
-      <c r="S29" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="T29" s="1" t="s">
-        <v>94</v>
-      </c>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
-      <c r="W29" s="1"/>
+      <c r="W29" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="X29" s="1"/>
-      <c r="Y29" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="Y29" s="1"/>
       <c r="Z29" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA29" s="1"/>
-      <c r="AB29" s="1" t="s">
-        <v>66</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="AA29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB29" s="1"/>
       <c r="AC29" s="1"/>
       <c r="AD29" s="1" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="AE29" s="1"/>
       <c r="AF29" s="1" t="s">
         <v>124</v>
       </c>
       <c r="AG29" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AH29" s="1"/>
       <c r="AI29" s="1"/>
       <c r="AJ29" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AK29" s="1"/>
-      <c r="AL29" s="1"/>
+        <v>69</v>
+      </c>
+      <c r="AK29" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL29" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="AM29" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AN29" s="1"/>
-      <c r="AO29" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="AP29" s="1" t="s">
-        <v>118</v>
-      </c>
+      <c r="AO29" s="1"/>
+      <c r="AP29" s="1"/>
       <c r="AQ29" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AR29" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AS29" s="1"/>
+        <v>63</v>
+      </c>
+      <c r="AR29" s="1"/>
+      <c r="AS29" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="AT29" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="AU29" s="1" t="s">
         <v>124</v>
       </c>
       <c r="AV29" s="1" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="AW29" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AX29" s="1" t="s">
         <v>55</v>
@@ -3857,109 +3853,109 @@
       <c r="A30" s="3">
         <v>5</v>
       </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D30" s="1"/>
+      <c r="B30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="E30" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1" t="s">
-        <v>57</v>
-      </c>
+      <c r="H30" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I30" s="1"/>
       <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
+      <c r="K30" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="L30" s="1" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="N30" s="1"/>
       <c r="O30" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="P30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S30" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="Q30" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="R30" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="S30" s="1"/>
       <c r="T30" s="1" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
       <c r="Y30" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z30" s="1"/>
+      <c r="AA30" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB30" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="Z30" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA30" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB30" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="AC30" s="1"/>
       <c r="AD30" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AE30" s="1"/>
-      <c r="AF30" s="1" t="s">
-        <v>125</v>
-      </c>
+      <c r="AF30" s="1"/>
       <c r="AG30" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AH30" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="AI30" s="1"/>
       <c r="AJ30" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK30" s="1" t="s">
-        <v>78</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="AK30" s="1"/>
       <c r="AL30" s="1" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="AM30" s="1" t="s">
         <v>94</v>
       </c>
       <c r="AN30" s="1"/>
-      <c r="AO30" s="1"/>
-      <c r="AP30" s="1"/>
+      <c r="AO30" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AP30" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="AQ30" s="1"/>
       <c r="AR30" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AS30" s="1" t="s">
-        <v>83</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="AS30" s="1"/>
       <c r="AT30" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AU30" s="1" t="s">
-        <v>125</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="AU30" s="1"/>
       <c r="AV30" s="1"/>
       <c r="AW30" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AX30" s="1" t="s">
         <v>55</v>
@@ -3975,106 +3971,108 @@
       <c r="B31" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="H31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
       <c r="K31" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="L31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="T31" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q31" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="R31" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="S31" s="1"/>
-      <c r="T31" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
-      <c r="Y31" s="1"/>
+      <c r="Y31" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="Z31" s="1"/>
       <c r="AA31" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="AB31" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AC31" s="1"/>
-      <c r="AD31" s="1"/>
+      <c r="AD31" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="AE31" s="1"/>
       <c r="AF31" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AG31" s="1" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="AH31" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="AI31" s="1"/>
       <c r="AJ31" s="1" t="s">
         <v>82</v>
       </c>
       <c r="AK31" s="1" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="AL31" s="1"/>
-      <c r="AM31" s="1"/>
+      <c r="AM31" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="AN31" s="1"/>
-      <c r="AO31" s="1"/>
-      <c r="AP31" s="1"/>
+      <c r="AO31" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AP31" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="AQ31" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AR31" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AS31" s="1" t="s">
-        <v>83</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="AS31" s="1"/>
       <c r="AT31" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="AU31" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AV31" s="1" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="AW31" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AX31" s="1" t="s">
         <v>55</v>
@@ -4089,102 +4087,104 @@
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="J32" s="1"/>
+      <c r="J32" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="K32" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="N32" s="1" t="s">
-        <v>63</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="N32" s="1"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="T32" s="1" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
-      <c r="Y32" s="1" t="s">
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA32" s="1"/>
+      <c r="AB32" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC32" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD32" s="1"/>
+      <c r="AE32" s="1"/>
+      <c r="AF32" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AG32" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="Z32" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA32" s="1" t="s">
+      <c r="AH32" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AB32" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC32" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD32" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE32" s="1"/>
-      <c r="AF32" s="1"/>
-      <c r="AG32" s="1"/>
-      <c r="AH32" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="AI32" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="AJ32" s="1" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="AK32" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AL32" s="1" t="s">
-        <v>75</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="AL32" s="1"/>
       <c r="AM32" s="1"/>
-      <c r="AN32" s="1"/>
+      <c r="AN32" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="AO32" s="1"/>
       <c r="AP32" s="1"/>
-      <c r="AQ32" s="1"/>
+      <c r="AQ32" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="AR32" s="1"/>
       <c r="AS32" s="1"/>
       <c r="AT32" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AU32" s="1"/>
+        <v>73</v>
+      </c>
+      <c r="AU32" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="AV32" s="1" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="AW32" s="1"/>
       <c r="AX32" s="1"/>
@@ -4197,106 +4197,108 @@
         <v>1</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>53</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F34" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J34" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="K34" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L34" s="1" t="s">
         <v>66</v>
       </c>
       <c r="M34" s="1"/>
       <c r="N34" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="T34" s="1"/>
+        <v>60</v>
+      </c>
+      <c r="T34" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="U34" s="1"/>
       <c r="V34" s="1"/>
       <c r="W34" s="1" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="X34" s="1"/>
       <c r="Y34" s="1" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="Z34" s="1" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="AA34" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB34" s="1" t="s">
-        <v>94</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="AB34" s="1"/>
       <c r="AC34" s="1"/>
       <c r="AD34" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AE34" s="1"/>
       <c r="AF34" s="1"/>
       <c r="AG34" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AH34" s="1"/>
       <c r="AI34" s="1"/>
-      <c r="AJ34" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="AJ34" s="1"/>
       <c r="AK34" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL34" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM34" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="AL34" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AM34" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AN34" s="1"/>
-      <c r="AO34" s="1"/>
-      <c r="AP34" s="1"/>
-      <c r="AQ34" s="1"/>
+      <c r="AN34" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AO34" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AP34" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AQ34" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="AR34" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AS34" s="1"/>
       <c r="AT34" s="1"/>
       <c r="AU34" s="1"/>
       <c r="AV34" s="1" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AW34" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AX34" s="1" t="s">
         <v>55</v>
@@ -4310,106 +4312,106 @@
         <v>2</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>58</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="C35" s="1"/>
       <c r="D35" s="1" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="K35" s="1"/>
       <c r="L35" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="P35" s="1" t="s">
         <v>57</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="R35" s="1"/>
       <c r="S35" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="T35" s="1" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
       <c r="W35" s="1" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="X35" s="1"/>
-      <c r="Y35" s="1"/>
+      <c r="Y35" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="Z35" s="1"/>
       <c r="AA35" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB35" s="1"/>
+        <v>63</v>
+      </c>
+      <c r="AB35" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="AC35" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AD35" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AE35" s="1"/>
       <c r="AF35" s="1"/>
       <c r="AG35" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AH35" s="1"/>
       <c r="AI35" s="1"/>
       <c r="AJ35" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AK35" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AL35" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AM35" s="1" t="s">
-        <v>78</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="AM35" s="1"/>
       <c r="AN35" s="1" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="AO35" s="1"/>
       <c r="AP35" s="1"/>
       <c r="AQ35" s="1"/>
       <c r="AR35" s="1" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="AS35" s="1"/>
       <c r="AT35" s="1"/>
       <c r="AU35" s="1"/>
       <c r="AV35" s="1" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AW35" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AX35" s="1" t="s">
         <v>55</v>
@@ -4423,106 +4425,106 @@
         <v>3</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="N36" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="O36" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="P36" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="S36" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="T36" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="U36" s="1"/>
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
       <c r="Y36" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Z36" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA36" s="1"/>
-      <c r="AB36" s="1"/>
+        <v>63</v>
+      </c>
+      <c r="AA36" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB36" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="AC36" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD36" s="1" t="s">
-        <v>83</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="AD36" s="1"/>
       <c r="AE36" s="1"/>
       <c r="AF36" s="1"/>
       <c r="AG36" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AH36" s="1"/>
+        <v>54</v>
+      </c>
+      <c r="AH36" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="AI36" s="1"/>
       <c r="AJ36" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AK36" s="1"/>
-      <c r="AL36" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AM36" s="1"/>
-      <c r="AN36" s="1" t="s">
+      <c r="AL36" s="1"/>
+      <c r="AM36" s="1" t="s">
         <v>94</v>
       </c>
+      <c r="AN36" s="1"/>
       <c r="AO36" s="1"/>
       <c r="AP36" s="1"/>
       <c r="AQ36" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AR36" s="1"/>
+        <v>59</v>
+      </c>
+      <c r="AR36" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="AS36" s="1"/>
       <c r="AT36" s="1"/>
       <c r="AU36" s="1"/>
       <c r="AV36" s="1" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="AW36" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AX36" s="1" t="s">
         <v>55</v>
@@ -4535,111 +4537,111 @@
       <c r="A37" s="3">
         <v>4</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
+      <c r="F37" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>57</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="L37" s="1"/>
+        <v>76</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="M37" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="N37" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="O37" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="P37" s="1" t="s">
-        <v>59</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="S37" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="T37" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="T37" s="1"/>
       <c r="U37" s="1"/>
       <c r="V37" s="1"/>
       <c r="W37" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="X37" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="X37" s="1"/>
-      <c r="Y37" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="Y37" s="1"/>
       <c r="Z37" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA37" s="1"/>
+        <v>63</v>
+      </c>
+      <c r="AA37" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="AB37" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC37" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD37" s="1"/>
+        <v>61</v>
+      </c>
+      <c r="AC37" s="1"/>
+      <c r="AD37" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="AE37" s="1"/>
       <c r="AF37" s="1"/>
       <c r="AG37" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AH37" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AI37" s="1"/>
-      <c r="AJ37" s="1"/>
-      <c r="AK37" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="AJ37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK37" s="1"/>
       <c r="AL37" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AM37" s="1" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="AN37" s="1"/>
       <c r="AO37" s="1"/>
       <c r="AP37" s="1"/>
       <c r="AQ37" s="1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="AR37" s="1" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="AS37" s="1"/>
       <c r="AT37" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="AU37" s="1"/>
       <c r="AV37" s="1" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="AW37" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AX37" s="1" t="s">
-        <v>55</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="AX37" s="1"/>
       <c r="AY37" s="1"/>
       <c r="AZ37" s="1"/>
       <c r="BA37" s="1"/>
@@ -4648,109 +4650,109 @@
       <c r="A38" s="3">
         <v>5</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D38" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>82</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="E38" s="1"/>
       <c r="F38" s="1" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="G38" s="1"/>
-      <c r="H38" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="H38" s="1"/>
       <c r="I38" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="J38" s="1"/>
+      <c r="J38" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="K38" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L38" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="M38" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="P38" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q38" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="R38" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S38" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T38" s="1" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="U38" s="1"/>
       <c r="V38" s="1"/>
       <c r="W38" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="X38" s="1"/>
+      <c r="Y38" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="X38" s="1"/>
-      <c r="Y38" s="1"/>
-      <c r="Z38" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="Z38" s="1"/>
       <c r="AA38" s="1"/>
       <c r="AB38" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="AC38" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="AD38" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="AE38" s="1"/>
       <c r="AF38" s="1"/>
       <c r="AG38" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AH38" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI38" s="1"/>
+      <c r="AJ38" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AI38" s="1"/>
-      <c r="AJ38" s="1"/>
-      <c r="AK38" s="1"/>
-      <c r="AL38" s="1"/>
-      <c r="AM38" s="1" t="s">
-        <v>72</v>
-      </c>
+      <c r="AK38" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL38" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM38" s="1"/>
       <c r="AN38" s="1"/>
       <c r="AO38" s="1"/>
       <c r="AP38" s="1"/>
       <c r="AQ38" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="AR38" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AS38" s="1"/>
+        <v>59</v>
+      </c>
+      <c r="AS38" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="AT38" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="AU38" s="1"/>
       <c r="AV38" s="1" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="AW38" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AX38" s="1"/>
       <c r="AY38" s="1"/>
@@ -4766,109 +4768,107 @@
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>57</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>79</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="L39" s="1"/>
       <c r="M39" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
+        <v>73</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="P39" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="S39" s="1"/>
-      <c r="T39" s="1"/>
+        <v>61</v>
+      </c>
+      <c r="S39" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T39" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="U39" s="1"/>
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
-      <c r="X39" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y39" s="1" t="s">
-        <v>82</v>
-      </c>
+      <c r="X39" s="1"/>
+      <c r="Y39" s="1"/>
       <c r="Z39" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA39" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB39" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC39" s="1"/>
+        <v>59</v>
+      </c>
+      <c r="AA39" s="1"/>
+      <c r="AB39" s="1"/>
+      <c r="AC39" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="AD39" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AE39" s="1"/>
       <c r="AF39" s="1"/>
-      <c r="AG39" s="1"/>
+      <c r="AG39" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="AH39" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="AI39" s="1"/>
-      <c r="AJ39" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="AJ39" s="1"/>
       <c r="AK39" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL39" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AL39" s="1"/>
       <c r="AM39" s="1" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="AN39" s="1"/>
-      <c r="AO39" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="AP39" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="AQ39" s="1" t="s">
-        <v>75</v>
-      </c>
+      <c r="AO39" s="1"/>
+      <c r="AP39" s="1"/>
+      <c r="AQ39" s="1"/>
       <c r="AR39" s="1"/>
       <c r="AS39" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AT39" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AU39" s="1"/>
-      <c r="AV39" s="1"/>
+      <c r="AV39" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="AW39" s="1"/>
-      <c r="AX39" s="1"/>
-      <c r="AY39" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="AX39" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AY39" s="1"/>
       <c r="AZ39" s="1"/>
       <c r="BA39" s="1"/>
     </row>
@@ -4876,40 +4876,48 @@
       <c r="A40" s="3">
         <v>7</v>
       </c>
-      <c r="B40" s="1"/>
+      <c r="B40" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="C40" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
+        <v>76</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="F40" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="G40" s="1"/>
-      <c r="H40" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="H40" s="1"/>
       <c r="I40" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="J40" s="1" t="s">
-        <v>91</v>
-      </c>
+      <c r="J40" s="1"/>
       <c r="K40" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
+      <c r="M40" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="N40" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
+        <v>64</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="Q40" s="1" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="R40" s="1" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="S40" s="1"/>
       <c r="T40" s="1" t="s">
@@ -4918,65 +4926,57 @@
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
       <c r="W40" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="X40" s="1"/>
       <c r="Y40" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="Z40" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA40" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB40" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC40" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD40" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="AA40" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB40" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC40" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD40" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="AE40" s="1"/>
       <c r="AF40" s="1"/>
-      <c r="AG40" s="1" t="s">
-        <v>72</v>
-      </c>
+      <c r="AG40" s="1"/>
       <c r="AH40" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI40" s="1"/>
       <c r="AJ40" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AK40" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL40" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AM40" s="1"/>
+        <v>61</v>
+      </c>
+      <c r="AK40" s="1"/>
+      <c r="AL40" s="1"/>
+      <c r="AM40" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="AN40" s="1" t="s">
         <v>66</v>
       </c>
       <c r="AO40" s="1"/>
       <c r="AP40" s="1"/>
       <c r="AQ40" s="1" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="AR40" s="1"/>
-      <c r="AS40" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="AS40" s="1"/>
       <c r="AT40" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AU40" s="1"/>
-      <c r="AV40" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="AV40" s="1"/>
       <c r="AW40" s="1"/>
       <c r="AX40" s="1" t="s">
         <v>55</v>

--- a/SchoolManager/bin/Release/netcoreapp3.1/programa1.xlsx
+++ b/SchoolManager/bin/Release/netcoreapp3.1/programa1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
   <si>
     <t>Клисарова</t>
   </si>
@@ -178,223 +178,214 @@
     <t>0</t>
   </si>
   <si>
+    <t>6 клас</t>
+  </si>
+  <si>
+    <t>8г</t>
+  </si>
+  <si>
+    <t>8в</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>8д</t>
+  </si>
+  <si>
+    <t>9а</t>
+  </si>
+  <si>
+    <t>10в</t>
+  </si>
+  <si>
+    <t>10б</t>
+  </si>
+  <si>
+    <t>9в</t>
+  </si>
+  <si>
+    <t>8б</t>
+  </si>
+  <si>
+    <t>12б</t>
+  </si>
+  <si>
+    <t>10а</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>11д</t>
+  </si>
+  <si>
+    <t>11г</t>
+  </si>
+  <si>
+    <t>12в</t>
+  </si>
+  <si>
+    <t>12д</t>
+  </si>
+  <si>
+    <t>12а</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>11б</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>10г</t>
+  </si>
+  <si>
+    <t>7 клас</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>10д</t>
+  </si>
+  <si>
+    <t>9д</t>
+  </si>
+  <si>
     <t>11а</t>
   </si>
   <si>
-    <t>6 клас</t>
-  </si>
-  <si>
-    <t>8б</t>
-  </si>
-  <si>
-    <t>8в</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>8д</t>
-  </si>
-  <si>
-    <t>10в</t>
-  </si>
-  <si>
-    <t>12а</t>
-  </si>
-  <si>
-    <t>10б</t>
-  </si>
-  <si>
-    <t>9в</t>
-  </si>
-  <si>
-    <t>8г</t>
-  </si>
-  <si>
-    <t>12б</t>
-  </si>
-  <si>
-    <t>10а</t>
-  </si>
-  <si>
-    <t>11д</t>
-  </si>
-  <si>
-    <t>11г</t>
-  </si>
-  <si>
-    <t>9д</t>
-  </si>
-  <si>
-    <t>12в</t>
-  </si>
-  <si>
-    <t>12д</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>10г</t>
-  </si>
-  <si>
-    <t>7 клас</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>10д</t>
-  </si>
-  <si>
-    <t>9а</t>
+    <t>5 клас</t>
+  </si>
+  <si>
+    <t>9г</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>12г</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>8а</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>9б</t>
   </si>
   <si>
     <t>11в</t>
   </si>
   <si>
-    <t>5 клас</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>12г</t>
-  </si>
-  <si>
-    <t>9г</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>11</t>
   </si>
   <si>
-    <t>8а</t>
+    <t>8</t>
   </si>
   <si>
     <t>29</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>9б</t>
-  </si>
-  <si>
-    <t>11б</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>8</t>
+    <t>14</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>23</t>
   </si>
   <si>
     <t>45</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>35</t>
+    <t>17</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>47</t>
   </si>
   <si>
     <t>42</t>
   </si>
   <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
     <t>44</t>
-  </si>
-  <si>
-    <t>36</t>
   </si>
   <si>
     <t>40</t>
@@ -984,56 +975,54 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="J2" s="1"/>
       <c r="K2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="T2" s="1"/>
       <c r="U2" s="1" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>65</v>
@@ -1041,59 +1030,61 @@
       <c r="X2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="Y2" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
       <c r="AE2" s="1" t="s">
         <v>70</v>
       </c>
       <c r="AF2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AG2" s="1"/>
+      <c r="AG2" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="AH2" s="1"/>
       <c r="AI2" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ2" s="1"/>
-      <c r="AK2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AL2" s="1"/>
+      <c r="AK2" s="1"/>
+      <c r="AL2" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="AM2" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AN2" s="1"/>
       <c r="AO2" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AT2" s="1"/>
       <c r="AU2" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AV2" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AW2" s="1"/>
       <c r="AX2" s="1"/>
@@ -1105,74 +1096,68 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="J3" s="1" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
-      <c r="M3" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="M3" s="1"/>
       <c r="N3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="O3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q3" s="1"/>
+      <c r="Q3" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="R3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>72</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="X3" s="1" t="s">
         <v>66</v>
       </c>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
@@ -1182,43 +1167,49 @@
       <c r="AF3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AG3" s="1"/>
+      <c r="AG3" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="AH3" s="1"/>
       <c r="AI3" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AL3" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AM3" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AN3" s="1"/>
       <c r="AO3" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AP3" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AQ3" s="1"/>
-      <c r="AR3" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="AR3" s="1"/>
       <c r="AS3" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AT3" s="1"/>
       <c r="AU3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AV3" s="1"/>
+        <v>55</v>
+      </c>
+      <c r="AV3" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="AW3" s="1"/>
-      <c r="AX3" s="1"/>
-      <c r="AY3" s="1"/>
+      <c r="AX3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AY3" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="AZ3" s="1"/>
       <c r="BA3" s="1"/>
     </row>
@@ -1227,94 +1218,90 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>59</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F4" s="1"/>
+        <v>60</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="G4" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="O4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="V4" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="W4" s="1"/>
       <c r="X4" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Y4" s="1" t="s">
         <v>65</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AA4" s="1"/>
       <c r="AB4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC4" s="1" t="s">
-        <v>57</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="AC4" s="1"/>
       <c r="AD4" s="1" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="AE4" s="1" t="s">
         <v>85</v>
       </c>
       <c r="AF4" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AG4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH4" s="1"/>
+        <v>61</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="AI4" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AJ4" s="1"/>
-      <c r="AK4" s="1"/>
-      <c r="AL4" s="1"/>
+      <c r="AK4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL4" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="AM4" s="1"/>
       <c r="AN4" s="1"/>
       <c r="AO4" s="1" t="s">
@@ -1323,28 +1310,30 @@
       <c r="AP4" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="AQ4" s="1"/>
+      <c r="AQ4" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="AR4" s="1"/>
       <c r="AS4" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AT4" s="1"/>
       <c r="AU4" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="AV4" s="1"/>
+      <c r="AV4" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="AW4" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AX4" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AY4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AZ4" s="1" t="s">
-        <v>79</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="AZ4" s="1"/>
       <c r="BA4" s="1"/>
     </row>
     <row r="5">
@@ -1352,85 +1341,87 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>62</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="I5" s="1"/>
-      <c r="J5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="L5" s="1" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O5" s="1"/>
-      <c r="P5" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
+        <v>78</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="U5" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="W5" s="1"/>
       <c r="X5" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y5" s="1"/>
+        <v>83</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
       <c r="AB5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC5" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="AD5" s="1" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AE5" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AF5" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AG5" s="1" t="s">
-        <v>54</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="AG5" s="1"/>
       <c r="AH5" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AI5" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AJ5" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="AK5" s="1"/>
       <c r="AL5" s="1"/>
@@ -1445,27 +1436,23 @@
         <v>86</v>
       </c>
       <c r="AQ5" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="AR5" s="1" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AS5" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AT5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU5" s="1" t="s">
-        <v>88</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="AU5" s="1"/>
       <c r="AV5" s="1"/>
       <c r="AW5" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AX5" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="AX5" s="1"/>
       <c r="AY5" s="1"/>
       <c r="AZ5" s="1"/>
       <c r="BA5" s="1"/>
@@ -1475,240 +1462,236 @@
         <v>5</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="C6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>90</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="L6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="M6" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="N6" s="1"/>
+        <v>78</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
+      <c r="P6" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="Q6" s="1" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="S6" s="1"/>
       <c r="T6" s="1" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>66</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="W6" s="1"/>
       <c r="X6" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="AD6" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AE6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI6" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="AF6" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AG6" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI6" s="1" t="s">
+      <c r="AJ6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK6" s="1"/>
+      <c r="AL6" s="1"/>
+      <c r="AM6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO6" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AJ6" s="1" t="s">
+      <c r="AP6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AQ6" s="1"/>
+      <c r="AR6" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AK6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AL6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM6" s="1"/>
-      <c r="AN6" s="1"/>
-      <c r="AO6" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AP6" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AQ6" s="1"/>
-      <c r="AR6" s="1"/>
       <c r="AS6" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AT6" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AU6" s="1" t="s">
-        <v>88</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="AU6" s="1"/>
       <c r="AV6" s="1"/>
       <c r="AW6" s="1"/>
       <c r="AX6" s="1"/>
       <c r="AY6" s="1"/>
-      <c r="AZ6" s="1" t="s">
-        <v>90</v>
-      </c>
+      <c r="AZ6" s="1"/>
       <c r="BA6" s="1"/>
     </row>
     <row r="7">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="D7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I7" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="O7" s="1"/>
+      <c r="M7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="AA7" s="1"/>
       <c r="AB7" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="AD7" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
-      <c r="AH7" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="AH7" s="1"/>
       <c r="AI7" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="AJ7" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK7" s="1"/>
-      <c r="AL7" s="1" t="s">
-        <v>58</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="AK7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL7" s="1"/>
       <c r="AM7" s="1"/>
       <c r="AN7" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO7" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="AP7" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AQ7" s="1" t="s">
-        <v>69</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="AQ7" s="1"/>
       <c r="AR7" s="1"/>
       <c r="AS7" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AT7" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AU7" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AV7" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AW7" s="1"/>
+        <v>93</v>
+      </c>
+      <c r="AV7" s="1"/>
+      <c r="AW7" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="AX7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AY7" s="1" t="s">
-        <v>94</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="AY7" s="1"/>
       <c r="AZ7" s="1"/>
       <c r="BA7" s="1"/>
     </row>
@@ -1774,117 +1757,117 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>93</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>66</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="R10" s="1"/>
       <c r="S10" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="T10" s="1"/>
       <c r="U10" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="W10" s="1"/>
+        <v>95</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="X10" s="1"/>
       <c r="Y10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB10" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="Z10" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA10" s="1"/>
-      <c r="AB10" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="AC10" s="1"/>
-      <c r="AD10" s="1"/>
+      <c r="AD10" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="AE10" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="AF10" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AG10" s="1"/>
+        <v>96</v>
+      </c>
+      <c r="AG10" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="AH10" s="1"/>
       <c r="AI10" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="AJ10" s="1"/>
       <c r="AK10" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL10" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM10" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="AM10" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="AN10" s="1"/>
       <c r="AO10" s="1" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="AP10" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AQ10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR10" s="1" t="s">
-        <v>76</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="AQ10" s="1"/>
+      <c r="AR10" s="1"/>
       <c r="AS10" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="AT10" s="1"/>
       <c r="AU10" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AV10" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AW10" s="1" t="s">
-        <v>87</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="AW10" s="1"/>
       <c r="AX10" s="1"/>
       <c r="AY10" s="1"/>
       <c r="AZ10" s="1"/>
@@ -1895,21 +1878,27 @@
         <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="E11" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1" t="s">
@@ -1917,94 +1906,88 @@
       </c>
       <c r="M11" s="1"/>
       <c r="N11" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>60</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="Q11" s="1"/>
       <c r="R11" s="1" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="T11" s="1"/>
-      <c r="U11" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="V11" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="X11" s="1"/>
       <c r="Y11" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="1"/>
+      <c r="Z11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="AB11" s="1" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="AC11" s="1"/>
       <c r="AD11" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AE11" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="AF11" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="AG11" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="AH11" s="1"/>
       <c r="AI11" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="AJ11" s="1"/>
-      <c r="AK11" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="AK11" s="1"/>
       <c r="AL11" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="AM11" s="1" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="AN11" s="1"/>
       <c r="AO11" s="1" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="AP11" s="1" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="AQ11" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AR11" s="1" t="s">
-        <v>67</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="AR11" s="1"/>
       <c r="AS11" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="AT11" s="1"/>
-      <c r="AU11" s="1"/>
-      <c r="AV11" s="1"/>
-      <c r="AW11" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AX11" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="AU11" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AV11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AW11" s="1"/>
+      <c r="AX11" s="1"/>
       <c r="AY11" s="1"/>
       <c r="AZ11" s="1"/>
       <c r="BA11" s="1"/>
@@ -2013,119 +1996,119 @@
       <c r="A12" s="3">
         <v>3</v>
       </c>
-      <c r="B12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="C12" s="1" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N12" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1" t="s">
+      <c r="O12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R12" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="L12" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="S12" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="T12" s="1"/>
       <c r="U12" s="1" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="W12" s="1"/>
+        <v>64</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="X12" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="Y12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z12" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="Z12" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="AA12" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB12" s="1" t="s">
-        <v>66</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
-      <c r="AD12" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="AD12" s="1"/>
       <c r="AE12" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AF12" s="1"/>
-      <c r="AG12" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="AG12" s="1"/>
       <c r="AH12" s="1"/>
       <c r="AI12" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="AJ12" s="1"/>
       <c r="AK12" s="1"/>
-      <c r="AL12" s="1" t="s">
-        <v>64</v>
-      </c>
+      <c r="AL12" s="1"/>
       <c r="AM12" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AN12" s="1"/>
       <c r="AO12" s="1" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="AP12" s="1" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="AQ12" s="1"/>
       <c r="AR12" s="1" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="AS12" s="1"/>
       <c r="AT12" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AU12" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AV12" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AW12" s="1"/>
-      <c r="AX12" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="AX12" s="1"/>
       <c r="AY12" s="1"/>
       <c r="AZ12" s="1"/>
       <c r="BA12" s="1"/>
@@ -2134,118 +2117,118 @@
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1" t="s">
+      <c r="B13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q13" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1" t="s">
+      <c r="R13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M13" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="U13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="V13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y13" s="1" t="s">
+      <c r="AA13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1"/>
+      <c r="AH13" s="1"/>
+      <c r="AI13" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ13" s="1"/>
+      <c r="AK13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL13" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="Z13" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA13" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB13" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC13" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD13" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE13" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AF13" s="1"/>
-      <c r="AG13" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH13" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI13" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AJ13" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AK13" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AL13" s="1"/>
       <c r="AM13" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AN13" s="1" t="s">
-        <v>66</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="AN13" s="1"/>
       <c r="AO13" s="1" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="AP13" s="1" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="AQ13" s="1"/>
       <c r="AR13" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS13" s="1" t="s">
-        <v>78</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="AS13" s="1"/>
       <c r="AT13" s="1"/>
       <c r="AU13" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AV13" s="1"/>
-      <c r="AW13" s="1"/>
+        <v>100</v>
+      </c>
+      <c r="AV13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AW13" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="AX13" s="1"/>
       <c r="AY13" s="1"/>
       <c r="AZ13" s="1"/>
@@ -2255,120 +2238,118 @@
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="C14" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>62</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="G14" s="1"/>
-      <c r="H14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1" t="s">
-        <v>75</v>
-      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="1"/>
       <c r="L14" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="M14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="U14" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="V14" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="W14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="X14" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y14" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z14" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA14" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="AB14" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AC14" s="1"/>
+      <c r="AC14" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="AD14" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AE14" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AF14" s="1"/>
       <c r="AG14" s="1"/>
       <c r="AH14" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AI14" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AJ14" s="1" t="s">
-        <v>60</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="AI14" s="1"/>
+      <c r="AJ14" s="1"/>
       <c r="AK14" s="1"/>
-      <c r="AL14" s="1"/>
+      <c r="AL14" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="AM14" s="1"/>
       <c r="AN14" s="1"/>
       <c r="AO14" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="AP14" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="AQ14" s="1"/>
-      <c r="AR14" s="1"/>
+      <c r="AR14" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="AS14" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AT14" s="1" t="s">
-        <v>93</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="AT14" s="1"/>
       <c r="AU14" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AV14" s="1"/>
-      <c r="AW14" s="1"/>
-      <c r="AX14" s="1"/>
-      <c r="AY14" s="1" t="s">
-        <v>94</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="AV14" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AW14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AX14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AY14" s="1"/>
       <c r="AZ14" s="1"/>
       <c r="BA14" s="1"/>
     </row>
@@ -2376,120 +2357,118 @@
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="C15" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>62</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z15" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="AA15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="U15" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="V15" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="W15" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="X15" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA15" s="1" t="s">
+      <c r="AD15" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE15" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF15" s="1"/>
+      <c r="AG15" s="1"/>
+      <c r="AH15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI15" s="1"/>
+      <c r="AJ15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK15" s="1"/>
+      <c r="AL15" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AB15" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC15" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AD15" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AE15" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AF15" s="1"/>
-      <c r="AG15" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI15" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AJ15" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK15" s="1"/>
-      <c r="AL15" s="1"/>
       <c r="AM15" s="1"/>
       <c r="AN15" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO15" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="AP15" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="AQ15" s="1"/>
       <c r="AR15" s="1"/>
       <c r="AS15" s="1"/>
       <c r="AT15" s="1" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="AU15" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="AV15" s="1" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="AW15" s="1"/>
-      <c r="AX15" s="1"/>
-      <c r="AY15" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="AX15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AY15" s="1"/>
       <c r="AZ15" s="1"/>
       <c r="BA15" s="1"/>
     </row>
@@ -2516,12 +2495,18 @@
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
+      <c r="U16" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
-      <c r="Z16" s="1"/>
+      <c r="Z16" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
@@ -2533,7 +2518,9 @@
       <c r="AI16" s="1"/>
       <c r="AJ16" s="1"/>
       <c r="AK16" s="1"/>
-      <c r="AL16" s="1"/>
+      <c r="AL16" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="AM16" s="1"/>
       <c r="AN16" s="1"/>
       <c r="AO16" s="1"/>
@@ -2554,116 +2541,118 @@
       <c r="A18" s="3">
         <v>1</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>93</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="J18" s="1"/>
       <c r="K18" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="L18" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="M18" s="1"/>
       <c r="N18" s="1" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="P18" s="1" t="s">
         <v>87</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="U18" s="1" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="W18" s="1"/>
+        <v>95</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="X18" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="Y18" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z18" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA18" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="AA18" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="AB18" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AC18" s="1"/>
       <c r="AD18" s="1" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="AE18" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="AF18" s="1"/>
-      <c r="AG18" s="1" t="s">
-        <v>94</v>
-      </c>
+      <c r="AG18" s="1"/>
       <c r="AH18" s="1"/>
       <c r="AI18" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AJ18" s="1"/>
+        <v>105</v>
+      </c>
+      <c r="AJ18" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="AK18" s="1"/>
       <c r="AL18" s="1"/>
       <c r="AM18" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AN18" s="1"/>
       <c r="AO18" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="AP18" s="1"/>
       <c r="AQ18" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AR18" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AS18" s="1" t="s">
-        <v>81</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="AS18" s="1"/>
       <c r="AT18" s="1"/>
       <c r="AU18" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AV18" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="AV18" s="1"/>
       <c r="AW18" s="1"/>
       <c r="AX18" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AY18" s="1"/>
       <c r="AZ18" s="1"/>
@@ -2674,115 +2663,115 @@
         <v>2</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F19" s="1"/>
+        <v>77</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S19" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="O19" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
       <c r="T19" s="1"/>
-      <c r="U19" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="V19" s="1" t="s">
-        <v>108</v>
-      </c>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
       <c r="W19" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="X19" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="Y19" s="1" t="s">
         <v>66</v>
       </c>
       <c r="Z19" s="1" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="AA19" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB19" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AD19" s="1"/>
       <c r="AE19" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="AF19" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AG19" s="1"/>
+        <v>108</v>
+      </c>
+      <c r="AG19" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="AH19" s="1"/>
       <c r="AI19" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="AJ19" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="AK19" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AL19" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM19" s="1" t="s">
-        <v>73</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="AL19" s="1"/>
+      <c r="AM19" s="1"/>
       <c r="AN19" s="1"/>
       <c r="AO19" s="1"/>
       <c r="AP19" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AQ19" s="1"/>
       <c r="AR19" s="1" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="AS19" s="1"/>
       <c r="AT19" s="1"/>
       <c r="AU19" s="1"/>
       <c r="AV19" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AW19" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="AW19" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="AX19" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AY19" s="1"/>
       <c r="AZ19" s="1"/>
@@ -2792,116 +2781,118 @@
       <c r="A20" s="3">
         <v>3</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>78</v>
-      </c>
+      <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="R20" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J20" s="1" t="s">
+      <c r="S20" s="1"/>
+      <c r="T20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC20" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD20" s="1"/>
+      <c r="AE20" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF20" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH20" s="1"/>
+      <c r="AI20" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK20" s="1"/>
+      <c r="AL20" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="K20" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="V20" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="W20" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="X20" s="1"/>
-      <c r="Y20" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z20" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA20" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB20" s="1"/>
-      <c r="AC20" s="1"/>
-      <c r="AD20" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE20" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AF20" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AG20" s="1"/>
-      <c r="AH20" s="1"/>
-      <c r="AI20" s="1"/>
-      <c r="AJ20" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK20" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AL20" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM20" s="1"/>
+      <c r="AM20" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="AN20" s="1"/>
       <c r="AO20" s="1"/>
       <c r="AP20" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AQ20" s="1"/>
-      <c r="AR20" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AS20" s="1"/>
+      <c r="AR20" s="1"/>
+      <c r="AS20" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="AT20" s="1"/>
       <c r="AU20" s="1"/>
       <c r="AV20" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AW20" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AX20" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AY20" s="1"/>
       <c r="AZ20" s="1"/>
@@ -2913,116 +2904,118 @@
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D21" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="E21" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="I21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="J21" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="L21" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>76</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="M21" s="1"/>
       <c r="N21" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="O21" s="1"/>
-      <c r="P21" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q21" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="R21" s="1" t="s">
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="W21" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="S21" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="T21" s="1" t="s">
+      <c r="X21" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y21" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
-      <c r="W21" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="X21" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y21" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z21" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
       <c r="AB21" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC21" s="1"/>
-      <c r="AD21" s="1"/>
-      <c r="AE21" s="1" t="s">
-        <v>114</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="AC21" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE21" s="1"/>
       <c r="AF21" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="AG21" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="AH21" s="1"/>
       <c r="AI21" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="AJ21" s="1" t="s">
         <v>60</v>
       </c>
       <c r="AK21" s="1" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="AL21" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AM21" s="1"/>
       <c r="AN21" s="1"/>
       <c r="AO21" s="1" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="AP21" s="1" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="AQ21" s="1"/>
-      <c r="AR21" s="1"/>
+      <c r="AR21" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="AS21" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="AT21" s="1"/>
-      <c r="AU21" s="1"/>
+      <c r="AU21" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="AV21" s="1"/>
       <c r="AW21" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AX21" s="1"/>
-      <c r="AY21" s="1"/>
+      <c r="AX21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AY21" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="AZ21" s="1"/>
       <c r="BA21" s="1"/>
     </row>
@@ -3032,30 +3025,28 @@
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>57</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1" t="s">
-        <v>82</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J22" s="1"/>
       <c r="K22" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="L22" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="M22" s="1"/>
       <c r="N22" s="1" t="s">
@@ -3064,81 +3055,79 @@
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="S22" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="R22" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="S22" s="1"/>
       <c r="T22" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="U22" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="V22" s="1" t="s">
-        <v>116</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
       <c r="W22" s="1" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="X22" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="Y22" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z22" s="1"/>
+        <v>91</v>
+      </c>
+      <c r="Z22" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="AA22" s="1"/>
       <c r="AB22" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="AC22" s="1"/>
       <c r="AD22" s="1" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AE22" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AF22" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AG22" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH22" s="1" t="s">
-        <v>64</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="AH22" s="1"/>
       <c r="AI22" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AJ22" s="1"/>
       <c r="AK22" s="1" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="AL22" s="1" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="AM22" s="1"/>
       <c r="AN22" s="1"/>
       <c r="AO22" s="1" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="AP22" s="1" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="AQ22" s="1"/>
       <c r="AR22" s="1" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="AS22" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="AT22" s="1"/>
+        <v>84</v>
+      </c>
+      <c r="AT22" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="AU22" s="1"/>
-      <c r="AV22" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="AV22" s="1"/>
       <c r="AW22" s="1" t="s">
         <v>87</v>
       </c>
@@ -3153,116 +3142,116 @@
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>55</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
+      <c r="H23" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="I23" s="1"/>
-      <c r="J23" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="L23" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
+      <c r="N23" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1" t="s">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="S23" s="1"/>
+        <v>60</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="T23" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="W23" s="1" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="X23" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="Y23" s="1"/>
       <c r="Z23" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA23" s="1" t="s">
         <v>68</v>
       </c>
+      <c r="AA23" s="1"/>
       <c r="AB23" s="1" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="AC23" s="1" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="AD23" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE23" s="1"/>
+        <v>62</v>
+      </c>
+      <c r="AE23" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="AF23" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="AG23" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="AH23" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AI23" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AJ23" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AK23" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="AK23" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="AL23" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AM23" s="1" t="s">
-        <v>94</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="AM23" s="1"/>
       <c r="AN23" s="1"/>
       <c r="AO23" s="1" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="AP23" s="1" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="AQ23" s="1"/>
       <c r="AR23" s="1" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="AS23" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="AT23" s="1" t="s">
-        <v>64</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="AT23" s="1"/>
       <c r="AU23" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="AV23" s="1"/>
-      <c r="AW23" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="AW23" s="1"/>
       <c r="AX23" s="1"/>
       <c r="AY23" s="1"/>
       <c r="AZ23" s="1"/>
@@ -3273,110 +3262,98 @@
         <v>7</v>
       </c>
       <c r="B24" s="1"/>
-      <c r="C24" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1" t="s">
-        <v>54</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="1" t="s">
-        <v>57</v>
-      </c>
+      <c r="I24" s="1"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1" t="s">
-        <v>82</v>
-      </c>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
+      <c r="Q24" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="R24" s="1" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="S24" s="1"/>
       <c r="T24" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="U24" s="1"/>
-      <c r="V24" s="1"/>
+        <v>91</v>
+      </c>
+      <c r="U24" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="V24" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="W24" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="X24" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y24" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="Z24" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA24" s="1" t="s">
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC24" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AB24" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC24" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="AD24" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AE24" s="1"/>
       <c r="AF24" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="AG24" s="1"/>
-      <c r="AH24" s="1"/>
-      <c r="AI24" s="1" t="s">
-        <v>117</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="AG24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI24" s="1"/>
       <c r="AJ24" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK24" s="1"/>
-      <c r="AL24" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AM24" s="1" t="s">
-        <v>94</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="AK24" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL24" s="1"/>
+      <c r="AM24" s="1"/>
       <c r="AN24" s="1"/>
       <c r="AO24" s="1" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="AP24" s="1" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="AQ24" s="1"/>
-      <c r="AR24" s="1"/>
-      <c r="AS24" s="1" t="s">
-        <v>117</v>
-      </c>
+      <c r="AR24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS24" s="1"/>
       <c r="AT24" s="1" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="AU24" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="AV24" s="1"/>
-      <c r="AW24" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AX24" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="AW24" s="1"/>
+      <c r="AX24" s="1"/>
       <c r="AY24" s="1"/>
       <c r="AZ24" s="1"/>
       <c r="BA24" s="1"/>
@@ -3385,118 +3362,118 @@
       <c r="A26" s="3">
         <v>1</v>
       </c>
-      <c r="B26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="C26" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>62</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="K26" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L26" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1" t="s">
-        <v>94</v>
-      </c>
+      <c r="M26" s="1"/>
       <c r="N26" s="1" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="O26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P26" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="P26" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q26" s="1" t="s">
-        <v>72</v>
-      </c>
+      <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
-      <c r="S26" s="1" t="s">
-        <v>64</v>
-      </c>
+      <c r="S26" s="1"/>
       <c r="T26" s="1"/>
       <c r="U26" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="V26" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="W26" s="1" t="s">
-        <v>77</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="W26" s="1"/>
       <c r="X26" s="1"/>
       <c r="Y26" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z26" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AA26" s="1" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="AB26" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="AC26" s="1"/>
       <c r="AD26" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AE26" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AF26" s="1"/>
       <c r="AG26" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="AH26" s="1"/>
       <c r="AI26" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AJ26" s="1"/>
+        <v>118</v>
+      </c>
+      <c r="AJ26" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="AK26" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AL26" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AM26" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AN26" s="1"/>
       <c r="AO26" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="AP26" s="1"/>
-      <c r="AQ26" s="1"/>
+      <c r="AQ26" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="AR26" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AS26" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AT26" s="1"/>
       <c r="AU26" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AV26" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AW26" s="1"/>
+        <v>91</v>
+      </c>
+      <c r="AW26" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="AX26" s="1"/>
       <c r="AY26" s="1"/>
       <c r="AZ26" s="1"/>
@@ -3507,113 +3484,113 @@
         <v>2</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
+        <v>90</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="M27" s="1"/>
       <c r="N27" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q27" s="1"/>
       <c r="R27" s="1" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="T27" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
-      <c r="W27" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="W27" s="1"/>
       <c r="X27" s="1"/>
       <c r="Y27" s="1" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="Z27" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA27" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1"/>
+      <c r="AD27" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="AA27" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AB27" s="1"/>
-      <c r="AC27" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AD27" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="AE27" s="1"/>
       <c r="AF27" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="AG27" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH27" s="1"/>
+        <v>61</v>
+      </c>
+      <c r="AH27" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="AI27" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AJ27" s="1"/>
       <c r="AK27" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AL27" s="1" t="s">
-        <v>72</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="AL27" s="1"/>
       <c r="AM27" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AN27" s="1"/>
       <c r="AO27" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="AP27" s="1"/>
-      <c r="AQ27" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="AQ27" s="1"/>
       <c r="AR27" s="1" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="AS27" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AT27" s="1"/>
       <c r="AU27" s="1"/>
       <c r="AV27" s="1" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="AW27" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AX27" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AY27" s="1"/>
       <c r="AZ27" s="1"/>
@@ -3623,112 +3600,114 @@
       <c r="A28" s="3">
         <v>3</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>73</v>
-      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F28" s="1"/>
+        <v>57</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="K28" s="1"/>
       <c r="L28" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="M28" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="N28" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="P28" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q28" s="1"/>
+        <v>79</v>
+      </c>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="R28" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="S28" s="1" t="s">
-        <v>53</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="S28" s="1"/>
       <c r="T28" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
-      <c r="W28" s="1"/>
-      <c r="X28" s="1"/>
+      <c r="W28" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="X28" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="Y28" s="1" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="Z28" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA28" s="1" t="s">
-        <v>68</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="AA28" s="1"/>
       <c r="AB28" s="1" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="AC28" s="1"/>
       <c r="AD28" s="1" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="AE28" s="1"/>
       <c r="AF28" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AG28" s="1"/>
+        <v>121</v>
+      </c>
+      <c r="AG28" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="AH28" s="1"/>
-      <c r="AI28" s="1"/>
+      <c r="AI28" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="AJ28" s="1" t="s">
         <v>58</v>
       </c>
       <c r="AK28" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AL28" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="AL28" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="AM28" s="1" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="AN28" s="1"/>
       <c r="AO28" s="1"/>
       <c r="AP28" s="1"/>
       <c r="AQ28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR28" s="1"/>
+      <c r="AS28" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AT28" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AR28" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AS28" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AT28" s="1"/>
       <c r="AU28" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AV28" s="1" t="s">
-        <v>65</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="AV28" s="1"/>
       <c r="AW28" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AX28" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AY28" s="1"/>
       <c r="AZ28" s="1"/>
@@ -3738,113 +3717,115 @@
       <c r="A29" s="3">
         <v>4</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
       <c r="I29" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="M29" s="1"/>
+      <c r="M29" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="N29" s="1" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="P29" s="1"/>
       <c r="Q29" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="R29" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="S29" s="1"/>
-      <c r="T29" s="1"/>
+      <c r="T29" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
-      <c r="W29" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="X29" s="1"/>
-      <c r="Y29" s="1"/>
-      <c r="Z29" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y29" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z29" s="1"/>
       <c r="AA29" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB29" s="1"/>
+        <v>67</v>
+      </c>
+      <c r="AB29" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="AC29" s="1"/>
-      <c r="AD29" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="AD29" s="1"/>
       <c r="AE29" s="1"/>
       <c r="AF29" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AG29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH29" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AH29" s="1"/>
-      <c r="AI29" s="1"/>
+      <c r="AI29" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="AJ29" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK29" s="1" t="s">
-        <v>94</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="AK29" s="1"/>
       <c r="AL29" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AM29" s="1" t="s">
-        <v>77</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="AM29" s="1"/>
       <c r="AN29" s="1"/>
       <c r="AO29" s="1"/>
       <c r="AP29" s="1"/>
       <c r="AQ29" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AR29" s="1"/>
+        <v>84</v>
+      </c>
+      <c r="AR29" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="AS29" s="1" t="s">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="AT29" s="1" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="AU29" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AV29" s="1" t="s">
-        <v>65</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="AV29" s="1"/>
       <c r="AW29" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AX29" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="AX29" s="1"/>
       <c r="AY29" s="1"/>
       <c r="AZ29" s="1"/>
       <c r="BA29" s="1"/>
@@ -3854,111 +3835,109 @@
         <v>5</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30" s="1"/>
+        <v>78</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="D30" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>61</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
+      <c r="J30" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="K30" s="1" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="L30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="R30" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="M30" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="P30" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q30" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="R30" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="S30" s="1" t="s">
-        <v>75</v>
-      </c>
+      <c r="S30" s="1"/>
       <c r="T30" s="1" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
-      <c r="Y30" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="AA30" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="AB30" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="AC30" s="1"/>
       <c r="AD30" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="AE30" s="1"/>
       <c r="AF30" s="1"/>
-      <c r="AG30" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="AG30" s="1"/>
       <c r="AH30" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AI30" s="1"/>
       <c r="AJ30" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK30" s="1"/>
-      <c r="AL30" s="1" t="s">
-        <v>64</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="AK30" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL30" s="1"/>
       <c r="AM30" s="1" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="AN30" s="1"/>
-      <c r="AO30" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="AP30" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="AQ30" s="1"/>
+      <c r="AO30" s="1"/>
+      <c r="AP30" s="1"/>
+      <c r="AQ30" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="AR30" s="1" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="AS30" s="1"/>
       <c r="AT30" s="1" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="AU30" s="1"/>
-      <c r="AV30" s="1"/>
+      <c r="AV30" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="AW30" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AX30" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AY30" s="1"/>
       <c r="AZ30" s="1"/>
@@ -3969,45 +3948,47 @@
         <v>6</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="F31" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G31" s="1"/>
-      <c r="H31" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>78</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="L31" s="1"/>
       <c r="M31" s="1" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
+      <c r="P31" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="Q31" s="1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="R31" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="S31" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="S31" s="1"/>
       <c r="T31" s="1" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
@@ -4016,37 +3997,37 @@
       <c r="Y31" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="Z31" s="1"/>
+      <c r="Z31" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="AA31" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="AB31" s="1" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="AC31" s="1"/>
-      <c r="AD31" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="AD31" s="1"/>
       <c r="AE31" s="1"/>
       <c r="AF31" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AG31" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="AH31" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="AI31" s="1"/>
       <c r="AJ31" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AK31" s="1" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="AL31" s="1"/>
       <c r="AM31" s="1" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="AN31" s="1"/>
       <c r="AO31" s="1" t="s">
@@ -4056,26 +4037,24 @@
         <v>115</v>
       </c>
       <c r="AQ31" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="AR31" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AS31" s="1"/>
+        <v>77</v>
+      </c>
+      <c r="AS31" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="AT31" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AU31" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AV31" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AW31" s="1" t="s">
-        <v>87</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="AV31" s="1"/>
+      <c r="AW31" s="1"/>
       <c r="AX31" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AY31" s="1"/>
       <c r="AZ31" s="1"/>
@@ -4087,107 +4066,107 @@
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1" t="s">
-        <v>87</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" s="1"/>
       <c r="F32" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>67</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="J32" s="1"/>
       <c r="K32" s="1" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="S32" s="1" t="s">
-        <v>72</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="S32" s="1"/>
       <c r="T32" s="1" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
-      <c r="Y32" s="1"/>
-      <c r="Z32" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA32" s="1"/>
+      <c r="Y32" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="AB32" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="AC32" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD32" s="1"/>
+      <c r="AC32" s="1"/>
+      <c r="AD32" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="AE32" s="1"/>
-      <c r="AF32" s="1" t="s">
-        <v>126</v>
-      </c>
+      <c r="AF32" s="1"/>
       <c r="AG32" s="1" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="AH32" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AI32" s="1" t="s">
-        <v>59</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="AI32" s="1"/>
       <c r="AJ32" s="1" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="AK32" s="1" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="AL32" s="1"/>
       <c r="AM32" s="1"/>
       <c r="AN32" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AO32" s="1"/>
-      <c r="AP32" s="1"/>
+      <c r="AO32" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AP32" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="AQ32" s="1" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="AR32" s="1"/>
-      <c r="AS32" s="1"/>
+      <c r="AS32" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="AT32" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AU32" s="1" t="s">
-        <v>126</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="AU32" s="1"/>
       <c r="AV32" s="1" t="s">
         <v>66</v>
       </c>
       <c r="AW32" s="1"/>
-      <c r="AX32" s="1"/>
+      <c r="AX32" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="AY32" s="1"/>
       <c r="AZ32" s="1"/>
       <c r="BA32" s="1"/>
@@ -4197,44 +4176,46 @@
         <v>1</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L34" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="M34" s="1"/>
+      <c r="M34" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="N34" s="1" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="O34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P34" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="P34" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T34" s="1" t="s">
         <v>65</v>
@@ -4242,43 +4223,41 @@
       <c r="U34" s="1"/>
       <c r="V34" s="1"/>
       <c r="W34" s="1" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="X34" s="1"/>
       <c r="Y34" s="1" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="Z34" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="1"/>
+      <c r="AC34" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD34" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="AA34" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB34" s="1"/>
-      <c r="AC34" s="1"/>
-      <c r="AD34" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="AE34" s="1"/>
       <c r="AF34" s="1"/>
       <c r="AG34" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="AH34" s="1"/>
       <c r="AI34" s="1"/>
-      <c r="AJ34" s="1"/>
+      <c r="AJ34" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="AK34" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AL34" s="1" t="s">
-        <v>64</v>
-      </c>
+      <c r="AL34" s="1"/>
       <c r="AM34" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AN34" s="1" t="s">
-        <v>77</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="AN34" s="1"/>
       <c r="AO34" s="1" t="s">
         <v>115</v>
       </c>
@@ -4286,22 +4265,22 @@
         <v>115</v>
       </c>
       <c r="AQ34" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AR34" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="AS34" s="1"/>
       <c r="AT34" s="1"/>
       <c r="AU34" s="1"/>
       <c r="AV34" s="1" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="AW34" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AX34" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AY34" s="1"/>
       <c r="AZ34" s="1"/>
@@ -4312,46 +4291,44 @@
         <v>2</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1" t="s">
-        <v>62</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M35" s="1" t="s">
-        <v>94</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
       <c r="N35" s="1" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q35" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="R35" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="S35" s="1" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="T35" s="1" t="s">
         <v>65</v>
@@ -4359,62 +4336,64 @@
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
       <c r="W35" s="1" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="X35" s="1"/>
       <c r="Y35" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z35" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="Z35" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="AA35" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="AB35" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="AC35" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD35" s="1" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="AE35" s="1"/>
       <c r="AF35" s="1"/>
       <c r="AG35" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="AH35" s="1"/>
       <c r="AI35" s="1"/>
       <c r="AJ35" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK35" s="1" t="s">
-        <v>58</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="AK35" s="1"/>
       <c r="AL35" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AM35" s="1"/>
-      <c r="AN35" s="1" t="s">
-        <v>77</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="AM35" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN35" s="1"/>
       <c r="AO35" s="1"/>
       <c r="AP35" s="1"/>
-      <c r="AQ35" s="1"/>
+      <c r="AQ35" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="AR35" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AS35" s="1"/>
       <c r="AT35" s="1"/>
       <c r="AU35" s="1"/>
       <c r="AV35" s="1" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="AW35" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AX35" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AY35" s="1"/>
       <c r="AZ35" s="1"/>
@@ -4425,109 +4404,109 @@
         <v>3</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>82</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="C36" s="1"/>
       <c r="D36" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G36" s="1"/>
-      <c r="H36" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="L36" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O36" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="P36" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="R36" s="1" t="s">
-        <v>58</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="R36" s="1"/>
       <c r="S36" s="1"/>
       <c r="T36" s="1" t="s">
         <v>65</v>
       </c>
       <c r="U36" s="1"/>
       <c r="V36" s="1"/>
-      <c r="W36" s="1"/>
+      <c r="W36" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="X36" s="1"/>
       <c r="Y36" s="1" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="Z36" s="1" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="AA36" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AB36" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC36" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD36" s="1"/>
+        <v>77</v>
+      </c>
+      <c r="AC36" s="1"/>
+      <c r="AD36" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="AE36" s="1"/>
       <c r="AF36" s="1"/>
       <c r="AG36" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH36" s="1" t="s">
-        <v>60</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="AH36" s="1"/>
       <c r="AI36" s="1"/>
-      <c r="AJ36" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK36" s="1"/>
-      <c r="AL36" s="1"/>
+      <c r="AJ36" s="1"/>
+      <c r="AK36" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL36" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="AM36" s="1" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="AN36" s="1"/>
       <c r="AO36" s="1"/>
       <c r="AP36" s="1"/>
-      <c r="AQ36" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="AQ36" s="1"/>
       <c r="AR36" s="1" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="AS36" s="1"/>
-      <c r="AT36" s="1"/>
+      <c r="AT36" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="AU36" s="1"/>
       <c r="AV36" s="1" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="AW36" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AX36" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AY36" s="1"/>
       <c r="AZ36" s="1"/>
@@ -4537,111 +4516,111 @@
       <c r="A37" s="3">
         <v>4</v>
       </c>
-      <c r="B37" s="1"/>
+      <c r="B37" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="C37" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D37" s="1"/>
+        <v>57</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>78</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="L37" s="1"/>
       <c r="M37" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="S37" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="N37" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="O37" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="S37" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
       <c r="V37" s="1"/>
-      <c r="W37" s="1" t="s">
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="X37" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y37" s="1"/>
-      <c r="Z37" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA37" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="Z37" s="1"/>
+      <c r="AA37" s="1"/>
       <c r="AB37" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC37" s="1"/>
+        <v>77</v>
+      </c>
+      <c r="AC37" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="AD37" s="1" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="AE37" s="1"/>
       <c r="AF37" s="1"/>
       <c r="AG37" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="AH37" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AI37" s="1"/>
-      <c r="AJ37" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="AJ37" s="1"/>
       <c r="AK37" s="1"/>
       <c r="AL37" s="1" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="AM37" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AN37" s="1"/>
+        <v>76</v>
+      </c>
+      <c r="AN37" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="AO37" s="1"/>
       <c r="AP37" s="1"/>
       <c r="AQ37" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="AR37" s="1" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="AS37" s="1"/>
-      <c r="AT37" s="1" t="s">
-        <v>73</v>
-      </c>
+      <c r="AT37" s="1"/>
       <c r="AU37" s="1"/>
       <c r="AV37" s="1" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="AW37" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AX37" s="1"/>
+      <c r="AX37" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="AY37" s="1"/>
       <c r="AZ37" s="1"/>
       <c r="BA37" s="1"/>
@@ -4650,102 +4629,102 @@
       <c r="A38" s="3">
         <v>5</v>
       </c>
-      <c r="B38" s="1"/>
+      <c r="B38" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="C38" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="M38" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
+      <c r="P38" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="Q38" s="1" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="R38" s="1" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="S38" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="T38" s="1" t="s">
-        <v>94</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="T38" s="1"/>
       <c r="U38" s="1"/>
       <c r="V38" s="1"/>
       <c r="W38" s="1" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="X38" s="1"/>
       <c r="Y38" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z38" s="1"/>
+        <v>76</v>
+      </c>
+      <c r="Z38" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="AA38" s="1"/>
       <c r="AB38" s="1" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="AC38" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD38" s="1" t="s">
-        <v>63</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="AD38" s="1"/>
       <c r="AE38" s="1"/>
       <c r="AF38" s="1"/>
-      <c r="AG38" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="AG38" s="1"/>
       <c r="AH38" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="AI38" s="1"/>
       <c r="AJ38" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK38" s="1" t="s">
-        <v>76</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="AK38" s="1"/>
       <c r="AL38" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AM38" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="AM38" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="AN38" s="1"/>
       <c r="AO38" s="1"/>
       <c r="AP38" s="1"/>
-      <c r="AQ38" s="1" t="s">
-        <v>72</v>
-      </c>
+      <c r="AQ38" s="1"/>
       <c r="AR38" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS38" s="1" t="s">
-        <v>81</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="AS38" s="1"/>
       <c r="AT38" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="AU38" s="1"/>
       <c r="AV38" s="1" t="s">
@@ -4763,53 +4742,43 @@
       <c r="A39" s="3">
         <v>6</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="D39" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>67</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="E39" s="1"/>
       <c r="F39" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G39" s="1"/>
-      <c r="H39" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="H39" s="1"/>
       <c r="I39" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M39" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="J39" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="N39" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="O39" s="1" t="s">
-        <v>72</v>
-      </c>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
       <c r="P39" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T39" s="1" t="s">
         <v>65</v>
@@ -4817,58 +4786,68 @@
       <c r="U39" s="1"/>
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
-      <c r="X39" s="1"/>
+      <c r="X39" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="Y39" s="1"/>
       <c r="Z39" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA39" s="1"/>
-      <c r="AB39" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="AA39" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB39" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="AC39" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD39" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="AD39" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="AE39" s="1"/>
       <c r="AF39" s="1"/>
       <c r="AG39" s="1" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="AH39" s="1" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="AI39" s="1"/>
-      <c r="AJ39" s="1"/>
+      <c r="AJ39" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="AK39" s="1" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="AL39" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="AM39" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AN39" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="AN39" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="AO39" s="1"/>
       <c r="AP39" s="1"/>
-      <c r="AQ39" s="1"/>
+      <c r="AQ39" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="AR39" s="1"/>
       <c r="AS39" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AT39" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU39" s="1"/>
+      <c r="AV39" s="1"/>
+      <c r="AW39" s="1"/>
+      <c r="AX39" s="1"/>
+      <c r="AY39" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AU39" s="1"/>
-      <c r="AV39" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AW39" s="1"/>
-      <c r="AX39" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AY39" s="1"/>
       <c r="AZ39" s="1"/>
       <c r="BA39" s="1"/>
     </row>
@@ -4876,110 +4855,110 @@
       <c r="A40" s="3">
         <v>7</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="B40" s="1"/>
       <c r="C40" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J40" s="1"/>
       <c r="K40" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L40" s="1"/>
+        <v>76</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="M40" s="1" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="O40" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="P40" s="1" t="s">
-        <v>60</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
       <c r="Q40" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="R40" s="1" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="S40" s="1"/>
       <c r="T40" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
-      <c r="W40" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="X40" s="1"/>
-      <c r="Y40" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z40" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="W40" s="1"/>
+      <c r="X40" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y40" s="1"/>
+      <c r="Z40" s="1"/>
       <c r="AA40" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AB40" s="1" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="AC40" s="1" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="AD40" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AE40" s="1"/>
       <c r="AF40" s="1"/>
-      <c r="AG40" s="1"/>
+      <c r="AG40" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="AH40" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AI40" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="AI40" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="AJ40" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AK40" s="1"/>
+        <v>77</v>
+      </c>
+      <c r="AK40" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="AL40" s="1"/>
-      <c r="AM40" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="AM40" s="1"/>
       <c r="AN40" s="1" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="AO40" s="1"/>
       <c r="AP40" s="1"/>
       <c r="AQ40" s="1" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="AR40" s="1"/>
-      <c r="AS40" s="1"/>
+      <c r="AS40" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="AT40" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AU40" s="1"/>
-      <c r="AV40" s="1"/>
+      <c r="AV40" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="AW40" s="1"/>
       <c r="AX40" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AY40" s="1"/>
       <c r="AZ40" s="1"/>

--- a/SchoolManager/bin/Release/netcoreapp3.1/programa1.xlsx
+++ b/SchoolManager/bin/Release/netcoreapp3.1/programa1.xlsx
@@ -307,72 +307,75 @@
     <t>29</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
     <t>14</t>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>41</t>
+    <t>26</t>
   </si>
   <si>
     <t>31</t>
   </si>
   <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
     <t>21</t>
   </si>
   <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>26</t>
+    <t>42</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>28</t>
   </si>
   <si>
     <t>33</t>
   </si>
   <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
     <t>37</t>
   </si>
   <si>
@@ -382,16 +385,13 @@
     <t>47</t>
   </si>
   <si>
-    <t>42</t>
-  </si>
-  <si>
     <t>44</t>
   </si>
   <si>
+    <t>46</t>
+  </si>
+  <si>
     <t>40</t>
-  </si>
-  <si>
-    <t>46</t>
   </si>
 </sst>
 </file>
@@ -1777,7 +1777,7 @@
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -1785,18 +1785,16 @@
       <c r="N10" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="O10" s="1"/>
+      <c r="P10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S10" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="T10" s="1"/>
       <c r="U10" s="1" t="s">
@@ -1810,7 +1808,7 @@
       </c>
       <c r="X10" s="1"/>
       <c r="Y10" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Z10" s="1" t="s">
         <v>62</v>
@@ -1819,12 +1817,10 @@
         <v>90</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="AC10" s="1"/>
-      <c r="AD10" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="AD10" s="1"/>
       <c r="AE10" s="1" t="s">
         <v>96</v>
       </c>
@@ -1856,7 +1852,9 @@
         <v>75</v>
       </c>
       <c r="AQ10" s="1"/>
-      <c r="AR10" s="1"/>
+      <c r="AR10" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="AS10" s="1" t="s">
         <v>97</v>
       </c>
@@ -1865,9 +1863,11 @@
         <v>94</v>
       </c>
       <c r="AV10" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AW10" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="AW10" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="AX10" s="1"/>
       <c r="AY10" s="1"/>
       <c r="AZ10" s="1"/>
@@ -1881,49 +1881,51 @@
         <v>79</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="G11" s="1" t="s">
         <v>54</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1" t="s">
-        <v>65</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="O11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="P11" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
+      <c r="U11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="W11" s="1" t="s">
         <v>71</v>
       </c>
@@ -1938,12 +1940,10 @@
         <v>90</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AC11" s="1"/>
-      <c r="AD11" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="AD11" s="1"/>
       <c r="AE11" s="1" t="s">
         <v>96</v>
       </c>
@@ -1972,10 +1972,10 @@
       <c r="AP11" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="AQ11" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AR11" s="1"/>
+      <c r="AQ11" s="1"/>
+      <c r="AR11" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="AS11" s="1" t="s">
         <v>97</v>
       </c>
@@ -1984,9 +1984,11 @@
         <v>94</v>
       </c>
       <c r="AV11" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AW11" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="AW11" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="AX11" s="1"/>
       <c r="AY11" s="1"/>
       <c r="AZ11" s="1"/>
@@ -1997,16 +1999,14 @@
         <v>3</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>54</v>
@@ -2019,48 +2019,48 @@
         <v>56</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="L12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M12" s="1"/>
       <c r="N12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="O12" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="O12" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="P12" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="R12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="S12" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="T12" s="1"/>
       <c r="U12" s="1" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="X12" s="1" t="s">
         <v>98</v>
       </c>
       <c r="Y12" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Z12" s="1" t="s">
         <v>67</v>
@@ -2068,24 +2068,28 @@
       <c r="AA12" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AB12" s="1"/>
+      <c r="AB12" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
       <c r="AE12" s="1" t="s">
         <v>99</v>
       </c>
       <c r="AF12" s="1"/>
-      <c r="AG12" s="1"/>
+      <c r="AG12" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="AH12" s="1"/>
       <c r="AI12" s="1" t="s">
         <v>98</v>
       </c>
       <c r="AJ12" s="1"/>
       <c r="AK12" s="1"/>
-      <c r="AL12" s="1"/>
-      <c r="AM12" s="1" t="s">
-        <v>71</v>
-      </c>
+      <c r="AL12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM12" s="1"/>
       <c r="AN12" s="1"/>
       <c r="AO12" s="1" t="s">
         <v>86</v>
@@ -2098,14 +2102,12 @@
         <v>84</v>
       </c>
       <c r="AS12" s="1"/>
-      <c r="AT12" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="AT12" s="1"/>
       <c r="AU12" s="1" t="s">
         <v>99</v>
       </c>
       <c r="AV12" s="1" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="AW12" s="1"/>
       <c r="AX12" s="1"/>
@@ -2118,14 +2120,16 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="D13" s="1" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>54</v>
@@ -2134,44 +2138,42 @@
         <v>80</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>68</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
+      <c r="N13" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="O13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="P13" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="R13" s="1" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="T13" s="1" t="s">
-        <v>57</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="T13" s="1"/>
       <c r="U13" s="1" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="X13" s="1" t="s">
         <v>98</v>
@@ -2183,30 +2185,30 @@
       <c r="AA13" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AB13" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC13" s="1"/>
-      <c r="AD13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD13" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="AE13" s="1" t="s">
         <v>100</v>
       </c>
       <c r="AF13" s="1"/>
       <c r="AG13" s="1"/>
-      <c r="AH13" s="1"/>
+      <c r="AH13" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="AI13" s="1" t="s">
         <v>98</v>
       </c>
       <c r="AJ13" s="1"/>
-      <c r="AK13" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="AK13" s="1"/>
       <c r="AL13" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AM13" s="1" t="s">
-        <v>71</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="AM13" s="1"/>
       <c r="AN13" s="1"/>
       <c r="AO13" s="1" t="s">
         <v>86</v>
@@ -2214,7 +2216,9 @@
       <c r="AP13" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="AQ13" s="1"/>
+      <c r="AQ13" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="AR13" s="1" t="s">
         <v>84</v>
       </c>
@@ -2224,11 +2228,9 @@
         <v>100</v>
       </c>
       <c r="AV13" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AW13" s="1" t="s">
-        <v>87</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="AW13" s="1"/>
       <c r="AX13" s="1"/>
       <c r="AY13" s="1"/>
       <c r="AZ13" s="1"/>
@@ -2238,15 +2240,13 @@
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="E14" s="1" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>61</v>
@@ -2255,73 +2255,77 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="K14" s="1"/>
+        <v>57</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="L14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="R14" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="P14" s="1" t="s">
+      <c r="S14" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="T14" s="1"/>
       <c r="U14" s="1" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="X14" s="1"/>
+        <v>90</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="Y14" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AB14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AC14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD14" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="AE14" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF14" s="1"/>
       <c r="AG14" s="1"/>
       <c r="AH14" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AI14" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="AI14" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="AJ14" s="1"/>
       <c r="AK14" s="1"/>
       <c r="AL14" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AM14" s="1"/>
+      <c r="AM14" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="AN14" s="1"/>
       <c r="AO14" s="1" t="s">
         <v>92</v>
@@ -2336,16 +2340,16 @@
       <c r="AS14" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AT14" s="1"/>
+      <c r="AT14" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="AU14" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AV14" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AW14" s="1" t="s">
-        <v>87</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="AW14" s="1"/>
       <c r="AX14" s="1" t="s">
         <v>54</v>
       </c>
@@ -2357,92 +2361,96 @@
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="E15" s="1" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>61</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1" t="s">
         <v>68</v>
       </c>
       <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1" t="s">
+      <c r="N15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="R15" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="P15" s="1" t="s">
+      <c r="S15" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Q15" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="S15" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="T15" s="1"/>
+      <c r="T15" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="U15" s="1" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="1" t="s">
-        <v>76</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y15" s="1"/>
       <c r="Z15" s="1" t="s">
         <v>69</v>
       </c>
       <c r="AA15" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AB15" s="1"/>
-      <c r="AC15" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="AB15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC15" s="1"/>
       <c r="AD15" s="1" t="s">
         <v>84</v>
       </c>
       <c r="AE15" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AF15" s="1"/>
       <c r="AG15" s="1"/>
       <c r="AH15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI15" s="1"/>
+        <v>54</v>
+      </c>
+      <c r="AI15" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="AJ15" s="1" t="s">
         <v>77</v>
       </c>
       <c r="AK15" s="1"/>
       <c r="AL15" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AM15" s="1"/>
+        <v>73</v>
+      </c>
+      <c r="AM15" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="AN15" s="1" t="s">
         <v>79</v>
       </c>
@@ -2456,18 +2464,16 @@
       <c r="AR15" s="1"/>
       <c r="AS15" s="1"/>
       <c r="AT15" s="1" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="AU15" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AV15" s="1" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="AW15" s="1"/>
-      <c r="AX15" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="AX15" s="1"/>
       <c r="AY15" s="1"/>
       <c r="AZ15" s="1"/>
       <c r="BA15" s="1"/>
@@ -2490,17 +2496,15 @@
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
+      <c r="P16" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
-      <c r="U16" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="V16" s="1" t="s">
-        <v>103</v>
-      </c>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
@@ -2518,9 +2522,7 @@
       <c r="AI16" s="1"/>
       <c r="AJ16" s="1"/>
       <c r="AK16" s="1"/>
-      <c r="AL16" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="AL16" s="1"/>
       <c r="AM16" s="1"/>
       <c r="AN16" s="1"/>
       <c r="AO16" s="1"/>
@@ -2541,17 +2543,17 @@
       <c r="A18" s="3">
         <v>1</v>
       </c>
-      <c r="B18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="C18" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
         <v>104</v>
@@ -2561,75 +2563,75 @@
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="M18" s="1"/>
       <c r="N18" s="1" t="s">
         <v>90</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="P18" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="Q18" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="Q18" s="1"/>
       <c r="R18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="W18" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="S18" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="T18" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="U18" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="V18" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="W18" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="X18" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Y18" s="1" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="Z18" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="AA18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC18" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD18" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AB18" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC18" s="1"/>
-      <c r="AD18" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="AE18" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AF18" s="1"/>
-      <c r="AG18" s="1"/>
+      <c r="AG18" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="AH18" s="1"/>
       <c r="AI18" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AJ18" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AK18" s="1"/>
-      <c r="AL18" s="1"/>
+        <v>106</v>
+      </c>
+      <c r="AJ18" s="1"/>
+      <c r="AK18" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL18" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="AM18" s="1" t="s">
         <v>74</v>
       </c>
@@ -2638,16 +2640,16 @@
         <v>104</v>
       </c>
       <c r="AP18" s="1"/>
-      <c r="AQ18" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="AQ18" s="1"/>
       <c r="AR18" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AS18" s="1"/>
+      <c r="AS18" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="AT18" s="1"/>
       <c r="AU18" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AV18" s="1"/>
       <c r="AW18" s="1"/>
@@ -2663,113 +2665,117 @@
         <v>2</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I19" s="1"/>
+        <v>108</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="J19" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="L19" s="1"/>
+        <v>90</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="M19" s="1"/>
       <c r="N19" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="R19" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="S19" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
+        <v>87</v>
+      </c>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="W19" s="1" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="X19" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="Y19" s="1" t="s">
-        <v>66</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="Y19" s="1"/>
       <c r="Z19" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC19" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD19" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AB19" s="1"/>
-      <c r="AC19" s="1"/>
-      <c r="AD19" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="AE19" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AF19" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG19" s="1" t="s">
         <v>71</v>
       </c>
       <c r="AH19" s="1"/>
       <c r="AI19" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AJ19" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AK19" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL19" s="1"/>
-      <c r="AM19" s="1"/>
+        <v>60</v>
+      </c>
+      <c r="AK19" s="1"/>
+      <c r="AL19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM19" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="AN19" s="1"/>
-      <c r="AO19" s="1"/>
+      <c r="AO19" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="AP19" s="1" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="AQ19" s="1"/>
       <c r="AR19" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AS19" s="1"/>
+      <c r="AS19" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="AT19" s="1"/>
-      <c r="AU19" s="1"/>
-      <c r="AV19" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AW19" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="AU19" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AV19" s="1"/>
+      <c r="AW19" s="1"/>
       <c r="AX19" s="1" t="s">
         <v>54</v>
       </c>
@@ -2782,112 +2788,112 @@
         <v>3</v>
       </c>
       <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="D20" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="F20" s="1" t="s">
         <v>74</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>56</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="N20" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="L20" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M20" s="1" t="s">
+      <c r="O20" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="N20" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="S20" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="T20" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="W20" s="1"/>
       <c r="X20" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE20" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="Y20" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z20" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA20" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB20" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC20" s="1" t="s">
+      <c r="AF20" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="AD20" s="1"/>
-      <c r="AE20" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AF20" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AG20" s="1" t="s">
-        <v>71</v>
-      </c>
+      <c r="AG20" s="1"/>
       <c r="AH20" s="1"/>
       <c r="AI20" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AJ20" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AK20" s="1"/>
-      <c r="AL20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK20" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AM20" s="1" t="s">
-        <v>91</v>
-      </c>
+      <c r="AL20" s="1"/>
+      <c r="AM20" s="1"/>
       <c r="AN20" s="1"/>
       <c r="AO20" s="1"/>
       <c r="AP20" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="AQ20" s="1"/>
-      <c r="AR20" s="1"/>
+      <c r="AR20" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="AS20" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AT20" s="1"/>
       <c r="AU20" s="1"/>
-      <c r="AV20" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="AV20" s="1"/>
       <c r="AW20" s="1" t="s">
         <v>87</v>
       </c>
@@ -2904,20 +2910,20 @@
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>53</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>74</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>56</v>
@@ -2931,91 +2937,89 @@
       </c>
       <c r="M21" s="1"/>
       <c r="N21" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O21" s="1"/>
+        <v>59</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
+      <c r="Q21" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="T21" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="U21" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="V21" s="1" t="s">
-        <v>103</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
       <c r="W21" s="1" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="X21" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Y21" s="1" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
       <c r="AB21" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC21" s="1" t="s">
-        <v>109</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="AC21" s="1"/>
       <c r="AD21" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE21" s="1"/>
+        <v>84</v>
+      </c>
+      <c r="AE21" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="AF21" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AG21" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AH21" s="1"/>
       <c r="AI21" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AJ21" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AK21" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AL21" s="1" t="s">
-        <v>76</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="AL21" s="1"/>
       <c r="AM21" s="1"/>
       <c r="AN21" s="1"/>
-      <c r="AO21" s="1" t="s">
-        <v>86</v>
-      </c>
+      <c r="AO21" s="1"/>
       <c r="AP21" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AQ21" s="1"/>
+        <v>110</v>
+      </c>
+      <c r="AQ21" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="AR21" s="1" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="AS21" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AT21" s="1"/>
-      <c r="AU21" s="1" t="s">
-        <v>110</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="AT21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AU21" s="1"/>
       <c r="AV21" s="1"/>
       <c r="AW21" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AX21" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AY21" s="1" t="s">
-        <v>71</v>
-      </c>
+      <c r="AX21" s="1"/>
+      <c r="AY21" s="1"/>
       <c r="AZ21" s="1"/>
       <c r="BA21" s="1"/>
     </row>
@@ -3031,22 +3035,22 @@
         <v>53</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J22" s="1"/>
+        <v>74</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="K22" s="1" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="M22" s="1"/>
       <c r="N22" s="1" t="s">
@@ -3055,38 +3059,42 @@
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="R22" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="S22" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="T22" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
+      <c r="U22" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="W22" s="1" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="X22" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Y22" s="1" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="Z22" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="AA22" s="1"/>
       <c r="AB22" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC22" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="AC22" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="AD22" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AE22" s="1" t="s">
         <v>112</v>
@@ -3097,17 +3105,19 @@
       <c r="AG22" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AH22" s="1"/>
+      <c r="AH22" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="AI22" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AJ22" s="1"/>
+        <v>114</v>
+      </c>
+      <c r="AJ22" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="AK22" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AL22" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="AL22" s="1"/>
       <c r="AM22" s="1"/>
       <c r="AN22" s="1"/>
       <c r="AO22" s="1" t="s">
@@ -3117,15 +3127,11 @@
         <v>92</v>
       </c>
       <c r="AQ22" s="1"/>
-      <c r="AR22" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="AR22" s="1"/>
       <c r="AS22" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="AT22" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="AT22" s="1"/>
       <c r="AU22" s="1"/>
       <c r="AV22" s="1"/>
       <c r="AW22" s="1" t="s">
@@ -3145,114 +3151,112 @@
         <v>57</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>77</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="S23" s="1" t="s">
-        <v>73</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="S23" s="1"/>
       <c r="T23" s="1" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="W23" s="1" t="s">
         <v>65</v>
       </c>
       <c r="X23" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y23" s="1"/>
+        <v>114</v>
+      </c>
+      <c r="Y23" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="Z23" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="1"/>
+      <c r="AD23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE23" s="1"/>
+      <c r="AF23" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AG23" s="1"/>
+      <c r="AH23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI23" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AJ23" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AA23" s="1"/>
-      <c r="AB23" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC23" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD23" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE23" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AF23" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AG23" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AH23" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI23" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AJ23" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="AK23" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AL23" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="AL23" s="1"/>
       <c r="AM23" s="1"/>
       <c r="AN23" s="1"/>
       <c r="AO23" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AP23" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AQ23" s="1"/>
-      <c r="AR23" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="AR23" s="1"/>
       <c r="AS23" s="1" t="s">
         <v>79</v>
       </c>
       <c r="AT23" s="1"/>
       <c r="AU23" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="AV23" s="1"/>
-      <c r="AW23" s="1"/>
-      <c r="AX23" s="1"/>
+        <v>115</v>
+      </c>
+      <c r="AV23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AW23" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AX23" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="AY23" s="1"/>
       <c r="AZ23" s="1"/>
       <c r="BA23" s="1"/>
@@ -3262,98 +3266,98 @@
         <v>7</v>
       </c>
       <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1" t="s">
+      <c r="C24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
-      <c r="L24" s="1" t="s">
-        <v>80</v>
-      </c>
+      <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="S24" s="1"/>
       <c r="T24" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="U24" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="V24" s="1" t="s">
-        <v>114</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
       <c r="W24" s="1" t="s">
         <v>65</v>
       </c>
       <c r="X24" s="1"/>
-      <c r="Y24" s="1"/>
-      <c r="Z24" s="1"/>
-      <c r="AA24" s="1"/>
-      <c r="AB24" s="1" t="s">
+      <c r="Y24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z24" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="AC24" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD24" s="1" t="s">
+      <c r="AA24" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="1"/>
+      <c r="AD24" s="1"/>
       <c r="AE24" s="1"/>
       <c r="AF24" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AG24" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AH24" s="1" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="AI24" s="1"/>
       <c r="AJ24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK24" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="AK24" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="AL24" s="1"/>
       <c r="AM24" s="1"/>
       <c r="AN24" s="1"/>
       <c r="AO24" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AP24" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="AQ24" s="1"/>
-      <c r="AR24" s="1" t="s">
-        <v>57</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="AQ24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AR24" s="1"/>
       <c r="AS24" s="1"/>
       <c r="AT24" s="1" t="s">
         <v>90</v>
       </c>
       <c r="AU24" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="AV24" s="1"/>
+        <v>117</v>
+      </c>
+      <c r="AV24" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="AW24" s="1"/>
-      <c r="AX24" s="1"/>
+      <c r="AX24" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="AY24" s="1"/>
       <c r="AZ24" s="1"/>
       <c r="BA24" s="1"/>
@@ -3366,9 +3370,11 @@
         <v>65</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D26" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="E26" s="1" t="s">
         <v>80</v>
       </c>
@@ -3384,10 +3390,10 @@
         <v>60</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="M26" s="1"/>
       <c r="N26" s="1" t="s">
@@ -3397,17 +3403,19 @@
         <v>52</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q26" s="1"/>
+        <v>61</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
       <c r="U26" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="V26" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
@@ -3420,32 +3428,28 @@
       <c r="AA26" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AB26" s="1" t="s">
-        <v>71</v>
-      </c>
+      <c r="AB26" s="1"/>
       <c r="AC26" s="1"/>
       <c r="AD26" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AE26" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AF26" s="1"/>
       <c r="AG26" s="1" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="AH26" s="1"/>
       <c r="AI26" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="AJ26" s="1" t="s">
-        <v>68</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="AJ26" s="1"/>
       <c r="AK26" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AL26" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="AM26" s="1" t="s">
         <v>74</v>
@@ -3456,17 +3460,17 @@
       </c>
       <c r="AP26" s="1"/>
       <c r="AQ26" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="AR26" s="1" t="s">
         <v>57</v>
       </c>
       <c r="AS26" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AT26" s="1"/>
       <c r="AU26" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AV26" s="1" t="s">
         <v>91</v>
@@ -3487,15 +3491,13 @@
         <v>79</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>74</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1" t="s">
@@ -3507,71 +3509,69 @@
       <c r="K27" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L27" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="N27" s="1" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="O27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q27" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="P27" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q27" s="1"/>
       <c r="R27" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="S27" s="1" t="s">
         <v>52</v>
       </c>
       <c r="T27" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
-      <c r="Y27" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z27" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA27" s="1" t="s">
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AB27" s="1"/>
       <c r="AC27" s="1"/>
       <c r="AD27" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AE27" s="1"/>
       <c r="AF27" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AG27" s="1"/>
+      <c r="AH27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI27" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="AG27" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AH27" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AI27" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="AJ27" s="1"/>
       <c r="AK27" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AL27" s="1"/>
+      <c r="AL27" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="AM27" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AN27" s="1"/>
       <c r="AO27" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AP27" s="1"/>
       <c r="AQ27" s="1"/>
@@ -3579,9 +3579,11 @@
         <v>84</v>
       </c>
       <c r="AS27" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="AT27" s="1"/>
+        <v>119</v>
+      </c>
+      <c r="AT27" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="AU27" s="1"/>
       <c r="AV27" s="1" t="s">
         <v>91</v>
@@ -3592,7 +3594,9 @@
       <c r="AX27" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AY27" s="1"/>
+      <c r="AY27" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="AZ27" s="1"/>
       <c r="BA27" s="1"/>
     </row>
@@ -3600,68 +3604,70 @@
       <c r="A28" s="3">
         <v>3</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
+      <c r="B28" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="D28" s="1" t="s">
         <v>53</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>74</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="I28" s="1"/>
       <c r="J28" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K28" s="1"/>
       <c r="L28" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1" t="s">
-        <v>76</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q28" s="1"/>
       <c r="R28" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="S28" s="1"/>
       <c r="T28" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
-      <c r="W28" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="X28" s="1" t="s">
-        <v>120</v>
-      </c>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
       <c r="Y28" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="Z28" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AA28" s="1"/>
+      <c r="AA28" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="AB28" s="1" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="AC28" s="1"/>
       <c r="AD28" s="1" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="AE28" s="1"/>
       <c r="AF28" s="1" t="s">
@@ -3671,34 +3677,30 @@
         <v>61</v>
       </c>
       <c r="AH28" s="1"/>
-      <c r="AI28" s="1" t="s">
-        <v>120</v>
-      </c>
+      <c r="AI28" s="1"/>
       <c r="AJ28" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK28" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="AK28" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="AL28" s="1" t="s">
         <v>73</v>
       </c>
       <c r="AM28" s="1" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AN28" s="1"/>
       <c r="AO28" s="1"/>
       <c r="AP28" s="1"/>
       <c r="AQ28" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AR28" s="1"/>
-      <c r="AS28" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AT28" s="1" t="s">
-        <v>63</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="AR28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS28" s="1"/>
+      <c r="AT28" s="1"/>
       <c r="AU28" s="1" t="s">
         <v>121</v>
       </c>
@@ -3719,7 +3721,7 @@
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>53</v>
@@ -3727,61 +3729,59 @@
       <c r="E29" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F29" s="1"/>
+      <c r="F29" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="G29" s="1"/>
-      <c r="H29" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J29" s="1" t="s">
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L29" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="K29" s="1" t="s">
+      <c r="M29" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q29" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="L29" s="1" t="s">
+      <c r="R29" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="R29" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="S29" s="1"/>
       <c r="T29" s="1" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
-      <c r="X29" s="1" t="s">
-        <v>120</v>
-      </c>
+      <c r="X29" s="1"/>
       <c r="Y29" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="Z29" s="1"/>
+      <c r="Z29" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="AA29" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="AB29" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AC29" s="1"/>
-      <c r="AD29" s="1"/>
+      <c r="AC29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD29" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="AE29" s="1"/>
       <c r="AF29" s="1" t="s">
         <v>122</v>
@@ -3789,43 +3789,45 @@
       <c r="AG29" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AH29" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI29" s="1" t="s">
-        <v>120</v>
-      </c>
+      <c r="AH29" s="1"/>
+      <c r="AI29" s="1"/>
       <c r="AJ29" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AK29" s="1"/>
-      <c r="AL29" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AM29" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="AK29" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL29" s="1"/>
+      <c r="AM29" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="AN29" s="1"/>
-      <c r="AO29" s="1"/>
-      <c r="AP29" s="1"/>
-      <c r="AQ29" s="1" t="s">
-        <v>84</v>
-      </c>
+      <c r="AO29" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AP29" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AQ29" s="1"/>
       <c r="AR29" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AS29" s="1" t="s">
-        <v>120</v>
-      </c>
+      <c r="AS29" s="1"/>
       <c r="AT29" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AU29" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="AV29" s="1"/>
+      <c r="AV29" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="AW29" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AX29" s="1"/>
+      <c r="AX29" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="AY29" s="1"/>
       <c r="AZ29" s="1"/>
       <c r="BA29" s="1"/>
@@ -3837,101 +3839,105 @@
       <c r="B30" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>84</v>
-      </c>
+      <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="E30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M30" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="N30" s="1" t="s">
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="S30" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q30" s="1" t="s">
+      <c r="T30" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="R30" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="S30" s="1"/>
-      <c r="T30" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
-      <c r="Y30" s="1"/>
+      <c r="Y30" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="Z30" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA30" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="AA30" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="AB30" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AC30" s="1"/>
-      <c r="AD30" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="AC30" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD30" s="1"/>
       <c r="AE30" s="1"/>
-      <c r="AF30" s="1"/>
-      <c r="AG30" s="1"/>
+      <c r="AF30" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AG30" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="AH30" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="AI30" s="1"/>
       <c r="AJ30" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="AK30" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="AK30" s="1"/>
       <c r="AL30" s="1"/>
       <c r="AM30" s="1" t="s">
         <v>71</v>
       </c>
       <c r="AN30" s="1"/>
-      <c r="AO30" s="1"/>
-      <c r="AP30" s="1"/>
-      <c r="AQ30" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="AO30" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AP30" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AQ30" s="1"/>
       <c r="AR30" s="1" t="s">
         <v>69</v>
       </c>
       <c r="AS30" s="1"/>
       <c r="AT30" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AU30" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="AU30" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="AV30" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AW30" s="1" t="s">
         <v>87</v>
@@ -3951,106 +3957,102 @@
         <v>78</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>53</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
         <v>87</v>
       </c>
       <c r="F31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I31" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N31" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1" t="s">
+      <c r="O31" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="N31" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1" t="s">
+      <c r="R31" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="Q31" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="R31" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="S31" s="1"/>
+      <c r="S31" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="T31" s="1" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
       <c r="Y31" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="Z31" s="1" t="s">
         <v>69</v>
       </c>
       <c r="AA31" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB31" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC31" s="1"/>
+      <c r="AD31" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AB31" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC31" s="1"/>
-      <c r="AD31" s="1"/>
       <c r="AE31" s="1"/>
-      <c r="AF31" s="1" t="s">
-        <v>123</v>
-      </c>
+      <c r="AF31" s="1"/>
       <c r="AG31" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AH31" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="AH31" s="1"/>
       <c r="AI31" s="1"/>
       <c r="AJ31" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AK31" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL31" s="1"/>
+      <c r="AK31" s="1"/>
+      <c r="AL31" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="AM31" s="1" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="AN31" s="1"/>
-      <c r="AO31" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="AP31" s="1" t="s">
-        <v>115</v>
-      </c>
+      <c r="AO31" s="1"/>
+      <c r="AP31" s="1"/>
       <c r="AQ31" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AR31" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="AR31" s="1"/>
       <c r="AS31" s="1" t="s">
         <v>84</v>
       </c>
       <c r="AT31" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AU31" s="1" t="s">
-        <v>123</v>
-      </c>
+      <c r="AU31" s="1"/>
       <c r="AV31" s="1"/>
       <c r="AW31" s="1"/>
       <c r="AX31" s="1" t="s">
@@ -4066,14 +4068,12 @@
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>53</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -4082,24 +4082,26 @@
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="N32" s="1"/>
+        <v>77</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="O32" s="1"/>
       <c r="P32" s="1" t="s">
         <v>58</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="S32" s="1"/>
       <c r="T32" s="1" t="s">
@@ -4112,43 +4114,45 @@
       <c r="Y32" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="Z32" s="1"/>
+      <c r="Z32" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="AA32" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC32" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD32" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="AB32" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC32" s="1"/>
-      <c r="AD32" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="AE32" s="1"/>
       <c r="AF32" s="1"/>
       <c r="AG32" s="1" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="AH32" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AI32" s="1"/>
       <c r="AJ32" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK32" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AL32" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="AL32" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="AM32" s="1"/>
       <c r="AN32" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AO32" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="AP32" s="1" t="s">
-        <v>115</v>
-      </c>
+      <c r="AO32" s="1"/>
+      <c r="AP32" s="1"/>
       <c r="AQ32" s="1" t="s">
         <v>69</v>
       </c>
@@ -4157,16 +4161,12 @@
         <v>84</v>
       </c>
       <c r="AT32" s="1" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="AU32" s="1"/>
-      <c r="AV32" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="AV32" s="1"/>
       <c r="AW32" s="1"/>
-      <c r="AX32" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="AX32" s="1"/>
       <c r="AY32" s="1"/>
       <c r="AZ32" s="1"/>
       <c r="BA32" s="1"/>
@@ -4181,10 +4181,10 @@
       <c r="C34" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="D34" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -4192,17 +4192,15 @@
         <v>56</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M34" s="1" t="s">
         <v>80</v>
       </c>
+      <c r="M34" s="1"/>
       <c r="N34" s="1" t="s">
         <v>63</v>
       </c>
@@ -4210,9 +4208,11 @@
         <v>52</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q34" s="1"/>
+        <v>87</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="R34" s="1"/>
       <c r="S34" s="1" t="s">
         <v>59</v>
@@ -4223,17 +4223,21 @@
       <c r="U34" s="1"/>
       <c r="V34" s="1"/>
       <c r="W34" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="X34" s="1"/>
+        <v>90</v>
+      </c>
+      <c r="X34" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="Y34" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="Z34" s="1" t="s">
+      <c r="Z34" s="1"/>
+      <c r="AA34" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AA34" s="1"/>
-      <c r="AB34" s="1"/>
+      <c r="AB34" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="AC34" s="1" t="s">
         <v>76</v>
       </c>
@@ -4250,25 +4254,23 @@
       <c r="AJ34" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AK34" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="AK34" s="1"/>
       <c r="AL34" s="1"/>
       <c r="AM34" s="1" t="s">
         <v>74</v>
       </c>
       <c r="AN34" s="1"/>
       <c r="AO34" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AP34" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AQ34" s="1" t="s">
         <v>84</v>
       </c>
       <c r="AR34" s="1" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="AS34" s="1"/>
       <c r="AT34" s="1"/>
@@ -4276,9 +4278,7 @@
       <c r="AV34" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AW34" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="AW34" s="1"/>
       <c r="AX34" s="1" t="s">
         <v>54</v>
       </c>
@@ -4291,7 +4291,7 @@
         <v>2</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>69</v>
@@ -4301,61 +4301,59 @@
         <v>79</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
+      <c r="I35" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="J35" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>59</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="O35" s="1" t="s">
         <v>52</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q35" s="1"/>
-      <c r="R35" s="1" t="s">
-        <v>91</v>
-      </c>
+      <c r="R35" s="1"/>
       <c r="S35" s="1" t="s">
         <v>73</v>
       </c>
       <c r="T35" s="1" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
       <c r="W35" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="X35" s="1"/>
+      <c r="X35" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="Y35" s="1" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="Z35" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA35" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AA35" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB35" s="1" t="s">
-        <v>71</v>
-      </c>
+      <c r="AB35" s="1"/>
       <c r="AC35" s="1" t="s">
         <v>76</v>
       </c>
       <c r="AD35" s="1" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="AE35" s="1"/>
       <c r="AF35" s="1"/>
@@ -4365,14 +4363,16 @@
       <c r="AH35" s="1"/>
       <c r="AI35" s="1"/>
       <c r="AJ35" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AK35" s="1"/>
+        <v>77</v>
+      </c>
+      <c r="AK35" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="AL35" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="AM35" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="AN35" s="1"/>
       <c r="AO35" s="1"/>
@@ -4380,10 +4380,10 @@
       <c r="AQ35" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AR35" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AS35" s="1"/>
+      <c r="AR35" s="1"/>
+      <c r="AS35" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="AT35" s="1"/>
       <c r="AU35" s="1"/>
       <c r="AV35" s="1" t="s">
@@ -4407,9 +4407,7 @@
         <v>78</v>
       </c>
       <c r="C36" s="1"/>
-      <c r="D36" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="D36" s="1"/>
       <c r="E36" s="1" t="s">
         <v>79</v>
       </c>
@@ -4420,19 +4418,19 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M36" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K36" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="N36" s="1" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="O36" s="1" t="s">
         <v>52</v>
@@ -4441,9 +4439,11 @@
         <v>56</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="R36" s="1"/>
+        <v>63</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="S36" s="1"/>
       <c r="T36" s="1" t="s">
         <v>65</v>
@@ -4457,46 +4457,46 @@
       <c r="Y36" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="Z36" s="1" t="s">
-        <v>84</v>
-      </c>
+      <c r="Z36" s="1"/>
       <c r="AA36" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AB36" s="1" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="AC36" s="1"/>
-      <c r="AD36" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="AD36" s="1"/>
       <c r="AE36" s="1"/>
       <c r="AF36" s="1"/>
       <c r="AG36" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AH36" s="1"/>
+      <c r="AH36" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="AI36" s="1"/>
-      <c r="AJ36" s="1"/>
-      <c r="AK36" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL36" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="AJ36" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK36" s="1"/>
+      <c r="AL36" s="1"/>
       <c r="AM36" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AN36" s="1"/>
       <c r="AO36" s="1"/>
       <c r="AP36" s="1"/>
-      <c r="AQ36" s="1"/>
+      <c r="AQ36" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="AR36" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AS36" s="1"/>
+      <c r="AS36" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="AT36" s="1" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="AU36" s="1"/>
       <c r="AV36" s="1" t="s">
@@ -4533,47 +4533,47 @@
       <c r="H37" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="I37" s="1"/>
+      <c r="J37" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J37" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="N37" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="O37" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="1" t="s">
-        <v>90</v>
-      </c>
+      <c r="Q37" s="1"/>
       <c r="R37" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="S37" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="T37" s="1"/>
+      <c r="T37" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="U37" s="1"/>
       <c r="V37" s="1"/>
-      <c r="W37" s="1"/>
+      <c r="W37" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="X37" s="1"/>
-      <c r="Y37" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
-      <c r="AA37" s="1"/>
+      <c r="AA37" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="AB37" s="1" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="AC37" s="1" t="s">
         <v>84</v>
@@ -4587,25 +4587,25 @@
         <v>61</v>
       </c>
       <c r="AH37" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="AI37" s="1"/>
-      <c r="AJ37" s="1"/>
-      <c r="AK37" s="1"/>
+      <c r="AJ37" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK37" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="AL37" s="1" t="s">
         <v>58</v>
       </c>
       <c r="AM37" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AN37" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="AN37" s="1"/>
       <c r="AO37" s="1"/>
       <c r="AP37" s="1"/>
-      <c r="AQ37" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="AQ37" s="1"/>
       <c r="AR37" s="1" t="s">
         <v>69</v>
       </c>
@@ -4629,55 +4629,51 @@
       <c r="A38" s="3">
         <v>5</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="B38" s="1"/>
       <c r="C38" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E38" s="1"/>
+      <c r="E38" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="F38" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G38" s="1"/>
-      <c r="H38" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="H38" s="1"/>
       <c r="I38" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J38" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="J38" s="1"/>
       <c r="K38" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="N38" s="1"/>
       <c r="O38" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="P38" s="1" t="s">
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Q38" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="R38" s="1" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="S38" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="T38" s="1"/>
+      <c r="T38" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="U38" s="1"/>
       <c r="V38" s="1"/>
       <c r="W38" s="1" t="s">
@@ -4685,10 +4681,10 @@
       </c>
       <c r="X38" s="1"/>
       <c r="Y38" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Z38" s="1" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="AA38" s="1"/>
       <c r="AB38" s="1" t="s">
@@ -4697,39 +4693,43 @@
       <c r="AC38" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AD38" s="1"/>
+      <c r="AD38" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="AE38" s="1"/>
       <c r="AF38" s="1"/>
-      <c r="AG38" s="1"/>
-      <c r="AH38" s="1" t="s">
+      <c r="AG38" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="AH38" s="1"/>
       <c r="AI38" s="1"/>
       <c r="AJ38" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AK38" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="AK38" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="AL38" s="1" t="s">
         <v>58</v>
       </c>
       <c r="AM38" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN38" s="1"/>
+        <v>76</v>
+      </c>
+      <c r="AN38" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="AO38" s="1"/>
       <c r="AP38" s="1"/>
-      <c r="AQ38" s="1"/>
-      <c r="AR38" s="1" t="s">
-        <v>84</v>
-      </c>
+      <c r="AQ38" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AR38" s="1"/>
       <c r="AS38" s="1"/>
       <c r="AT38" s="1" t="s">
         <v>60</v>
       </c>
       <c r="AU38" s="1"/>
-      <c r="AV38" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="AV38" s="1"/>
       <c r="AW38" s="1" t="s">
         <v>87</v>
       </c>
@@ -4742,108 +4742,108 @@
       <c r="A39" s="3">
         <v>6</v>
       </c>
-      <c r="B39" s="1"/>
+      <c r="B39" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="C39" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>53</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
+      <c r="H39" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="I39" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
+      <c r="J39" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="L39" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="N39" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="O39" s="1"/>
       <c r="P39" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="S39" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="T39" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="T39" s="1"/>
       <c r="U39" s="1"/>
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
-      <c r="X39" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
       <c r="Z39" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA39" s="1" t="s">
-        <v>62</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="AA39" s="1"/>
       <c r="AB39" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC39" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC39" s="1"/>
+      <c r="AD39" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="AD39" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="AE39" s="1"/>
       <c r="AF39" s="1"/>
-      <c r="AG39" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="AG39" s="1"/>
       <c r="AH39" s="1" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="AI39" s="1"/>
-      <c r="AJ39" s="1" t="s">
-        <v>80</v>
-      </c>
+      <c r="AJ39" s="1"/>
       <c r="AK39" s="1" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="AL39" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AM39" s="1" t="s">
-        <v>71</v>
-      </c>
+      <c r="AM39" s="1"/>
       <c r="AN39" s="1" t="s">
         <v>91</v>
       </c>
       <c r="AO39" s="1"/>
       <c r="AP39" s="1"/>
       <c r="AQ39" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AR39" s="1"/>
-      <c r="AS39" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR39" s="1" t="s">
         <v>84</v>
       </c>
+      <c r="AS39" s="1"/>
       <c r="AT39" s="1" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="AU39" s="1"/>
-      <c r="AV39" s="1"/>
-      <c r="AW39" s="1"/>
+      <c r="AV39" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW39" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="AX39" s="1"/>
       <c r="AY39" s="1" t="s">
         <v>78</v>
@@ -4875,42 +4875,40 @@
       </c>
       <c r="J40" s="1"/>
       <c r="K40" s="1" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="L40" s="1" t="s">
         <v>78</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="1" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="R40" s="1" t="s">
         <v>57</v>
       </c>
       <c r="S40" s="1"/>
-      <c r="T40" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="T40" s="1"/>
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
-      <c r="X40" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y40" s="1"/>
-      <c r="Z40" s="1"/>
-      <c r="AA40" s="1" t="s">
+      <c r="X40" s="1"/>
+      <c r="Y40" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z40" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="AA40" s="1"/>
       <c r="AB40" s="1" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="AC40" s="1" t="s">
         <v>68</v>
@@ -4930,12 +4928,14 @@
         <v>69</v>
       </c>
       <c r="AJ40" s="1" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="AK40" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL40" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="AL40" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="AM40" s="1"/>
       <c r="AN40" s="1" t="s">
         <v>91</v>
@@ -4945,16 +4945,16 @@
       <c r="AQ40" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AR40" s="1"/>
-      <c r="AS40" s="1" t="s">
+      <c r="AR40" s="1" t="s">
         <v>84</v>
       </c>
+      <c r="AS40" s="1"/>
       <c r="AT40" s="1" t="s">
         <v>79</v>
       </c>
       <c r="AU40" s="1"/>
       <c r="AV40" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AW40" s="1"/>
       <c r="AX40" s="1" t="s">

--- a/SchoolManager/bin/Release/netcoreapp3.1/programa1.xlsx
+++ b/SchoolManager/bin/Release/netcoreapp3.1/programa1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
   <si>
     <t>Клисарова</t>
   </si>
@@ -178,123 +178,132 @@
     <t>0</t>
   </si>
   <si>
+    <t>8г</t>
+  </si>
+  <si>
+    <t>8в</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>8д</t>
+  </si>
+  <si>
+    <t>10в</t>
+  </si>
+  <si>
+    <t>9д</t>
+  </si>
+  <si>
     <t>6 клас</t>
   </si>
   <si>
-    <t>8г</t>
-  </si>
-  <si>
-    <t>8в</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>8д</t>
+    <t>8б</t>
+  </si>
+  <si>
+    <t>10д</t>
+  </si>
+  <si>
+    <t>12а</t>
+  </si>
+  <si>
+    <t>10а</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>11д</t>
+  </si>
+  <si>
+    <t>11г</t>
+  </si>
+  <si>
+    <t>12в</t>
+  </si>
+  <si>
+    <t>12д</t>
+  </si>
+  <si>
+    <t>12б</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>11б</t>
+  </si>
+  <si>
+    <t>10б</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>10г</t>
+  </si>
+  <si>
+    <t>7 клас</t>
+  </si>
+  <si>
+    <t>7</t>
   </si>
   <si>
     <t>9а</t>
   </si>
   <si>
-    <t>10в</t>
-  </si>
-  <si>
-    <t>10б</t>
+    <t>11а</t>
+  </si>
+  <si>
+    <t>39</t>
   </si>
   <si>
     <t>9в</t>
   </si>
   <si>
-    <t>8б</t>
-  </si>
-  <si>
-    <t>12б</t>
-  </si>
-  <si>
-    <t>10а</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>11д</t>
-  </si>
-  <si>
-    <t>11г</t>
-  </si>
-  <si>
-    <t>12в</t>
-  </si>
-  <si>
-    <t>12д</t>
-  </si>
-  <si>
-    <t>12а</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>11б</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>10г</t>
-  </si>
-  <si>
-    <t>7 клас</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>10д</t>
-  </si>
-  <si>
-    <t>9д</t>
-  </si>
-  <si>
-    <t>11а</t>
-  </si>
-  <si>
     <t>5 клас</t>
   </si>
   <si>
+    <t>29</t>
+  </si>
+  <si>
     <t>9г</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>12г</t>
+  </si>
+  <si>
+    <t>8а</t>
+  </si>
+  <si>
     <t>18</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>12г</t>
+    <t>9б</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>8а</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>9б</t>
-  </si>
-  <si>
     <t>11в</t>
   </si>
   <si>
@@ -304,94 +313,94 @@
     <t>8</t>
   </si>
   <si>
-    <t>29</t>
-  </si>
-  <si>
     <t>9</t>
   </si>
   <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>16</t>
   </si>
   <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
     <t>30</t>
   </si>
   <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>15</t>
+    <t>21</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>40</t>
   </si>
   <si>
     <t>41</t>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>38</t>
+    <t>46</t>
   </si>
   <si>
     <t>36</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>40</t>
   </si>
 </sst>
 </file>
@@ -976,14 +985,14 @@
         <v>1</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
         <v>54</v>
       </c>
@@ -993,24 +1002,24 @@
       <c r="I2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="Q2" s="1"/>
       <c r="R2" s="1" t="s">
         <v>62</v>
       </c>
@@ -1051,33 +1060,33 @@
       <c r="AG2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AH2" s="1"/>
+      <c r="AH2" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="AI2" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ2" s="1"/>
-      <c r="AK2" s="1"/>
-      <c r="AL2" s="1" t="s">
-        <v>73</v>
-      </c>
+      <c r="AK2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL2" s="1"/>
       <c r="AM2" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AN2" s="1"/>
       <c r="AO2" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
         <v>76</v>
       </c>
+      <c r="AQ2" s="1"/>
       <c r="AR2" s="1" t="s">
         <v>77</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AT2" s="1"/>
       <c r="AU2" s="1" t="s">
@@ -1089,53 +1098,57 @@
       <c r="AW2" s="1"/>
       <c r="AX2" s="1"/>
       <c r="AY2" s="1"/>
-      <c r="AZ2" s="1"/>
+      <c r="AZ2" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="BA2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="C3" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="H3" s="1" t="s">
         <v>55</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="O3" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="Q3" s="1"/>
       <c r="R3" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="S3" s="1"/>
+        <v>74</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="T3" s="1"/>
       <c r="U3" s="1" t="s">
         <v>64</v>
@@ -1144,20 +1157,18 @@
         <v>64</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>66</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="AA3" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
@@ -1168,49 +1179,51 @@
         <v>70</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="AH3" s="1"/>
       <c r="AI3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AJ3" s="1"/>
-      <c r="AK3" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="AJ3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK3" s="1"/>
       <c r="AL3" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="AM3" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AN3" s="1"/>
       <c r="AO3" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AP3" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AQ3" s="1"/>
-      <c r="AR3" s="1"/>
+        <v>76</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="AS3" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AT3" s="1"/>
       <c r="AU3" s="1" t="s">
         <v>55</v>
       </c>
       <c r="AV3" s="1" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="AW3" s="1"/>
-      <c r="AX3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AY3" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AZ3" s="1"/>
+      <c r="AX3" s="1"/>
+      <c r="AY3" s="1"/>
+      <c r="AZ3" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="BA3" s="1"/>
     </row>
     <row r="4">
@@ -1218,121 +1231,121 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>57</v>
-      </c>
+      <c r="K4" s="1"/>
       <c r="L4" s="1" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
+        <v>57</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="S4" s="1"/>
+        <v>69</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="T4" s="1"/>
       <c r="U4" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="W4" s="1"/>
+        <v>84</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="X4" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
       <c r="AB4" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="AC4" s="1"/>
-      <c r="AD4" s="1" t="s">
-        <v>84</v>
-      </c>
+      <c r="AD4" s="1"/>
       <c r="AE4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH4" s="1"/>
+      <c r="AI4" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="AF4" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AH4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI4" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="AJ4" s="1"/>
-      <c r="AK4" s="1" t="s">
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AL4" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="AM4" s="1"/>
-      <c r="AN4" s="1"/>
+      <c r="AN4" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="AO4" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AP4" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AQ4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AR4" s="1"/>
+        <v>74</v>
+      </c>
+      <c r="AR4" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="AS4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AT4" s="1"/>
+        <v>85</v>
+      </c>
+      <c r="AT4" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="AU4" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AV4" s="1" t="s">
-        <v>66</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="AV4" s="1"/>
       <c r="AW4" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AX4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AY4" s="1" t="s">
-        <v>78</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="AX4" s="1"/>
+      <c r="AY4" s="1"/>
       <c r="AZ4" s="1"/>
       <c r="BA4" s="1"/>
     </row>
@@ -1340,117 +1353,119 @@
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O5" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="L5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
+      <c r="Q5" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="R5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="W5" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="S5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="W5" s="1"/>
       <c r="X5" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
       <c r="AB5" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="AD5" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AE5" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AF5" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AG5" s="1"/>
+        <v>86</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="AH5" s="1" t="s">
         <v>63</v>
       </c>
       <c r="AI5" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AJ5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ5" s="1"/>
+      <c r="AK5" s="1"/>
+      <c r="AL5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM5" s="1"/>
+      <c r="AN5" s="1"/>
+      <c r="AO5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AP5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AQ5" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AK5" s="1"/>
-      <c r="AL5" s="1"/>
-      <c r="AM5" s="1"/>
-      <c r="AN5" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AO5" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AP5" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AQ5" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="AR5" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AS5" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AT5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AU5" s="1"/>
+        <v>85</v>
+      </c>
+      <c r="AT5" s="1"/>
+      <c r="AU5" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="AV5" s="1"/>
       <c r="AW5" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AX5" s="1"/>
       <c r="AY5" s="1"/>
@@ -1463,44 +1478,42 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I6" s="1"/>
+        <v>90</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="L6" s="1"/>
       <c r="M6" s="1" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="O6" s="1"/>
-      <c r="P6" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="P6" s="1"/>
       <c r="Q6" s="1" t="s">
         <v>63</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="S6" s="1"/>
       <c r="T6" s="1" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>51</v>
@@ -1510,69 +1523,73 @@
       </c>
       <c r="W6" s="1"/>
       <c r="X6" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC6" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="AA6" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB6" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC6" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="AD6" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="AF6" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AG6" s="1"/>
-      <c r="AH6" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="AH6" s="1"/>
       <c r="AI6" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AJ6" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AK6" s="1"/>
-      <c r="AL6" s="1"/>
-      <c r="AM6" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AN6" s="1" t="s">
-        <v>66</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="AK6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM6" s="1"/>
+      <c r="AN6" s="1"/>
       <c r="AO6" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AP6" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AQ6" s="1"/>
       <c r="AR6" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="AS6" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AT6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU6" s="1"/>
-      <c r="AV6" s="1"/>
+        <v>57</v>
+      </c>
+      <c r="AU6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AV6" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="AW6" s="1"/>
-      <c r="AX6" s="1"/>
-      <c r="AY6" s="1"/>
+      <c r="AX6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AY6" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="AZ6" s="1"/>
       <c r="BA6" s="1"/>
     </row>
@@ -1580,44 +1597,44 @@
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="D7" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I7" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
+      <c r="K7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="M7" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="1" t="s">
-        <v>73</v>
-      </c>
+      <c r="O7" s="1"/>
       <c r="P7" s="1"/>
-      <c r="Q7" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="Q7" s="1"/>
       <c r="R7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>51</v>
@@ -1626,70 +1643,70 @@
         <v>51</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="AA7" s="1"/>
       <c r="AB7" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC7" s="1" t="s">
-        <v>61</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="AC7" s="1"/>
       <c r="AD7" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
       <c r="AH7" s="1"/>
       <c r="AI7" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AJ7" s="1" t="s">
         <v>63</v>
       </c>
       <c r="AK7" s="1" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="AL7" s="1"/>
       <c r="AM7" s="1"/>
       <c r="AN7" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AO7" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AP7" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AQ7" s="1"/>
-      <c r="AR7" s="1"/>
+      <c r="AR7" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="AS7" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AT7" s="1" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="AU7" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AV7" s="1"/>
-      <c r="AW7" s="1" t="s">
-        <v>87</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="AV7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AW7" s="1"/>
       <c r="AX7" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AY7" s="1"/>
       <c r="AZ7" s="1"/>
@@ -1717,10 +1734,14 @@
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
+      <c r="T8" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
+      <c r="W8" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
@@ -1757,117 +1778,117 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" s="1"/>
+        <v>75</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="E10" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
+      <c r="L10" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O10" s="1"/>
+        <v>83</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="P10" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>63</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="W10" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="X10" s="1"/>
+      <c r="X10" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="Y10" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="Z10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB10" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AA10" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB10" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC10" s="1"/>
-      <c r="AD10" s="1"/>
+      <c r="AC10" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD10" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="AE10" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AF10" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AG10" s="1" t="s">
-        <v>61</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="1"/>
       <c r="AH10" s="1"/>
       <c r="AI10" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AJ10" s="1"/>
-      <c r="AK10" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AL10" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="AK10" s="1"/>
+      <c r="AL10" s="1"/>
       <c r="AM10" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AN10" s="1"/>
       <c r="AO10" s="1" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AP10" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AQ10" s="1"/>
+        <v>95</v>
+      </c>
+      <c r="AQ10" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="AR10" s="1" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="AS10" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AT10" s="1"/>
       <c r="AU10" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="AV10" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AW10" s="1" t="s">
-        <v>87</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="AW10" s="1"/>
       <c r="AX10" s="1"/>
       <c r="AY10" s="1"/>
       <c r="AZ10" s="1"/>
@@ -1878,118 +1899,118 @@
         <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" s="1"/>
+        <v>81</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>94</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="1" t="s">
-        <v>80</v>
-      </c>
+      <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1" t="s">
-        <v>63</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="W11" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="X11" s="1"/>
+      <c r="X11" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="Y11" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC11" s="1"/>
-      <c r="AD11" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="AC11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD11" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="AE11" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="AF11" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="AG11" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AH11" s="1"/>
       <c r="AI11" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AJ11" s="1"/>
       <c r="AK11" s="1"/>
-      <c r="AL11" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="AL11" s="1"/>
       <c r="AM11" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AN11" s="1"/>
       <c r="AO11" s="1" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AP11" s="1" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AQ11" s="1"/>
       <c r="AR11" s="1" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="AS11" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AT11" s="1"/>
-      <c r="AU11" s="1" t="s">
-        <v>94</v>
-      </c>
+      <c r="AU11" s="1"/>
       <c r="AV11" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AW11" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AX11" s="1"/>
+        <v>89</v>
+      </c>
+      <c r="AX11" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="AY11" s="1"/>
       <c r="AZ11" s="1"/>
       <c r="BA11" s="1"/>
@@ -1998,53 +2019,47 @@
       <c r="A12" s="3">
         <v>3</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1" t="s">
-        <v>56</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="M12" s="1"/>
+        <v>59</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="N12" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>53</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="P12" s="1"/>
       <c r="Q12" s="1" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="T12" s="1"/>
       <c r="U12" s="1" t="s">
@@ -2053,64 +2068,68 @@
       <c r="V12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="W12" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="X12" s="1" t="s">
-        <v>98</v>
-      </c>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
       <c r="Y12" s="1" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="Z12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC12" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AA12" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB12" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
       <c r="AE12" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AF12" s="1"/>
+        <v>100</v>
+      </c>
+      <c r="AF12" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="AG12" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AH12" s="1"/>
+        <v>60</v>
+      </c>
+      <c r="AH12" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="AI12" s="1" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="AJ12" s="1"/>
-      <c r="AK12" s="1"/>
+      <c r="AK12" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="AL12" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AM12" s="1"/>
       <c r="AN12" s="1"/>
       <c r="AO12" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AP12" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AQ12" s="1"/>
-      <c r="AR12" s="1" t="s">
-        <v>84</v>
-      </c>
+      <c r="AR12" s="1"/>
       <c r="AS12" s="1"/>
       <c r="AT12" s="1"/>
-      <c r="AU12" s="1" t="s">
-        <v>99</v>
-      </c>
+      <c r="AU12" s="1"/>
       <c r="AV12" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AW12" s="1"/>
-      <c r="AX12" s="1"/>
+        <v>94</v>
+      </c>
+      <c r="AW12" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AX12" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="AY12" s="1"/>
       <c r="AZ12" s="1"/>
       <c r="BA12" s="1"/>
@@ -2120,118 +2139,116 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I13" s="1"/>
+        <v>81</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="J13" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="K13" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>53</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="P13" s="1"/>
       <c r="Q13" s="1" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="T13" s="1"/>
+        <v>72</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="U13" s="1" t="s">
         <v>51</v>
       </c>
       <c r="V13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="W13" s="1" t="s">
-        <v>78</v>
-      </c>
+      <c r="W13" s="1"/>
       <c r="X13" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y13" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="Z13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AA13" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB13" s="1"/>
-      <c r="AC13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD13" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="AE13" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF13" s="1"/>
-      <c r="AG13" s="1"/>
+      <c r="AG13" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="AH13" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI13" s="1" t="s">
-        <v>98</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="AI13" s="1"/>
       <c r="AJ13" s="1"/>
       <c r="AK13" s="1"/>
       <c r="AL13" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AM13" s="1"/>
       <c r="AN13" s="1"/>
       <c r="AO13" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AP13" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AQ13" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AR13" s="1" t="s">
-        <v>84</v>
-      </c>
+      <c r="AQ13" s="1"/>
+      <c r="AR13" s="1"/>
       <c r="AS13" s="1"/>
-      <c r="AT13" s="1"/>
+      <c r="AT13" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="AU13" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AV13" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AW13" s="1"/>
-      <c r="AX13" s="1"/>
+        <v>94</v>
+      </c>
+      <c r="AW13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AX13" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="AY13" s="1"/>
       <c r="AZ13" s="1"/>
       <c r="BA13" s="1"/>
@@ -2240,45 +2257,45 @@
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>61</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1" t="s">
+      <c r="I14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K14" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="L14" s="1" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1" t="s">
-        <v>63</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="R14" s="1" t="s">
         <v>80</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="T14" s="1"/>
       <c r="U14" s="1" t="s">
@@ -2287,71 +2304,71 @@
       <c r="V14" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="W14" s="1" t="s">
-        <v>90</v>
-      </c>
+      <c r="W14" s="1"/>
       <c r="X14" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z14" s="1"/>
-      <c r="AA14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="AB14" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="AC14" s="1"/>
       <c r="AD14" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AE14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH14" s="1"/>
+      <c r="AI14" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AF14" s="1"/>
-      <c r="AG14" s="1"/>
-      <c r="AH14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI14" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AJ14" s="1"/>
-      <c r="AK14" s="1"/>
-      <c r="AL14" s="1" t="s">
-        <v>73</v>
-      </c>
+      <c r="AJ14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL14" s="1"/>
       <c r="AM14" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AN14" s="1"/>
+      <c r="AN14" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="AO14" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="AP14" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="AQ14" s="1"/>
-      <c r="AR14" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="AR14" s="1"/>
       <c r="AS14" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AT14" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AU14" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AV14" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AW14" s="1"/>
+        <v>103</v>
+      </c>
+      <c r="AV14" s="1"/>
+      <c r="AW14" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="AX14" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AY14" s="1"/>
       <c r="AZ14" s="1"/>
@@ -2362,47 +2379,47 @@
         <v>6</v>
       </c>
       <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="D15" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="L15" s="1" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="M15" s="1"/>
-      <c r="N15" s="1" t="s">
-        <v>80</v>
-      </c>
+      <c r="N15" s="1"/>
       <c r="O15" s="1"/>
-      <c r="P15" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="P15" s="1"/>
       <c r="Q15" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="U15" s="1" t="s">
         <v>64</v>
@@ -2410,71 +2427,71 @@
       <c r="V15" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="W15" s="1" t="s">
-        <v>90</v>
-      </c>
+      <c r="W15" s="1"/>
       <c r="X15" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Y15" s="1"/>
       <c r="Z15" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AA15" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="AA15" s="1"/>
       <c r="AB15" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC15" s="1"/>
+        <v>88</v>
+      </c>
+      <c r="AC15" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="AD15" s="1" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="AE15" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AF15" s="1"/>
       <c r="AG15" s="1"/>
       <c r="AH15" s="1" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="AI15" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AJ15" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AK15" s="1"/>
       <c r="AL15" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM15" s="1" t="s">
         <v>71</v>
       </c>
       <c r="AN15" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AO15" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="AP15" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AQ15" s="1"/>
+        <v>87</v>
+      </c>
+      <c r="AQ15" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="AR15" s="1"/>
       <c r="AS15" s="1"/>
       <c r="AT15" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="AU15" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AV15" s="1" t="s">
-        <v>65</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="AV15" s="1"/>
       <c r="AW15" s="1"/>
       <c r="AX15" s="1"/>
-      <c r="AY15" s="1"/>
+      <c r="AY15" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="AZ15" s="1"/>
       <c r="BA15" s="1"/>
     </row>
@@ -2496,9 +2513,7 @@
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
-      <c r="P16" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
@@ -2508,11 +2523,11 @@
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
-      <c r="Z16" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
-      <c r="AB16" s="1"/>
+      <c r="AB16" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="AC16" s="1"/>
       <c r="AD16" s="1"/>
       <c r="AE16" s="1"/>
@@ -2522,7 +2537,9 @@
       <c r="AI16" s="1"/>
       <c r="AJ16" s="1"/>
       <c r="AK16" s="1"/>
-      <c r="AL16" s="1"/>
+      <c r="AL16" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="AM16" s="1"/>
       <c r="AN16" s="1"/>
       <c r="AO16" s="1"/>
@@ -2543,76 +2560,72 @@
       <c r="A18" s="3">
         <v>1</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="D18" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J18" s="1"/>
+      <c r="J18" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="K18" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="L18" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q18" s="1"/>
+        <v>89</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="R18" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="S18" s="1"/>
+      <c r="S18" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="T18" s="1"/>
       <c r="U18" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="X18" s="1" t="s">
-        <v>106</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="X18" s="1"/>
       <c r="Y18" s="1" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="Z18" s="1" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="AA18" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB18" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="AC18" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AD18" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="AE18" s="1" t="s">
         <v>107</v>
@@ -2623,38 +2636,40 @@
       </c>
       <c r="AH18" s="1"/>
       <c r="AI18" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AJ18" s="1"/>
+        <v>108</v>
+      </c>
+      <c r="AJ18" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="AK18" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AL18" s="1" t="s">
-        <v>76</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="AL18" s="1"/>
       <c r="AM18" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AN18" s="1"/>
       <c r="AO18" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AP18" s="1"/>
       <c r="AQ18" s="1"/>
       <c r="AR18" s="1" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="AS18" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AT18" s="1"/>
       <c r="AU18" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="AV18" s="1"/>
+      <c r="AV18" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="AW18" s="1"/>
       <c r="AX18" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AY18" s="1"/>
       <c r="AZ18" s="1"/>
@@ -2665,119 +2680,115 @@
         <v>2</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F19" s="1"/>
+        <v>77</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>56</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>84</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O19" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="O19" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="P19" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
+      <c r="S19" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="T19" s="1" t="s">
         <v>65</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="W19" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA19" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB19" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="X19" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y19" s="1"/>
-      <c r="Z19" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA19" s="1"/>
-      <c r="AB19" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC19" s="1" t="s">
-        <v>106</v>
-      </c>
+      <c r="AC19" s="1"/>
       <c r="AD19" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="AE19" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF19" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AG19" s="1" t="s">
-        <v>71</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="AG19" s="1"/>
       <c r="AH19" s="1"/>
       <c r="AI19" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AJ19" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="AK19" s="1"/>
       <c r="AL19" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AM19" s="1" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="AN19" s="1"/>
-      <c r="AO19" s="1" t="s">
-        <v>86</v>
-      </c>
+      <c r="AO19" s="1"/>
       <c r="AP19" s="1" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="AQ19" s="1"/>
       <c r="AR19" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AS19" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AT19" s="1"/>
-      <c r="AU19" s="1" t="s">
-        <v>108</v>
-      </c>
+      <c r="AU19" s="1"/>
       <c r="AV19" s="1"/>
       <c r="AW19" s="1"/>
       <c r="AX19" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AY19" s="1"/>
       <c r="AZ19" s="1"/>
@@ -2787,118 +2798,118 @@
       <c r="A20" s="3">
         <v>3</v>
       </c>
-      <c r="B20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="C20" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>53</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>56</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>59</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="K20" s="1"/>
       <c r="L20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T20" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="M20" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="R20" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="T20" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="U20" s="1" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="W20" s="1"/>
       <c r="X20" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Y20" s="1" t="s">
         <v>80</v>
       </c>
       <c r="Z20" s="1"/>
-      <c r="AA20" s="1"/>
+      <c r="AA20" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="AB20" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AC20" s="1"/>
       <c r="AD20" s="1" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="AE20" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF20" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AG20" s="1"/>
       <c r="AH20" s="1"/>
       <c r="AI20" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AJ20" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AJ20" s="1"/>
+      <c r="AK20" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AK20" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AL20" s="1"/>
-      <c r="AM20" s="1"/>
+      <c r="AL20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM20" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="AN20" s="1"/>
       <c r="AO20" s="1"/>
       <c r="AP20" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AQ20" s="1"/>
-      <c r="AR20" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="AR20" s="1"/>
       <c r="AS20" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AT20" s="1"/>
       <c r="AU20" s="1"/>
       <c r="AV20" s="1"/>
       <c r="AW20" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AX20" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AY20" s="1"/>
       <c r="AZ20" s="1"/>
@@ -2910,113 +2921,117 @@
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J21" s="1"/>
+      <c r="J21" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="K21" s="1" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M21" s="1"/>
-      <c r="N21" s="1" t="s">
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="O21" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="R21" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="S21" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="T21" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
-      <c r="W21" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="X21" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y21" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
       <c r="AB21" s="1" t="s">
         <v>65</v>
       </c>
       <c r="AC21" s="1"/>
       <c r="AD21" s="1" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="AE21" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF21" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI21" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="AF21" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AG21" s="1" t="s">
+      <c r="AJ21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK21" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL21" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AH21" s="1"/>
-      <c r="AI21" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AJ21" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK21" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AL21" s="1"/>
       <c r="AM21" s="1"/>
       <c r="AN21" s="1"/>
-      <c r="AO21" s="1"/>
+      <c r="AO21" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="AP21" s="1" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="AQ21" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AR21" s="1" t="s">
-        <v>69</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="AR21" s="1"/>
       <c r="AS21" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AT21" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AU21" s="1"/>
+        <v>112</v>
+      </c>
+      <c r="AT21" s="1"/>
+      <c r="AU21" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="AV21" s="1"/>
       <c r="AW21" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AX21" s="1"/>
       <c r="AY21" s="1"/>
@@ -3029,113 +3044,113 @@
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F22" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="G22" s="1"/>
-      <c r="H22" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="M22" s="1"/>
       <c r="N22" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
+      <c r="P22" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="Q22" s="1" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="S22" s="1"/>
       <c r="T22" s="1" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="W22" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="X22" s="1" t="s">
-        <v>114</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="X22" s="1"/>
       <c r="Y22" s="1" t="s">
         <v>65</v>
       </c>
       <c r="Z22" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA22" s="1"/>
+        <v>67</v>
+      </c>
+      <c r="AA22" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="AB22" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AC22" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="AC22" s="1"/>
       <c r="AD22" s="1" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="AE22" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AF22" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AG22" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AH22" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI22" s="1" t="s">
-        <v>114</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="AH22" s="1"/>
+      <c r="AI22" s="1"/>
       <c r="AJ22" s="1" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AK22" s="1" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="AL22" s="1"/>
-      <c r="AM22" s="1"/>
+      <c r="AM22" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="AN22" s="1"/>
       <c r="AO22" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AP22" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AQ22" s="1"/>
-      <c r="AR22" s="1"/>
-      <c r="AS22" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AT22" s="1"/>
+      <c r="AR22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS22" s="1"/>
+      <c r="AT22" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="AU22" s="1"/>
       <c r="AV22" s="1"/>
       <c r="AW22" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AX22" s="1"/>
       <c r="AY22" s="1"/>
@@ -3146,89 +3161,85 @@
       <c r="A23" s="3">
         <v>6</v>
       </c>
-      <c r="B23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="C23" s="1" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
+        <v>59</v>
+      </c>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="M23" s="1"/>
-      <c r="N23" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="N23" s="1"/>
       <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
+      <c r="P23" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="Q23" s="1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="S23" s="1"/>
       <c r="T23" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="U23" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="V23" s="1" t="s">
-        <v>113</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
       <c r="W23" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="X23" s="1" t="s">
-        <v>114</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="X23" s="1"/>
       <c r="Y23" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z23" s="1" t="s">
-        <v>84</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="Z23" s="1"/>
       <c r="AA23" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB23" s="1"/>
-      <c r="AC23" s="1"/>
+        <v>69</v>
+      </c>
+      <c r="AB23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC23" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="AD23" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AE23" s="1"/>
       <c r="AF23" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="AG23" s="1"/>
-      <c r="AH23" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI23" s="1" t="s">
-        <v>114</v>
-      </c>
+      <c r="AG23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH23" s="1"/>
+      <c r="AI23" s="1"/>
       <c r="AJ23" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="AK23" s="1" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="AL23" s="1"/>
       <c r="AM23" s="1"/>
@@ -3240,22 +3251,24 @@
         <v>116</v>
       </c>
       <c r="AQ23" s="1"/>
-      <c r="AR23" s="1"/>
+      <c r="AR23" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="AS23" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AT23" s="1"/>
       <c r="AU23" s="1" t="s">
         <v>115</v>
       </c>
       <c r="AV23" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="AW23" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AX23" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AY23" s="1"/>
       <c r="AZ23" s="1"/>
@@ -3266,71 +3279,77 @@
         <v>7</v>
       </c>
       <c r="B24" s="1"/>
-      <c r="C24" s="1" t="s">
-        <v>71</v>
-      </c>
+      <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>53</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
+      <c r="H24" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
+      <c r="K24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="S24" s="1"/>
       <c r="T24" s="1" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
-      <c r="W24" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="W24" s="1"/>
       <c r="X24" s="1"/>
       <c r="Y24" s="1" t="s">
         <v>66</v>
       </c>
       <c r="Z24" s="1" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="AA24" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB24" s="1"/>
-      <c r="AC24" s="1"/>
+        <v>69</v>
+      </c>
+      <c r="AB24" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC24" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="AD24" s="1"/>
       <c r="AE24" s="1"/>
       <c r="AF24" s="1" t="s">
         <v>117</v>
       </c>
       <c r="AG24" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AH24" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AI24" s="1"/>
       <c r="AJ24" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AK24" s="1" t="s">
-        <v>73</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="AK24" s="1"/>
       <c r="AL24" s="1"/>
       <c r="AM24" s="1"/>
       <c r="AN24" s="1"/>
@@ -3340,24 +3359,20 @@
       <c r="AP24" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="AQ24" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="AQ24" s="1"/>
       <c r="AR24" s="1"/>
-      <c r="AS24" s="1"/>
+      <c r="AS24" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="AT24" s="1" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="AU24" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="AV24" s="1" t="s">
-        <v>78</v>
-      </c>
+      <c r="AV24" s="1"/>
       <c r="AW24" s="1"/>
-      <c r="AX24" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="AX24" s="1"/>
       <c r="AY24" s="1"/>
       <c r="AZ24" s="1"/>
       <c r="BA24" s="1"/>
@@ -3367,78 +3382,80 @@
         <v>1</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>68</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>80</v>
       </c>
       <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
+      <c r="G26" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="H26" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J26" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="J26" s="1"/>
       <c r="K26" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="M26" s="1"/>
+        <v>62</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="N26" s="1" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q26" s="1" t="s">
-        <v>58</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
+      <c r="S26" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="T26" s="1"/>
       <c r="U26" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="V26" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
       <c r="Y26" s="1" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="Z26" s="1" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="AA26" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB26" s="1"/>
+        <v>91</v>
+      </c>
+      <c r="AB26" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="AC26" s="1"/>
       <c r="AD26" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AE26" s="1" t="s">
         <v>118</v>
       </c>
       <c r="AF26" s="1"/>
       <c r="AG26" s="1" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="AH26" s="1"/>
       <c r="AI26" s="1" t="s">
@@ -3446,24 +3463,24 @@
       </c>
       <c r="AJ26" s="1"/>
       <c r="AK26" s="1" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="AL26" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="AM26" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AN26" s="1"/>
       <c r="AO26" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AP26" s="1"/>
       <c r="AQ26" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AR26" s="1" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="AS26" s="1" t="s">
         <v>119</v>
@@ -3473,11 +3490,9 @@
         <v>118</v>
       </c>
       <c r="AV26" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AW26" s="1" t="s">
-        <v>87</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="AW26" s="1"/>
       <c r="AX26" s="1"/>
       <c r="AY26" s="1"/>
       <c r="AZ26" s="1"/>
@@ -3488,86 +3503,90 @@
         <v>2</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+      <c r="G27" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J27" s="1" t="s">
-        <v>90</v>
-      </c>
+      <c r="J27" s="1"/>
       <c r="K27" s="1" t="s">
         <v>68</v>
       </c>
       <c r="L27" s="1"/>
-      <c r="M27" s="1" t="s">
-        <v>78</v>
-      </c>
+      <c r="M27" s="1"/>
       <c r="N27" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="O27" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="O27" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="P27" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="R27" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="S27" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
       <c r="T27" s="1" t="s">
         <v>65</v>
       </c>
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
-      <c r="W27" s="1"/>
+      <c r="W27" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="X27" s="1"/>
-      <c r="Y27" s="1"/>
-      <c r="Z27" s="1"/>
-      <c r="AA27" s="1"/>
-      <c r="AB27" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="Y27" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z27" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA27" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB27" s="1"/>
       <c r="AC27" s="1"/>
       <c r="AD27" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="AE27" s="1"/>
       <c r="AF27" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="AG27" s="1"/>
+      <c r="AG27" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="AH27" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="AI27" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="AJ27" s="1"/>
+      <c r="AJ27" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="AK27" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AL27" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="AM27" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="AN27" s="1"/>
       <c r="AO27" s="1" t="s">
@@ -3576,27 +3595,23 @@
       <c r="AP27" s="1"/>
       <c r="AQ27" s="1"/>
       <c r="AR27" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AS27" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="AT27" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="AT27" s="1"/>
       <c r="AU27" s="1"/>
       <c r="AV27" s="1" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="AW27" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AX27" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AY27" s="1" t="s">
-        <v>71</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="AY27" s="1"/>
       <c r="AZ27" s="1"/>
       <c r="BA27" s="1"/>
     </row>
@@ -3605,111 +3620,113 @@
         <v>3</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>78</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="O28" s="1"/>
       <c r="P28" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Q28" s="1"/>
+      <c r="Q28" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="R28" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="S28" s="1"/>
+        <v>69</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="T28" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
-      <c r="X28" s="1"/>
+      <c r="X28" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="Y28" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z28" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA28" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB28" s="1" t="s">
-        <v>91</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="1"/>
       <c r="AC28" s="1"/>
       <c r="AD28" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="AE28" s="1"/>
       <c r="AF28" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH28" s="1"/>
+      <c r="AI28" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="AG28" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AH28" s="1"/>
-      <c r="AI28" s="1"/>
       <c r="AJ28" s="1" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="AK28" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL28" s="1"/>
+      <c r="AM28" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AN28" s="1"/>
+      <c r="AO28" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AP28" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AQ28" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR28" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="AL28" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AM28" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AN28" s="1"/>
-      <c r="AO28" s="1"/>
-      <c r="AP28" s="1"/>
-      <c r="AQ28" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AR28" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="AS28" s="1"/>
       <c r="AT28" s="1"/>
       <c r="AU28" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AV28" s="1"/>
+        <v>122</v>
+      </c>
+      <c r="AV28" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="AW28" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AX28" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AY28" s="1"/>
       <c r="AZ28" s="1"/>
@@ -3721,86 +3738,86 @@
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M29" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1" t="s">
+      <c r="N29" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="R29" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q29" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="R29" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="S29" s="1"/>
       <c r="T29" s="1" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
-      <c r="X29" s="1"/>
-      <c r="Y29" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="X29" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y29" s="1"/>
       <c r="Z29" s="1" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="AA29" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="AB29" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC29" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD29" s="1" t="s">
-        <v>84</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="AC29" s="1"/>
+      <c r="AD29" s="1"/>
       <c r="AE29" s="1"/>
       <c r="AF29" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AG29" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AH29" s="1"/>
-      <c r="AI29" s="1"/>
+        <v>60</v>
+      </c>
+      <c r="AH29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI29" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="AJ29" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK29" s="1" t="s">
-        <v>63</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="AK29" s="1"/>
       <c r="AL29" s="1"/>
-      <c r="AM29" s="1" t="s">
-        <v>71</v>
-      </c>
+      <c r="AM29" s="1"/>
       <c r="AN29" s="1"/>
       <c r="AO29" s="1" t="s">
         <v>116</v>
@@ -3810,23 +3827,23 @@
       </c>
       <c r="AQ29" s="1"/>
       <c r="AR29" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="AS29" s="1"/>
       <c r="AT29" s="1" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="AU29" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AV29" s="1" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="AW29" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AX29" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AY29" s="1"/>
       <c r="AZ29" s="1"/>
@@ -3837,113 +3854,111 @@
         <v>5</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C30" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="D30" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F30" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="G30" s="1"/>
-      <c r="H30" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="H30" s="1"/>
       <c r="I30" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J30" s="1"/>
+      <c r="J30" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="K30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="L30" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="T30" s="1" t="s">
-        <v>90</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="T30" s="1"/>
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
-      <c r="X30" s="1"/>
+      <c r="X30" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="Y30" s="1" t="s">
         <v>80</v>
       </c>
       <c r="Z30" s="1" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="AA30" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AB30" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC30" s="1" t="s">
-        <v>84</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="AC30" s="1"/>
       <c r="AD30" s="1"/>
       <c r="AE30" s="1"/>
-      <c r="AF30" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AG30" s="1" t="s">
+      <c r="AF30" s="1"/>
+      <c r="AG30" s="1"/>
+      <c r="AH30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI30" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ30" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK30" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL30" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AH30" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AI30" s="1"/>
-      <c r="AJ30" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AK30" s="1"/>
-      <c r="AL30" s="1"/>
-      <c r="AM30" s="1" t="s">
-        <v>71</v>
-      </c>
+      <c r="AM30" s="1"/>
       <c r="AN30" s="1"/>
-      <c r="AO30" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="AP30" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="AQ30" s="1"/>
+      <c r="AO30" s="1"/>
+      <c r="AP30" s="1"/>
+      <c r="AQ30" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="AR30" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="AS30" s="1"/>
       <c r="AT30" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU30" s="1" t="s">
-        <v>123</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="AU30" s="1"/>
       <c r="AV30" s="1" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="AW30" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AX30" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AY30" s="1"/>
       <c r="AZ30" s="1"/>
@@ -3953,111 +3968,115 @@
       <c r="A31" s="3">
         <v>6</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>78</v>
-      </c>
+      <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D31" s="1"/>
+        <v>81</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="E31" s="1" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J31" s="1"/>
+      <c r="J31" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="K31" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>66</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="O31" s="1" t="s">
-        <v>73</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="O31" s="1"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="S31" s="1" t="s">
-        <v>76</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="S31" s="1"/>
       <c r="T31" s="1" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
-      <c r="W31" s="1"/>
-      <c r="X31" s="1"/>
-      <c r="Y31" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="W31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="X31" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y31" s="1"/>
       <c r="Z31" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="AA31" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AB31" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC31" s="1"/>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="AD31" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AE31" s="1"/>
-      <c r="AF31" s="1"/>
+      <c r="AF31" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="AG31" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AH31" s="1"/>
-      <c r="AI31" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="AH31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI31" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="AJ31" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK31" s="1"/>
+        <v>72</v>
+      </c>
+      <c r="AK31" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="AL31" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AM31" s="1" t="s">
-        <v>91</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="AM31" s="1"/>
       <c r="AN31" s="1"/>
       <c r="AO31" s="1"/>
       <c r="AP31" s="1"/>
-      <c r="AQ31" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="AQ31" s="1"/>
       <c r="AR31" s="1"/>
       <c r="AS31" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AT31" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AU31" s="1"/>
+        <v>75</v>
+      </c>
+      <c r="AU31" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="AV31" s="1"/>
       <c r="AW31" s="1"/>
-      <c r="AX31" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="AX31" s="1"/>
       <c r="AY31" s="1"/>
       <c r="AZ31" s="1"/>
       <c r="BA31" s="1"/>
@@ -4067,55 +4086,49 @@
         <v>7</v>
       </c>
       <c r="B32" s="1"/>
-      <c r="C32" s="1" t="s">
-        <v>57</v>
-      </c>
+      <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1" t="s">
-        <v>90</v>
-      </c>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K32" s="1"/>
       <c r="L32" s="1" t="s">
         <v>66</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="N32" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1" t="s">
-        <v>58</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P32" s="1"/>
       <c r="Q32" s="1" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="S32" s="1"/>
       <c r="T32" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
       <c r="Y32" s="1" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="Z32" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="AA32" s="1" t="s">
         <v>67</v>
@@ -4124,49 +4137,57 @@
         <v>78</v>
       </c>
       <c r="AC32" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="AD32" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="AE32" s="1"/>
-      <c r="AF32" s="1"/>
-      <c r="AG32" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="AF32" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AG32" s="1"/>
       <c r="AH32" s="1" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="AI32" s="1"/>
       <c r="AJ32" s="1" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="AK32" s="1" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="AL32" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AM32" s="1"/>
+        <v>63</v>
+      </c>
+      <c r="AM32" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="AN32" s="1" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="AO32" s="1"/>
       <c r="AP32" s="1"/>
       <c r="AQ32" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AR32" s="1"/>
       <c r="AS32" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AT32" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AU32" s="1"/>
+        <v>77</v>
+      </c>
+      <c r="AU32" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="AV32" s="1"/>
-      <c r="AW32" s="1"/>
-      <c r="AX32" s="1"/>
+      <c r="AW32" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AX32" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="AY32" s="1"/>
       <c r="AZ32" s="1"/>
       <c r="BA32" s="1"/>
@@ -4176,88 +4197,86 @@
         <v>1</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E34" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>57</v>
-      </c>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
       <c r="K34" s="1" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="L34" s="1" t="s">
         <v>80</v>
       </c>
       <c r="M34" s="1"/>
       <c r="N34" s="1" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q34" s="1" t="s">
-        <v>73</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="T34" s="1" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="U34" s="1"/>
       <c r="V34" s="1"/>
       <c r="W34" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="X34" s="1" t="s">
         <v>66</v>
       </c>
       <c r="Y34" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="Z34" s="1"/>
       <c r="AA34" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB34" s="1"/>
+      <c r="AC34" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD34" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="AB34" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC34" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD34" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="AE34" s="1"/>
       <c r="AF34" s="1"/>
       <c r="AG34" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AH34" s="1"/>
       <c r="AI34" s="1"/>
       <c r="AJ34" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AK34" s="1"/>
-      <c r="AL34" s="1"/>
+      <c r="AK34" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL34" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="AM34" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AN34" s="1"/>
       <c r="AO34" s="1" t="s">
@@ -4267,10 +4286,10 @@
         <v>116</v>
       </c>
       <c r="AQ34" s="1" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="AR34" s="1" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="AS34" s="1"/>
       <c r="AT34" s="1"/>
@@ -4278,9 +4297,11 @@
       <c r="AV34" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AW34" s="1"/>
+      <c r="AW34" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="AX34" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AY34" s="1"/>
       <c r="AZ34" s="1"/>
@@ -4294,106 +4315,106 @@
         <v>65</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D35" s="1"/>
+        <v>94</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="E35" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="I35" s="1"/>
       <c r="J35" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
+      <c r="M35" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="N35" s="1" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q35" s="1"/>
+        <v>72</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="R35" s="1"/>
       <c r="S35" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="T35" s="1" t="s">
-        <v>91</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="T35" s="1"/>
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
       <c r="W35" s="1" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="X35" s="1" t="s">
         <v>66</v>
       </c>
       <c r="Y35" s="1" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="Z35" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AA35" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB35" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC35" s="1"/>
+      <c r="AD35" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="AB35" s="1"/>
-      <c r="AC35" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD35" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="AE35" s="1"/>
       <c r="AF35" s="1"/>
       <c r="AG35" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AH35" s="1"/>
       <c r="AI35" s="1"/>
       <c r="AJ35" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AK35" s="1" t="s">
-        <v>57</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="AK35" s="1"/>
       <c r="AL35" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="AM35" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="AN35" s="1"/>
       <c r="AO35" s="1"/>
       <c r="AP35" s="1"/>
       <c r="AQ35" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR35" s="1"/>
-      <c r="AS35" s="1" t="s">
-        <v>84</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="AR35" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AS35" s="1"/>
       <c r="AT35" s="1"/>
       <c r="AU35" s="1"/>
       <c r="AV35" s="1" t="s">
         <v>78</v>
       </c>
       <c r="AW35" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AX35" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AY35" s="1"/>
       <c r="AZ35" s="1"/>
@@ -4406,80 +4427,84 @@
       <c r="B36" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="C36" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E36" s="1"/>
       <c r="F36" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
+      <c r="H36" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="J36" s="1" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M36" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="N36" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="O36" s="1" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q36" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="R36" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="S36" s="1"/>
+      <c r="S36" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="T36" s="1" t="s">
         <v>65</v>
       </c>
       <c r="U36" s="1"/>
       <c r="V36" s="1"/>
       <c r="W36" s="1" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="X36" s="1"/>
       <c r="Y36" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z36" s="1"/>
-      <c r="AA36" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z36" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC36" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AB36" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC36" s="1"/>
       <c r="AD36" s="1"/>
       <c r="AE36" s="1"/>
       <c r="AF36" s="1"/>
       <c r="AG36" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AH36" s="1" t="s">
-        <v>53</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="AH36" s="1"/>
       <c r="AI36" s="1"/>
-      <c r="AJ36" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="AJ36" s="1"/>
       <c r="AK36" s="1"/>
-      <c r="AL36" s="1"/>
+      <c r="AL36" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="AM36" s="1" t="s">
         <v>71</v>
       </c>
@@ -4487,26 +4512,22 @@
       <c r="AO36" s="1"/>
       <c r="AP36" s="1"/>
       <c r="AQ36" s="1" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="AR36" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AS36" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AT36" s="1" t="s">
-        <v>77</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="AS36" s="1"/>
+      <c r="AT36" s="1"/>
       <c r="AU36" s="1"/>
       <c r="AV36" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AW36" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AX36" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AY36" s="1"/>
       <c r="AZ36" s="1"/>
@@ -4520,51 +4541,53 @@
         <v>78</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E37" s="1"/>
+        <v>83</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="F37" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I37" s="1"/>
+        <v>81</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="J37" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="K37" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M37" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
+      <c r="O37" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="P37" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q37" s="1"/>
+        <v>57</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="R37" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="S37" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="S37" s="1"/>
       <c r="T37" s="1" t="s">
         <v>65</v>
       </c>
       <c r="U37" s="1"/>
       <c r="V37" s="1"/>
       <c r="W37" s="1" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
@@ -4573,55 +4596,53 @@
         <v>67</v>
       </c>
       <c r="AB37" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC37" s="1" t="s">
-        <v>84</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="AC37" s="1"/>
       <c r="AD37" s="1" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="AE37" s="1"/>
       <c r="AF37" s="1"/>
       <c r="AG37" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH37" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI37" s="1"/>
+      <c r="AJ37" s="1"/>
+      <c r="AK37" s="1"/>
+      <c r="AL37" s="1"/>
+      <c r="AM37" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AH37" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AI37" s="1"/>
-      <c r="AJ37" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AK37" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL37" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM37" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AN37" s="1"/>
+      <c r="AN37" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="AO37" s="1"/>
       <c r="AP37" s="1"/>
-      <c r="AQ37" s="1"/>
-      <c r="AR37" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="AQ37" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR37" s="1"/>
       <c r="AS37" s="1"/>
-      <c r="AT37" s="1"/>
+      <c r="AT37" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="AU37" s="1"/>
       <c r="AV37" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AW37" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AX37" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AY37" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="AY37" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="AZ37" s="1"/>
       <c r="BA37" s="1"/>
     </row>
@@ -4629,112 +4650,112 @@
       <c r="A38" s="3">
         <v>5</v>
       </c>
-      <c r="B38" s="1"/>
+      <c r="B38" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="C38" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>53</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="D38" s="1"/>
       <c r="E38" s="1" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J38" s="1"/>
+      <c r="J38" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="K38" s="1" t="s">
         <v>68</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="N38" s="1"/>
+        <v>91</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="O38" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="S38" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R38" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="S38" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="T38" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="T38" s="1"/>
       <c r="U38" s="1"/>
       <c r="V38" s="1"/>
       <c r="W38" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="X38" s="1"/>
       <c r="Y38" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z38" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA38" s="1"/>
+        <v>69</v>
+      </c>
+      <c r="AA38" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="AB38" s="1" t="s">
         <v>78</v>
       </c>
       <c r="AC38" s="1" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="AD38" s="1" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="AE38" s="1"/>
       <c r="AF38" s="1"/>
-      <c r="AG38" s="1" t="s">
+      <c r="AG38" s="1"/>
+      <c r="AH38" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI38" s="1"/>
+      <c r="AJ38" s="1"/>
+      <c r="AK38" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL38" s="1"/>
+      <c r="AM38" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AH38" s="1"/>
-      <c r="AI38" s="1"/>
-      <c r="AJ38" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK38" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL38" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM38" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AN38" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="AN38" s="1"/>
       <c r="AO38" s="1"/>
       <c r="AP38" s="1"/>
       <c r="AQ38" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="AR38" s="1"/>
       <c r="AS38" s="1"/>
       <c r="AT38" s="1" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="AU38" s="1"/>
-      <c r="AV38" s="1"/>
-      <c r="AW38" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="AV38" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW38" s="1"/>
       <c r="AX38" s="1"/>
-      <c r="AY38" s="1"/>
+      <c r="AY38" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="AZ38" s="1"/>
       <c r="BA38" s="1"/>
     </row>
@@ -4745,65 +4766,65 @@
       <c r="B39" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="F39" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>56</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="I39" s="1"/>
       <c r="J39" s="1" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="M39" s="1" t="s">
         <v>71</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="O39" s="1"/>
-      <c r="P39" s="1" t="s">
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="S39" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Q39" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="R39" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="S39" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="T39" s="1"/>
+      <c r="T39" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="U39" s="1"/>
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
-      <c r="Y39" s="1"/>
+      <c r="Y39" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="Z39" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AA39" s="1"/>
       <c r="AB39" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC39" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="AC39" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="AD39" s="1" t="s">
         <v>67</v>
       </c>
@@ -4811,43 +4832,43 @@
       <c r="AF39" s="1"/>
       <c r="AG39" s="1"/>
       <c r="AH39" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AI39" s="1"/>
-      <c r="AJ39" s="1"/>
+      <c r="AJ39" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="AK39" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AL39" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AM39" s="1"/>
+        <v>57</v>
+      </c>
+      <c r="AM39" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="AN39" s="1" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="AO39" s="1"/>
       <c r="AP39" s="1"/>
       <c r="AQ39" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AR39" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AS39" s="1"/>
+        <v>62</v>
+      </c>
+      <c r="AS39" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="AT39" s="1" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="AU39" s="1"/>
-      <c r="AV39" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AW39" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="AV39" s="1"/>
+      <c r="AW39" s="1"/>
       <c r="AX39" s="1"/>
-      <c r="AY39" s="1" t="s">
-        <v>78</v>
-      </c>
+      <c r="AY39" s="1"/>
       <c r="AZ39" s="1"/>
       <c r="BA39" s="1"/>
     </row>
@@ -4857,61 +4878,65 @@
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="D40" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
+      <c r="H40" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="I40" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="J40" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K40" s="1"/>
       <c r="L40" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="M40" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N40" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="N40" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
+      <c r="P40" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="Q40" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="R40" s="1" t="s">
         <v>57</v>
       </c>
       <c r="S40" s="1"/>
-      <c r="T40" s="1"/>
+      <c r="T40" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
-      <c r="W40" s="1"/>
+      <c r="W40" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="X40" s="1"/>
-      <c r="Y40" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="Y40" s="1"/>
       <c r="Z40" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="AA40" s="1"/>
       <c r="AB40" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AC40" s="1" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="AD40" s="1" t="s">
         <v>67</v>
@@ -4922,44 +4947,40 @@
         <v>71</v>
       </c>
       <c r="AH40" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AI40" s="1" t="s">
-        <v>69</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="AI40" s="1"/>
       <c r="AJ40" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AK40" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="AL40" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AM40" s="1"/>
       <c r="AN40" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AO40" s="1"/>
       <c r="AP40" s="1"/>
-      <c r="AQ40" s="1" t="s">
-        <v>73</v>
-      </c>
+      <c r="AQ40" s="1"/>
       <c r="AR40" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AS40" s="1"/>
+        <v>62</v>
+      </c>
+      <c r="AS40" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="AT40" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AU40" s="1"/>
       <c r="AV40" s="1" t="s">
         <v>66</v>
       </c>
       <c r="AW40" s="1"/>
-      <c r="AX40" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="AX40" s="1"/>
       <c r="AY40" s="1"/>
       <c r="AZ40" s="1"/>
       <c r="BA40" s="1"/>

--- a/SchoolManager/bin/Release/netcoreapp3.1/programa1.xlsx
+++ b/SchoolManager/bin/Release/netcoreapp3.1/programa1.xlsx
@@ -178,159 +178,171 @@
     <t>0</t>
   </si>
   <si>
+    <t>9в</t>
+  </si>
+  <si>
     <t>8г</t>
   </si>
   <si>
     <t>8в</t>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>8д</t>
+  </si>
+  <si>
+    <t>9а</t>
+  </si>
+  <si>
+    <t>10г</t>
+  </si>
+  <si>
+    <t>10б</t>
+  </si>
+  <si>
+    <t>6 клас</t>
+  </si>
+  <si>
+    <t>12б</t>
+  </si>
+  <si>
+    <t>10а</t>
+  </si>
+  <si>
+    <t>11д</t>
+  </si>
+  <si>
+    <t>11г</t>
+  </si>
+  <si>
+    <t>12в</t>
+  </si>
+  <si>
+    <t>12д</t>
+  </si>
+  <si>
+    <t>12а</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>8б</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>10в</t>
+  </si>
+  <si>
+    <t>11в</t>
+  </si>
+  <si>
+    <t>10д</t>
+  </si>
+  <si>
+    <t>7 клас</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>9д</t>
+  </si>
+  <si>
+    <t>11а</t>
+  </si>
+  <si>
+    <t>5 клас</t>
+  </si>
+  <si>
     <t>32</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>8д</t>
-  </si>
-  <si>
-    <t>10в</t>
-  </si>
-  <si>
-    <t>9д</t>
-  </si>
-  <si>
-    <t>6 клас</t>
-  </si>
-  <si>
-    <t>8б</t>
-  </si>
-  <si>
-    <t>10д</t>
-  </si>
-  <si>
-    <t>12а</t>
-  </si>
-  <si>
-    <t>10а</t>
+    <t>29</t>
+  </si>
+  <si>
+    <t>9г</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>11б</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>12г</t>
+  </si>
+  <si>
+    <t>8а</t>
+  </si>
+  <si>
+    <t>18</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>11д</t>
-  </si>
-  <si>
-    <t>11г</t>
-  </si>
-  <si>
-    <t>12в</t>
-  </si>
-  <si>
-    <t>12д</t>
-  </si>
-  <si>
-    <t>12б</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>11б</t>
-  </si>
-  <si>
-    <t>10б</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>10г</t>
-  </si>
-  <si>
-    <t>7 клас</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>9а</t>
-  </si>
-  <si>
-    <t>11а</t>
+    <t>9б</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>27</t>
   </si>
   <si>
     <t>39</t>
   </si>
   <si>
-    <t>9в</t>
-  </si>
-  <si>
-    <t>5 клас</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>9г</t>
-  </si>
-  <si>
-    <t>6</t>
+    <t>22</t>
+  </si>
+  <si>
+    <t>9</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>12г</t>
-  </si>
-  <si>
-    <t>8а</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>9б</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>11в</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
     <t>15</t>
   </si>
   <si>
@@ -349,58 +361,46 @@
     <t>30</t>
   </si>
   <si>
-    <t>21</t>
-  </si>
-  <si>
     <t>35</t>
   </si>
   <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
     <t>17</t>
   </si>
   <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
     <t>42</t>
   </si>
   <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
     <t>40</t>
   </si>
   <si>
-    <t>41</t>
-  </si>
-  <si>
     <t>46</t>
-  </si>
-  <si>
-    <t>36</t>
   </si>
 </sst>
 </file>
@@ -986,10 +986,10 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
         <v>53</v>
       </c>
@@ -1002,228 +1002,224 @@
       <c r="I2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J2" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="K2" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="P2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="T2" s="1"/>
       <c r="U2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AC2" s="1"/>
       <c r="AD2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AF2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AK2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AI2" s="1" t="s">
+      <c r="AL2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AJ2" s="1"/>
-      <c r="AK2" s="1" t="s">
+      <c r="AM2" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="AL2" s="1"/>
-      <c r="AM2" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="AN2" s="1"/>
       <c r="AO2" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AQ2" s="1"/>
       <c r="AR2" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="AT2" s="1"/>
       <c r="AU2" s="1" t="s">
         <v>55</v>
       </c>
       <c r="AV2" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AW2" s="1"/>
       <c r="AX2" s="1"/>
       <c r="AY2" s="1"/>
-      <c r="AZ2" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="AZ2" s="1"/>
       <c r="BA2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
         <v>55</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J3" s="1"/>
+      <c r="J3" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
+      <c r="M3" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="N3" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="P3" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T3" s="1"/>
       <c r="U3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="W3" s="1" t="s">
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB3" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AF3" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AH3" s="1"/>
-      <c r="AI3" s="1" t="s">
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL3" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AJ3" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK3" s="1"/>
-      <c r="AL3" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="AM3" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AN3" s="1"/>
       <c r="AO3" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AP3" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AQ3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR3" s="1" t="s">
-        <v>77</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="1"/>
       <c r="AS3" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="AT3" s="1"/>
       <c r="AU3" s="1" t="s">
         <v>55</v>
       </c>
       <c r="AV3" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AW3" s="1"/>
-      <c r="AX3" s="1"/>
+      <c r="AX3" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="AY3" s="1"/>
-      <c r="AZ3" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="AZ3" s="1"/>
       <c r="BA3" s="1"/>
     </row>
     <row r="4">
@@ -1231,243 +1227,245 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>68</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>80</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="O4" s="1"/>
       <c r="P4" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>61</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="X4" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="Y4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z4" s="1"/>
+        <v>74</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="AA4" s="1"/>
       <c r="AB4" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
+        <v>64</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="AE4" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AF4" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AG4" s="1" t="s">
-        <v>60</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="AG4" s="1"/>
       <c r="AH4" s="1"/>
       <c r="AI4" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AJ4" s="1"/>
+        <v>84</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="AK4" s="1"/>
       <c r="AL4" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AM4" s="1"/>
-      <c r="AN4" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="AN4" s="1"/>
       <c r="AO4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AP4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AQ4" s="1"/>
+      <c r="AR4" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AP4" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AQ4" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AR4" s="1" t="s">
+      <c r="AS4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT4" s="1"/>
+      <c r="AU4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW4" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AS4" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AT4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AU4" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AV4" s="1"/>
-      <c r="AW4" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AX4" s="1"/>
-      <c r="AY4" s="1"/>
-      <c r="AZ4" s="1"/>
+      <c r="AX4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AY4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AZ4" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="BA4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>53</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="M5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="W5" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1" t="s">
+      <c r="X5" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="V5" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="Y5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z5" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
       <c r="AB5" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="AD5" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AE5" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AF5" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AG5" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AH5" s="1" t="s">
-        <v>63</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1"/>
       <c r="AI5" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AJ5" s="1"/>
+        <v>84</v>
+      </c>
+      <c r="AJ5" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="AK5" s="1"/>
       <c r="AL5" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="AM5" s="1"/>
       <c r="AN5" s="1"/>
       <c r="AO5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AP5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AQ5" s="1"/>
+      <c r="AR5" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AP5" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AQ5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AR5" s="1" t="s">
+      <c r="AS5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW5" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AS5" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AT5" s="1"/>
-      <c r="AU5" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AV5" s="1"/>
-      <c r="AW5" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AX5" s="1"/>
+      <c r="AX5" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="AY5" s="1"/>
       <c r="AZ5" s="1"/>
       <c r="BA5" s="1"/>
@@ -1477,119 +1475,119 @@
         <v>5</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="O6" s="1"/>
+        <v>78</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="S6" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="T6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="W6" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="U6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="W6" s="1"/>
       <c r="X6" s="1" t="s">
         <v>92</v>
       </c>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AA6" s="1"/>
       <c r="AB6" s="1" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AD6" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AE6" s="1" t="s">
         <v>93</v>
       </c>
       <c r="AF6" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG6" s="1"/>
-      <c r="AH6" s="1"/>
+        <v>89</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="AI6" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AJ6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AK6" s="1" t="s">
-        <v>94</v>
-      </c>
+      <c r="AJ6" s="1"/>
+      <c r="AK6" s="1"/>
       <c r="AL6" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AM6" s="1"/>
       <c r="AN6" s="1"/>
       <c r="AO6" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AP6" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AQ6" s="1"/>
-      <c r="AR6" s="1" t="s">
-        <v>62</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="AQ6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR6" s="1"/>
       <c r="AS6" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="AT6" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="AU6" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AV6" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="AV6" s="1"/>
       <c r="AW6" s="1"/>
-      <c r="AX6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AY6" s="1" t="s">
-        <v>78</v>
-      </c>
+      <c r="AX6" s="1"/>
+      <c r="AY6" s="1"/>
       <c r="AZ6" s="1"/>
       <c r="BA6" s="1"/>
     </row>
@@ -1599,48 +1597,54 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
         <v>56</v>
       </c>
       <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="J7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K7" s="1"/>
       <c r="L7" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
+        <v>60</v>
+      </c>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
+      <c r="Q7" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="R7" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="S7" s="1"/>
+        <v>77</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="T7" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="W7" s="1" t="s">
         <v>91</v>
@@ -1648,66 +1652,60 @@
       <c r="X7" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="Y7" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z7" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
       <c r="AB7" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC7" s="1"/>
-      <c r="AD7" s="1" t="s">
-        <v>68</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD7" s="1"/>
       <c r="AE7" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AF7" s="1"/>
-      <c r="AG7" s="1"/>
-      <c r="AH7" s="1"/>
+      <c r="AG7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH7" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="AI7" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AJ7" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AK7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL7" s="1"/>
+      <c r="AJ7" s="1"/>
+      <c r="AK7" s="1"/>
+      <c r="AL7" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="AM7" s="1"/>
-      <c r="AN7" s="1" t="s">
-        <v>81</v>
-      </c>
+      <c r="AN7" s="1"/>
       <c r="AO7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AP7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AQ7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR7" s="1"/>
+      <c r="AS7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AT7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AU7" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="AP7" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AQ7" s="1"/>
-      <c r="AR7" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AS7" s="1" t="s">
+      <c r="AV7" s="1"/>
+      <c r="AW7" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AT7" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU7" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AV7" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AW7" s="1"/>
-      <c r="AX7" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="AX7" s="1"/>
       <c r="AY7" s="1"/>
       <c r="AZ7" s="1"/>
       <c r="BA7" s="1"/>
@@ -1717,15 +1715,21 @@
         <v>7</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="K8" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -1734,14 +1738,10 @@
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
-      <c r="T8" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
-      <c r="W8" s="1" t="s">
-        <v>91</v>
-      </c>
+      <c r="W8" s="1"/>
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
@@ -1755,7 +1755,9 @@
       <c r="AH8" s="1"/>
       <c r="AI8" s="1"/>
       <c r="AJ8" s="1"/>
-      <c r="AK8" s="1"/>
+      <c r="AK8" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="AL8" s="1"/>
       <c r="AM8" s="1"/>
       <c r="AN8" s="1"/>
@@ -1778,118 +1780,118 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H10" s="1"/>
+        <v>81</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="I10" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="L10" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>60</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
-      <c r="R10" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="S10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="T10" s="1"/>
       <c r="U10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="X10" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="V10" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="W10" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="X10" s="1" t="s">
+      <c r="Y10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE10" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="Y10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA10" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB10" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC10" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD10" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AE10" s="1" t="s">
+      <c r="AF10" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="AF10" s="1"/>
-      <c r="AG10" s="1"/>
+      <c r="AG10" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="AH10" s="1"/>
       <c r="AI10" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ10" s="1"/>
       <c r="AK10" s="1"/>
-      <c r="AL10" s="1"/>
+      <c r="AL10" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="AM10" s="1" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AN10" s="1"/>
       <c r="AO10" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="AP10" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AQ10" s="1" t="s">
-        <v>61</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="AQ10" s="1"/>
       <c r="AR10" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AS10" s="1" t="s">
-        <v>98</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="AS10" s="1"/>
       <c r="AT10" s="1"/>
       <c r="AU10" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AV10" s="1" t="s">
-        <v>65</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="AV10" s="1"/>
       <c r="AW10" s="1"/>
-      <c r="AX10" s="1"/>
+      <c r="AX10" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="AY10" s="1"/>
       <c r="AZ10" s="1"/>
       <c r="BA10" s="1"/>
@@ -1899,73 +1901,75 @@
         <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="I11" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L11" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="M11" s="1"/>
-      <c r="N11" s="1" t="s">
+      <c r="N11" s="1"/>
+      <c r="O11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="R11" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="O11" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="S11" s="1"/>
+      <c r="S11" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="T11" s="1"/>
       <c r="U11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="X11" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="V11" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="W11" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="X11" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="Y11" s="1" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC11" s="1" t="s">
-        <v>98</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="AC11" s="1"/>
       <c r="AD11" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AE11" s="1" t="s">
         <v>100</v>
@@ -1974,42 +1978,38 @@
         <v>100</v>
       </c>
       <c r="AG11" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="AH11" s="1"/>
       <c r="AI11" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ11" s="1"/>
-      <c r="AK11" s="1"/>
+      <c r="AK11" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="AL11" s="1"/>
       <c r="AM11" s="1" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AN11" s="1"/>
       <c r="AO11" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="AP11" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="AQ11" s="1"/>
-      <c r="AR11" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AS11" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AT11" s="1"/>
+      <c r="AR11" s="1"/>
+      <c r="AS11" s="1"/>
+      <c r="AT11" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="AU11" s="1"/>
-      <c r="AV11" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AW11" s="1" t="s">
-        <v>89</v>
-      </c>
+      <c r="AV11" s="1"/>
+      <c r="AW11" s="1"/>
       <c r="AX11" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AY11" s="1"/>
       <c r="AZ11" s="1"/>
@@ -2021,71 +2021,67 @@
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I12" s="1"/>
+        <v>101</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="J12" s="1" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q12" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="M12" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="R12" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>72</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1" t="s">
+      <c r="X12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="Z12" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA12" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB12" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC12" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD12" s="1"/>
       <c r="AE12" s="1" t="s">
         <v>100</v>
       </c>
@@ -2093,44 +2089,52 @@
         <v>100</v>
       </c>
       <c r="AG12" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AH12" s="1" t="s">
-        <v>56</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="AH12" s="1"/>
       <c r="AI12" s="1" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="AJ12" s="1"/>
       <c r="AK12" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AL12" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AM12" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="AL12" s="1"/>
+      <c r="AM12" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="AN12" s="1"/>
       <c r="AO12" s="1" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="AP12" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AQ12" s="1"/>
-      <c r="AR12" s="1"/>
-      <c r="AS12" s="1"/>
-      <c r="AT12" s="1"/>
-      <c r="AU12" s="1"/>
+        <v>94</v>
+      </c>
+      <c r="AQ12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AS12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AT12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU12" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="AV12" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AW12" s="1" t="s">
-        <v>89</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="AW12" s="1"/>
       <c r="AX12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AY12" s="1"/>
+        <v>54</v>
+      </c>
+      <c r="AY12" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="AZ12" s="1"/>
       <c r="BA12" s="1"/>
     </row>
@@ -2138,238 +2142,242 @@
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>78</v>
-      </c>
+      <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="T13" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="U13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="V13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1" t="s">
+      <c r="Z13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="Y13" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z13" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA13" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
       <c r="AD13" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AE13" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="AF13" s="1"/>
       <c r="AG13" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="AH13" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI13" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="AI13" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="AJ13" s="1"/>
       <c r="AK13" s="1"/>
-      <c r="AL13" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AM13" s="1"/>
+      <c r="AL13" s="1"/>
+      <c r="AM13" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="AN13" s="1"/>
       <c r="AO13" s="1" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="AP13" s="1" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="AQ13" s="1"/>
-      <c r="AR13" s="1"/>
-      <c r="AS13" s="1"/>
+      <c r="AR13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AS13" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="AT13" s="1" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AU13" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AV13" s="1" t="s">
-        <v>94</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="AV13" s="1"/>
       <c r="AW13" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AX13" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AY13" s="1"/>
-      <c r="AZ13" s="1"/>
+      <c r="AZ13" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="BA13" s="1"/>
     </row>
     <row r="14">
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="D14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F14" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="H14" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="I14" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J14" s="1"/>
+      <c r="J14" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="K14" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="M14" s="1" t="s">
         <v>91</v>
       </c>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
       <c r="N14" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
+      <c r="P14" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="Q14" s="1" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="T14" s="1"/>
       <c r="U14" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="W14" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="V14" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="W14" s="1"/>
       <c r="X14" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="Y14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA14" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="Z14" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA14" s="1"/>
       <c r="AB14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD14" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AC14" s="1"/>
-      <c r="AD14" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="AE14" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="AF14" s="1"/>
-      <c r="AG14" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AH14" s="1"/>
+      <c r="AG14" s="1"/>
+      <c r="AH14" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="AI14" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="AJ14" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK14" s="1" t="s">
-        <v>77</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="AK14" s="1"/>
       <c r="AL14" s="1"/>
-      <c r="AM14" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN14" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="AM14" s="1"/>
+      <c r="AN14" s="1"/>
       <c r="AO14" s="1" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="AP14" s="1" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="AQ14" s="1"/>
       <c r="AR14" s="1"/>
       <c r="AS14" s="1" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="AT14" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AU14" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="AV14" s="1"/>
       <c r="AW14" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AX14" s="1" t="s">
-        <v>53</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="AX14" s="1"/>
       <c r="AY14" s="1"/>
       <c r="AZ14" s="1"/>
       <c r="BA14" s="1"/>
@@ -2380,118 +2388,118 @@
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>58</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J15" s="1"/>
+        <v>54</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="K15" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>83</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="L15" s="1"/>
       <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
+      <c r="N15" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="S15" s="1" t="s">
-        <v>63</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="S15" s="1"/>
       <c r="T15" s="1" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="W15" s="1"/>
       <c r="X15" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="Y15" s="1"/>
+        <v>106</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="Z15" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA15" s="1"/>
+        <v>60</v>
+      </c>
+      <c r="AA15" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="AB15" s="1" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="AC15" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="AD15" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AE15" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="AF15" s="1"/>
       <c r="AG15" s="1"/>
       <c r="AH15" s="1" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="AI15" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="AJ15" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK15" s="1"/>
-      <c r="AL15" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AM15" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN15" s="1" t="s">
         <v>81</v>
       </c>
+      <c r="AK15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL15" s="1"/>
+      <c r="AM15" s="1"/>
+      <c r="AN15" s="1"/>
       <c r="AO15" s="1" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="AP15" s="1" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="AQ15" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AR15" s="1"/>
-      <c r="AS15" s="1"/>
+      <c r="AS15" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="AT15" s="1" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="AU15" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AV15" s="1"/>
-      <c r="AW15" s="1"/>
+        <v>108</v>
+      </c>
+      <c r="AV15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AW15" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="AX15" s="1"/>
-      <c r="AY15" s="1" t="s">
-        <v>78</v>
-      </c>
+      <c r="AY15" s="1"/>
       <c r="AZ15" s="1"/>
       <c r="BA15" s="1"/>
     </row>
@@ -2517,7 +2525,9 @@
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
+      <c r="T16" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
@@ -2526,7 +2536,7 @@
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
       <c r="AB16" s="1" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AC16" s="1"/>
       <c r="AD16" s="1"/>
@@ -2537,9 +2547,7 @@
       <c r="AI16" s="1"/>
       <c r="AJ16" s="1"/>
       <c r="AK16" s="1"/>
-      <c r="AL16" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="AL16" s="1"/>
       <c r="AM16" s="1"/>
       <c r="AN16" s="1"/>
       <c r="AO16" s="1"/>
@@ -2550,7 +2558,9 @@
       <c r="AT16" s="1"/>
       <c r="AU16" s="1"/>
       <c r="AV16" s="1"/>
-      <c r="AW16" s="1"/>
+      <c r="AW16" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="AX16" s="1"/>
       <c r="AY16" s="1"/>
       <c r="AZ16" s="1"/>
@@ -2562,114 +2572,114 @@
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>56</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L18" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="M18" s="1"/>
       <c r="N18" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="R18" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="S18" s="1" t="s">
-        <v>57</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="X18" s="1"/>
       <c r="Y18" s="1" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="Z18" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AA18" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AB18" s="1"/>
+      <c r="AB18" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="AC18" s="1"/>
       <c r="AD18" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="AE18" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AF18" s="1"/>
       <c r="AG18" s="1" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="AH18" s="1"/>
       <c r="AI18" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AJ18" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AK18" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL18" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="AK18" s="1"/>
+      <c r="AL18" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="AM18" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AN18" s="1"/>
       <c r="AO18" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="AP18" s="1"/>
       <c r="AQ18" s="1"/>
       <c r="AR18" s="1" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="AS18" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AT18" s="1"/>
       <c r="AU18" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AV18" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AW18" s="1"/>
+        <v>64</v>
+      </c>
+      <c r="AW18" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="AX18" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AY18" s="1"/>
       <c r="AZ18" s="1"/>
@@ -2680,115 +2690,115 @@
         <v>2</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>56</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
+        <v>91</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="M19" s="1"/>
       <c r="N19" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>89</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1" t="s">
-        <v>57</v>
-      </c>
+      <c r="R19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="S19" s="1"/>
       <c r="T19" s="1" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="X19" s="1"/>
       <c r="Y19" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="Z19" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AA19" s="1" t="s">
-        <v>91</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="AA19" s="1"/>
       <c r="AB19" s="1" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="AC19" s="1"/>
       <c r="AD19" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="AE19" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="AF19" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="AG19" s="1"/>
       <c r="AH19" s="1"/>
       <c r="AI19" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AJ19" s="1" t="s">
-        <v>68</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="AJ19" s="1"/>
       <c r="AK19" s="1"/>
       <c r="AL19" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AM19" s="1" t="s">
-        <v>71</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="AM19" s="1"/>
       <c r="AN19" s="1"/>
       <c r="AO19" s="1"/>
       <c r="AP19" s="1" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="AQ19" s="1"/>
       <c r="AR19" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AS19" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AT19" s="1"/>
+        <v>112</v>
+      </c>
+      <c r="AT19" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="AU19" s="1"/>
-      <c r="AV19" s="1"/>
+      <c r="AV19" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="AW19" s="1"/>
       <c r="AX19" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AY19" s="1"/>
       <c r="AZ19" s="1"/>
@@ -2799,119 +2809,119 @@
         <v>3</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="F20" s="1" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="G20" s="1"/>
-      <c r="H20" s="1" t="s">
-        <v>109</v>
-      </c>
+      <c r="H20" s="1"/>
       <c r="I20" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="J20" s="1"/>
+      <c r="K20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="1"/>
+      <c r="AE20" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF20" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AG20" s="1"/>
+      <c r="AH20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI20" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AJ20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK20" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1" t="s">
+      <c r="AL20" s="1"/>
+      <c r="AM20" s="1"/>
+      <c r="AN20" s="1"/>
+      <c r="AO20" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AP20" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AQ20" s="1"/>
+      <c r="AR20" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AS20" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AT20" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="Q20" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="R20" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="T20" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="U20" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="V20" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="W20" s="1"/>
-      <c r="X20" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="Y20" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z20" s="1"/>
-      <c r="AA20" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB20" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC20" s="1"/>
-      <c r="AD20" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE20" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AF20" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AG20" s="1"/>
-      <c r="AH20" s="1"/>
-      <c r="AI20" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AJ20" s="1"/>
-      <c r="AK20" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AL20" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AM20" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN20" s="1"/>
-      <c r="AO20" s="1"/>
-      <c r="AP20" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AQ20" s="1"/>
-      <c r="AR20" s="1"/>
-      <c r="AS20" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AT20" s="1"/>
       <c r="AU20" s="1"/>
       <c r="AV20" s="1"/>
-      <c r="AW20" s="1" t="s">
-        <v>89</v>
-      </c>
+      <c r="AW20" s="1"/>
       <c r="AX20" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AY20" s="1"/>
+        <v>54</v>
+      </c>
+      <c r="AY20" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="AZ20" s="1"/>
       <c r="BA20" s="1"/>
     </row>
@@ -2919,119 +2929,115 @@
       <c r="A21" s="3">
         <v>4</v>
       </c>
-      <c r="B21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="C21" s="1" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J21" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="J21" s="1"/>
       <c r="K21" s="1" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>81</v>
       </c>
       <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
+      <c r="N21" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="O21" s="1"/>
-      <c r="P21" s="1" t="s">
-        <v>72</v>
-      </c>
+      <c r="P21" s="1"/>
       <c r="Q21" s="1" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="U21" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="V21" s="1" t="s">
-        <v>111</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
       <c r="W21" s="1"/>
       <c r="X21" s="1" t="s">
-        <v>112</v>
+        <v>64</v>
       </c>
       <c r="Y21" s="1"/>
-      <c r="Z21" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="AB21" s="1" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AC21" s="1"/>
       <c r="AD21" s="1" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="AE21" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF21" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI21" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="AF21" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AG21" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AH21" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AI21" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="AJ21" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK21" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AL21" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AM21" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="AK21" s="1"/>
+      <c r="AL21" s="1"/>
+      <c r="AM21" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="AN21" s="1"/>
       <c r="AO21" s="1" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="AP21" s="1" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="AQ21" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AR21" s="1"/>
+        <v>73</v>
+      </c>
+      <c r="AR21" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="AS21" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AT21" s="1"/>
-      <c r="AU21" s="1" t="s">
-        <v>113</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="AT21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU21" s="1"/>
       <c r="AV21" s="1"/>
       <c r="AW21" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AX21" s="1"/>
       <c r="AY21" s="1"/>
@@ -3042,15 +3048,17 @@
       <c r="A22" s="3">
         <v>5</v>
       </c>
-      <c r="B22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="C22" s="1" t="s">
         <v>81</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>56</v>
@@ -3058,99 +3066,97 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="J22" s="1"/>
       <c r="K22" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M22" s="1"/>
+        <v>87</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="N22" s="1" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="O22" s="1"/>
       <c r="P22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="T22" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="Q22" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="R22" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="U22" s="1" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="W22" s="1" t="s">
-        <v>66</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="W22" s="1"/>
       <c r="X22" s="1"/>
       <c r="Y22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="Z22" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA22" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="AB22" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AC22" s="1"/>
       <c r="AD22" s="1" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="AE22" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AF22" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AG22" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="AH22" s="1"/>
       <c r="AI22" s="1"/>
       <c r="AJ22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK22" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="AK22" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="AL22" s="1"/>
       <c r="AM22" s="1" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="AN22" s="1"/>
       <c r="AO22" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AP22" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AQ22" s="1"/>
       <c r="AR22" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="AS22" s="1"/>
       <c r="AT22" s="1" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="AU22" s="1"/>
       <c r="AV22" s="1"/>
       <c r="AW22" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AX22" s="1"/>
       <c r="AY22" s="1"/>
@@ -3161,114 +3167,118 @@
       <c r="A23" s="3">
         <v>6</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>78</v>
-      </c>
+      <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>56</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
-      <c r="K23" s="1" t="s">
-        <v>91</v>
-      </c>
+      <c r="K23" s="1"/>
       <c r="L23" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="M23" s="1"/>
+        <v>78</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S23" s="1"/>
       <c r="T23" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
-      <c r="W23" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y23" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="1"/>
+      <c r="AD23" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="X23" s="1"/>
-      <c r="Y23" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z23" s="1"/>
-      <c r="AA23" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB23" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC23" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AD23" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="AE23" s="1"/>
       <c r="AF23" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="AG23" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="AH23" s="1"/>
-      <c r="AI23" s="1"/>
+      <c r="AI23" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="AJ23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK23" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AK23" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AL23" s="1"/>
+      <c r="AL23" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="AM23" s="1"/>
       <c r="AN23" s="1"/>
       <c r="AO23" s="1" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="AP23" s="1" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="AQ23" s="1"/>
       <c r="AR23" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AS23" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AT23" s="1"/>
+        <v>57</v>
+      </c>
+      <c r="AS23" s="1"/>
+      <c r="AT23" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="AU23" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="AV23" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AW23" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AX23" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AY23" s="1"/>
       <c r="AZ23" s="1"/>
@@ -3281,96 +3291,94 @@
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="G24" s="1"/>
-      <c r="H24" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>57</v>
-      </c>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
       <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
+      <c r="P24" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="Q24" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="S24" s="1"/>
       <c r="T24" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
-      <c r="X24" s="1"/>
+      <c r="X24" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="Y24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC24" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="Z24" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA24" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB24" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC24" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="AD24" s="1"/>
       <c r="AE24" s="1"/>
       <c r="AF24" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AG24" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AH24" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AI24" s="1"/>
+        <v>69</v>
+      </c>
+      <c r="AH24" s="1"/>
+      <c r="AI24" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="AJ24" s="1" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="AK24" s="1"/>
-      <c r="AL24" s="1"/>
-      <c r="AM24" s="1"/>
+      <c r="AL24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM24" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="AN24" s="1"/>
       <c r="AO24" s="1" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="AP24" s="1" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="AQ24" s="1"/>
       <c r="AR24" s="1"/>
       <c r="AS24" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AT24" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AU24" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="AV24" s="1"/>
+        <v>120</v>
+      </c>
+      <c r="AV24" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="AW24" s="1"/>
       <c r="AX24" s="1"/>
       <c r="AY24" s="1"/>
@@ -3381,116 +3389,114 @@
       <c r="A26" s="3">
         <v>1</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="D26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="F26" s="1"/>
-      <c r="G26" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="G26" s="1"/>
       <c r="H26" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J26" s="1"/>
+      <c r="J26" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="K26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="L26" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M26" s="1" t="s">
+      <c r="S26" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="P26" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="T26" s="1"/>
       <c r="U26" s="1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="V26" s="1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
       <c r="Y26" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z26" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA26" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="Z26" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA26" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB26" s="1" t="s">
-        <v>94</v>
-      </c>
+      <c r="AB26" s="1"/>
       <c r="AC26" s="1"/>
       <c r="AD26" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AE26" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AF26" s="1"/>
       <c r="AG26" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AH26" s="1"/>
-      <c r="AI26" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="AJ26" s="1"/>
+        <v>69</v>
+      </c>
+      <c r="AH26" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI26" s="1"/>
+      <c r="AJ26" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="AK26" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM26" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="AL26" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AM26" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="AN26" s="1"/>
       <c r="AO26" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="AP26" s="1"/>
       <c r="AQ26" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="AR26" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AS26" s="1" t="s">
-        <v>119</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="AS26" s="1"/>
       <c r="AT26" s="1"/>
       <c r="AU26" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AV26" s="1" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="AW26" s="1"/>
       <c r="AX26" s="1"/>
@@ -3503,114 +3509,112 @@
         <v>2</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
+      <c r="J27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="N27" s="1" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="Q27" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="T27" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
-      <c r="W27" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="W27" s="1"/>
       <c r="X27" s="1"/>
       <c r="Y27" s="1" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="Z27" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AA27" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB27" s="1"/>
+        <v>61</v>
+      </c>
+      <c r="AB27" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="AC27" s="1"/>
       <c r="AD27" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="AE27" s="1"/>
       <c r="AF27" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AG27" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AH27" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AI27" s="1" t="s">
-        <v>119</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="AH27" s="1"/>
+      <c r="AI27" s="1"/>
       <c r="AJ27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK27" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL27" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM27" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AK27" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL27" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AM27" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="AN27" s="1"/>
-      <c r="AO27" s="1" t="s">
-        <v>120</v>
-      </c>
+      <c r="AO27" s="1"/>
       <c r="AP27" s="1"/>
-      <c r="AQ27" s="1"/>
+      <c r="AQ27" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="AR27" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS27" s="1"/>
+      <c r="AT27" s="1"/>
+      <c r="AU27" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AV27" s="1"/>
+      <c r="AW27" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AS27" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="AT27" s="1"/>
-      <c r="AU27" s="1"/>
-      <c r="AV27" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AW27" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AX27" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="AX27" s="1"/>
       <c r="AY27" s="1"/>
       <c r="AZ27" s="1"/>
       <c r="BA27" s="1"/>
@@ -3620,114 +3624,112 @@
         <v>3</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C28" s="1"/>
+        <v>78</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="D28" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G28" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
+      <c r="I28" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="J28" s="1" t="s">
         <v>91</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="M28" s="1"/>
+        <v>64</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="N28" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="O28" s="1"/>
+        <v>81</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="P28" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q28" s="1" t="s">
-        <v>74</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="Q28" s="1"/>
       <c r="R28" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="S28" s="1" t="s">
-        <v>59</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="S28" s="1"/>
       <c r="T28" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
-      <c r="X28" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y28" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="AA28" s="1"/>
-      <c r="AB28" s="1"/>
-      <c r="AC28" s="1"/>
+      <c r="AB28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC28" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="AD28" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="AE28" s="1"/>
       <c r="AF28" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AG28" s="1" t="s">
-        <v>60</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="AG28" s="1"/>
       <c r="AH28" s="1"/>
-      <c r="AI28" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AJ28" s="1" t="s">
-        <v>57</v>
-      </c>
+      <c r="AI28" s="1"/>
+      <c r="AJ28" s="1"/>
       <c r="AK28" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AL28" s="1"/>
+        <v>83</v>
+      </c>
+      <c r="AL28" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="AM28" s="1" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="AN28" s="1"/>
-      <c r="AO28" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="AP28" s="1" t="s">
-        <v>116</v>
-      </c>
+      <c r="AO28" s="1"/>
+      <c r="AP28" s="1"/>
       <c r="AQ28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AR28" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AS28" s="1"/>
+      <c r="AT28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU28" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AV28" s="1"/>
+      <c r="AW28" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AR28" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS28" s="1"/>
-      <c r="AT28" s="1"/>
-      <c r="AU28" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AV28" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AW28" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AX28" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="AX28" s="1"/>
       <c r="AY28" s="1"/>
       <c r="AZ28" s="1"/>
       <c r="BA28" s="1"/>
@@ -3738,112 +3740,112 @@
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G29" s="1"/>
-      <c r="H29" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="1" t="s">
+      <c r="J29" s="1"/>
+      <c r="K29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M29" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="K29" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="N29" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
+        <v>76</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="Q29" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="T29" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="R29" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="S29" s="1"/>
-      <c r="T29" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
       <c r="X29" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y29" s="1"/>
-      <c r="Z29" s="1" t="s">
-        <v>88</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="Y29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z29" s="1"/>
       <c r="AA29" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="AB29" s="1" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="AC29" s="1"/>
-      <c r="AD29" s="1"/>
+      <c r="AD29" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="AE29" s="1"/>
       <c r="AF29" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AG29" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AH29" s="1" t="s">
-        <v>56</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="AH29" s="1"/>
       <c r="AI29" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AJ29" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AK29" s="1"/>
-      <c r="AL29" s="1"/>
+        <v>124</v>
+      </c>
+      <c r="AJ29" s="1"/>
+      <c r="AK29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL29" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="AM29" s="1"/>
       <c r="AN29" s="1"/>
-      <c r="AO29" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="AP29" s="1" t="s">
-        <v>116</v>
-      </c>
+      <c r="AO29" s="1"/>
+      <c r="AP29" s="1"/>
       <c r="AQ29" s="1"/>
-      <c r="AR29" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AS29" s="1"/>
+      <c r="AR29" s="1"/>
+      <c r="AS29" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="AT29" s="1" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="AU29" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AV29" s="1" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="AW29" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AX29" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AY29" s="1"/>
       <c r="AZ29" s="1"/>
@@ -3854,73 +3856,77 @@
         <v>5</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>60</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1" t="s">
         <v>56</v>
       </c>
       <c r="J30" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="K30" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="R30" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="S30" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="T30" s="1"/>
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
-      <c r="W30" s="1"/>
+      <c r="W30" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="X30" s="1" t="s">
         <v>124</v>
       </c>
       <c r="Y30" s="1" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="Z30" s="1" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AA30" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB30" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC30" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="AD30" s="1"/>
       <c r="AE30" s="1"/>
-      <c r="AF30" s="1"/>
-      <c r="AG30" s="1"/>
+      <c r="AF30" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AG30" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="AH30" s="1" t="s">
         <v>59</v>
       </c>
@@ -3928,37 +3934,35 @@
         <v>124</v>
       </c>
       <c r="AJ30" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AK30" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AL30" s="1" t="s">
-        <v>61</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="AK30" s="1"/>
+      <c r="AL30" s="1"/>
       <c r="AM30" s="1"/>
       <c r="AN30" s="1"/>
       <c r="AO30" s="1"/>
       <c r="AP30" s="1"/>
-      <c r="AQ30" s="1" t="s">
+      <c r="AQ30" s="1"/>
+      <c r="AR30" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AR30" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AS30" s="1"/>
+      <c r="AS30" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="AT30" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AU30" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="AU30" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="AV30" s="1" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="AW30" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AX30" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AY30" s="1"/>
       <c r="AZ30" s="1"/>
@@ -3968,115 +3972,113 @@
       <c r="A31" s="3">
         <v>6</v>
       </c>
-      <c r="B31" s="1"/>
+      <c r="B31" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="C31" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G31" s="1"/>
-      <c r="H31" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
       <c r="J31" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="S31" s="1"/>
       <c r="T31" s="1" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
       <c r="W31" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="X31" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y31" s="1"/>
+        <v>64</v>
+      </c>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="Z31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC31" s="1"/>
+      <c r="AD31" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE31" s="1"/>
+      <c r="AF31" s="1"/>
+      <c r="AG31" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH31" s="1"/>
+      <c r="AI31" s="1"/>
+      <c r="AJ31" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AA31" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB31" s="1"/>
-      <c r="AC31" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD31" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE31" s="1"/>
-      <c r="AF31" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AG31" s="1" t="s">
+      <c r="AK31" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AH31" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI31" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AJ31" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AK31" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL31" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="AL31" s="1"/>
       <c r="AM31" s="1"/>
       <c r="AN31" s="1"/>
-      <c r="AO31" s="1"/>
-      <c r="AP31" s="1"/>
-      <c r="AQ31" s="1"/>
-      <c r="AR31" s="1"/>
+      <c r="AO31" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AP31" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AQ31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR31" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="AS31" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AT31" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AU31" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AV31" s="1"/>
+        <v>60</v>
+      </c>
+      <c r="AU31" s="1"/>
+      <c r="AV31" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="AW31" s="1"/>
-      <c r="AX31" s="1"/>
+      <c r="AX31" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="AY31" s="1"/>
       <c r="AZ31" s="1"/>
       <c r="BA31" s="1"/>
@@ -4085,108 +4087,106 @@
       <c r="A32" s="3">
         <v>7</v>
       </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
+      <c r="B32" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
+      <c r="H32" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="I32" s="1"/>
-      <c r="J32" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="J32" s="1"/>
       <c r="K32" s="1"/>
-      <c r="L32" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="L32" s="1"/>
       <c r="M32" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N32" s="1"/>
-      <c r="O32" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="O32" s="1"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="S32" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="S32" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="T32" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
-      <c r="W32" s="1"/>
+      <c r="W32" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="X32" s="1"/>
-      <c r="Y32" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="Y32" s="1"/>
       <c r="Z32" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AA32" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="AB32" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AC32" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AD32" s="1" t="s">
-        <v>69</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="AD32" s="1"/>
       <c r="AE32" s="1"/>
-      <c r="AF32" s="1" t="s">
-        <v>126</v>
-      </c>
+      <c r="AF32" s="1"/>
       <c r="AG32" s="1"/>
       <c r="AH32" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="AI32" s="1"/>
       <c r="AJ32" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL32" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM32" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="AK32" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AL32" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AM32" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AN32" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AO32" s="1"/>
-      <c r="AP32" s="1"/>
+      <c r="AN32" s="1"/>
+      <c r="AO32" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AP32" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="AQ32" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AR32" s="1"/>
       <c r="AS32" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AT32" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AU32" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AV32" s="1"/>
-      <c r="AW32" s="1" t="s">
-        <v>89</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="AU32" s="1"/>
+      <c r="AV32" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW32" s="1"/>
       <c r="AX32" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AY32" s="1"/>
       <c r="AZ32" s="1"/>
@@ -4197,111 +4197,111 @@
         <v>1</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D34" s="1" t="s">
+      <c r="H34" s="1"/>
+      <c r="I34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J34" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="K34" s="1"/>
       <c r="L34" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="M34" s="1"/>
       <c r="N34" s="1" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="T34" s="1" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="U34" s="1"/>
       <c r="V34" s="1"/>
       <c r="W34" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="X34" s="1" t="s">
-        <v>66</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="X34" s="1"/>
       <c r="Y34" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="Z34" s="1"/>
       <c r="AA34" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="AB34" s="1"/>
       <c r="AC34" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AD34" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="AE34" s="1"/>
       <c r="AF34" s="1"/>
       <c r="AG34" s="1" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="AH34" s="1"/>
       <c r="AI34" s="1"/>
       <c r="AJ34" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AK34" s="1" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="AL34" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="AM34" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AN34" s="1"/>
       <c r="AO34" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AP34" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AQ34" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AR34" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AS34" s="1"/>
       <c r="AT34" s="1"/>
       <c r="AU34" s="1"/>
       <c r="AV34" s="1" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="AW34" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AX34" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AY34" s="1"/>
       <c r="AZ34" s="1"/>
@@ -4312,109 +4312,109 @@
         <v>2</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K35" s="1"/>
+        <v>81</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="L35" s="1"/>
-      <c r="M35" s="1" t="s">
-        <v>80</v>
-      </c>
+      <c r="M35" s="1"/>
       <c r="N35" s="1" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="P35" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R35" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="Q35" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="R35" s="1"/>
       <c r="S35" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="T35" s="1"/>
+        <v>60</v>
+      </c>
+      <c r="T35" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
       <c r="W35" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="X35" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y35" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z35" s="1" t="s">
-        <v>67</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1"/>
+      <c r="Z35" s="1"/>
       <c r="AA35" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="AB35" s="1" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="AC35" s="1"/>
       <c r="AD35" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="AE35" s="1"/>
       <c r="AF35" s="1"/>
       <c r="AG35" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AH35" s="1"/>
+        <v>69</v>
+      </c>
+      <c r="AH35" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="AI35" s="1"/>
       <c r="AJ35" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AK35" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="AK35" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="AL35" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AM35" s="1" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AN35" s="1"/>
       <c r="AO35" s="1"/>
       <c r="AP35" s="1"/>
       <c r="AQ35" s="1" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="AR35" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AS35" s="1"/>
+        <v>67</v>
+      </c>
+      <c r="AS35" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="AT35" s="1"/>
       <c r="AU35" s="1"/>
-      <c r="AV35" s="1" t="s">
-        <v>78</v>
-      </c>
+      <c r="AV35" s="1"/>
       <c r="AW35" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AX35" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AY35" s="1"/>
       <c r="AZ35" s="1"/>
@@ -4425,109 +4425,109 @@
         <v>3</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E36" s="1"/>
+        <v>77</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="F36" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M36" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="I36" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M36" s="1"/>
       <c r="N36" s="1" t="s">
         <v>57</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="Q36" s="1"/>
-      <c r="R36" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="R36" s="1"/>
       <c r="S36" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="T36" s="1" t="s">
-        <v>65</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="T36" s="1"/>
       <c r="U36" s="1"/>
       <c r="V36" s="1"/>
       <c r="W36" s="1" t="s">
         <v>91</v>
       </c>
       <c r="X36" s="1"/>
-      <c r="Y36" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="Y36" s="1"/>
       <c r="Z36" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA36" s="1"/>
+        <v>61</v>
+      </c>
+      <c r="AA36" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="AB36" s="1" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="AC36" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD36" s="1"/>
+        <v>73</v>
+      </c>
+      <c r="AD36" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="AE36" s="1"/>
       <c r="AF36" s="1"/>
       <c r="AG36" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AH36" s="1"/>
+        <v>69</v>
+      </c>
+      <c r="AH36" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="AI36" s="1"/>
       <c r="AJ36" s="1"/>
       <c r="AK36" s="1"/>
       <c r="AL36" s="1" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="AM36" s="1" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="AN36" s="1"/>
       <c r="AO36" s="1"/>
       <c r="AP36" s="1"/>
       <c r="AQ36" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AR36" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AS36" s="1"/>
-      <c r="AT36" s="1"/>
+        <v>67</v>
+      </c>
+      <c r="AS36" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AT36" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="AU36" s="1"/>
       <c r="AV36" s="1" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="AW36" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AX36" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AY36" s="1"/>
       <c r="AZ36" s="1"/>
@@ -4538,111 +4538,111 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D37" s="1"/>
+        <v>67</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="E37" s="1" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>56</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="I37" s="1"/>
       <c r="J37" s="1" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1" t="s">
-        <v>77</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M37" s="1"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="R37" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="S37" s="1"/>
-      <c r="T37" s="1" t="s">
-        <v>65</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="S37" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="T37" s="1"/>
       <c r="U37" s="1"/>
       <c r="V37" s="1"/>
       <c r="W37" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="X37" s="1"/>
-      <c r="Y37" s="1"/>
-      <c r="Z37" s="1"/>
+        <v>83</v>
+      </c>
+      <c r="X37" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y37" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z37" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="AA37" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB37" s="1" t="s">
-        <v>69</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="AB37" s="1"/>
       <c r="AC37" s="1"/>
       <c r="AD37" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AE37" s="1"/>
       <c r="AF37" s="1"/>
       <c r="AG37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH37" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AH37" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="AI37" s="1"/>
-      <c r="AJ37" s="1"/>
+      <c r="AJ37" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="AK37" s="1"/>
       <c r="AL37" s="1"/>
       <c r="AM37" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AN37" s="1" t="s">
-        <v>66</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="AN37" s="1"/>
       <c r="AO37" s="1"/>
       <c r="AP37" s="1"/>
-      <c r="AQ37" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="AQ37" s="1"/>
       <c r="AR37" s="1"/>
       <c r="AS37" s="1"/>
       <c r="AT37" s="1" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="AU37" s="1"/>
       <c r="AV37" s="1" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="AW37" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AX37" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AY37" s="1" t="s">
-        <v>71</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="AY37" s="1"/>
       <c r="AZ37" s="1"/>
       <c r="BA37" s="1"/>
     </row>
@@ -4651,111 +4651,111 @@
         <v>5</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D38" s="1"/>
+        <v>78</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="E38" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F38" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
       <c r="I38" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J38" s="1" t="s">
-        <v>80</v>
-      </c>
+      <c r="J38" s="1"/>
       <c r="K38" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>81</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="L38" s="1"/>
       <c r="M38" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q38" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="N38" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="O38" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="P38" s="1" t="s">
+      <c r="R38" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="S38" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="T38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="U38" s="1"/>
       <c r="V38" s="1"/>
-      <c r="W38" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="X38" s="1"/>
+      <c r="W38" s="1"/>
+      <c r="X38" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="Y38" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="Z38" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AA38" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AB38" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AC38" s="1" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="AD38" s="1" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="AE38" s="1"/>
       <c r="AF38" s="1"/>
-      <c r="AG38" s="1"/>
-      <c r="AH38" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="AG38" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH38" s="1"/>
       <c r="AI38" s="1"/>
       <c r="AJ38" s="1"/>
       <c r="AK38" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AL38" s="1"/>
-      <c r="AM38" s="1" t="s">
-        <v>61</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="AL38" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM38" s="1"/>
       <c r="AN38" s="1"/>
       <c r="AO38" s="1"/>
       <c r="AP38" s="1"/>
       <c r="AQ38" s="1" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="AR38" s="1"/>
       <c r="AS38" s="1"/>
       <c r="AT38" s="1" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="AU38" s="1"/>
       <c r="AV38" s="1" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="AW38" s="1"/>
       <c r="AX38" s="1"/>
-      <c r="AY38" s="1" t="s">
-        <v>71</v>
-      </c>
+      <c r="AY38" s="1"/>
       <c r="AZ38" s="1"/>
       <c r="BA38" s="1"/>
     </row>
@@ -4764,111 +4764,111 @@
         <v>6</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
+      <c r="D39" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="E39" s="1" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I39" s="1"/>
+      <c r="I39" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="J39" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="M39" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="N39" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
       <c r="Q39" s="1" t="s">
         <v>91</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="S39" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="T39" s="1" t="s">
-        <v>78</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
       <c r="U39" s="1"/>
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
       <c r="Y39" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="Z39" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AA39" s="1"/>
       <c r="AB39" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="AC39" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AD39" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="AE39" s="1"/>
       <c r="AF39" s="1"/>
       <c r="AG39" s="1"/>
       <c r="AH39" s="1" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="AI39" s="1"/>
       <c r="AJ39" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AK39" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AL39" s="1" t="s">
-        <v>57</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="AL39" s="1"/>
       <c r="AM39" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AN39" s="1" t="s">
-        <v>65</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="AN39" s="1"/>
       <c r="AO39" s="1"/>
       <c r="AP39" s="1"/>
       <c r="AQ39" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="AR39" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AS39" s="1" t="s">
-        <v>88</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="AS39" s="1"/>
       <c r="AT39" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="AU39" s="1"/>
-      <c r="AV39" s="1"/>
+      <c r="AV39" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="AW39" s="1"/>
       <c r="AX39" s="1"/>
-      <c r="AY39" s="1"/>
+      <c r="AY39" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="AZ39" s="1"/>
       <c r="BA39" s="1"/>
     </row>
@@ -4878,106 +4878,106 @@
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J40" s="1" t="s">
+      <c r="J40" s="1"/>
+      <c r="K40" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="R40" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="S40" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="T40" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M40" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="N40" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q40" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="R40" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="S40" s="1"/>
-      <c r="T40" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
       <c r="W40" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="X40" s="1"/>
-      <c r="Y40" s="1"/>
+      <c r="Y40" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="Z40" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="AA40" s="1"/>
       <c r="AB40" s="1" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="AC40" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AD40" s="1" t="s">
-        <v>67</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="AD40" s="1"/>
       <c r="AE40" s="1"/>
       <c r="AF40" s="1"/>
-      <c r="AG40" s="1" t="s">
+      <c r="AG40" s="1"/>
+      <c r="AH40" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI40" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ40" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK40" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL40" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AH40" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI40" s="1"/>
-      <c r="AJ40" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK40" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AL40" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AM40" s="1"/>
-      <c r="AN40" s="1" t="s">
-        <v>94</v>
-      </c>
+      <c r="AM40" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN40" s="1"/>
       <c r="AO40" s="1"/>
       <c r="AP40" s="1"/>
-      <c r="AQ40" s="1"/>
+      <c r="AQ40" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="AR40" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AS40" s="1" t="s">
-        <v>88</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="AS40" s="1"/>
       <c r="AT40" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="AU40" s="1"/>
       <c r="AV40" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="AW40" s="1"/>
       <c r="AX40" s="1"/>
